--- a/results/results_real_datasets.xlsx
+++ b/results/results_real_datasets.xlsx
@@ -16,7 +16,7 @@
   </sheets>
   <definedNames>
     <definedName name="resultsFRF_datasetArt67" localSheetId="0">Sheet2!#REF!</definedName>
-    <definedName name="resultsFRF_datasetArt67_3" localSheetId="0">Sheet2!$I$18:$J$30</definedName>
+    <definedName name="resultsFRF_datasetArt67_3" localSheetId="0">Sheet2!$K$18:$L$30</definedName>
     <definedName name="resultsWeka_datasetArt67" localSheetId="0">Sheet2!#REF!</definedName>
     <definedName name="resultsWeka_datasetArt67_3" localSheetId="0">Sheet2!$A$18:$H$30</definedName>
   </definedNames>
@@ -243,7 +243,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="45">
   <si>
     <t>name</t>
   </si>
@@ -266,12 +266,6 @@
     <t>gisette_train.arff</t>
   </si>
   <si>
-    <t>accuracy_FRF</t>
-  </si>
-  <si>
-    <t>time_FRF</t>
-  </si>
-  <si>
     <t>accuracy_weka</t>
   </si>
   <si>
@@ -281,9 +275,6 @@
     <t>numAttributes</t>
   </si>
   <si>
-    <t>SpeedUp</t>
-  </si>
-  <si>
     <t>arcene.arff</t>
   </si>
   <si>
@@ -365,7 +356,28 @@
     <t>waveform-5000.arff</t>
   </si>
   <si>
-    <t>accuracy_FRF - accuracy_weka</t>
+    <t>accuracy_FRF_0.99</t>
+  </si>
+  <si>
+    <t>time_FRF_0.99</t>
+  </si>
+  <si>
+    <t>accuracy_FRF_1.0</t>
+  </si>
+  <si>
+    <t>time_FRF_1.0</t>
+  </si>
+  <si>
+    <t>accuracy_FRF_1.0 - accuracy_weka</t>
+  </si>
+  <si>
+    <t>time_weka/time_FRF_1.0</t>
+  </si>
+  <si>
+    <t>accuracy_FRF_1.0 - accuracy_FRF_0.99</t>
+  </si>
+  <si>
+    <t>time_FRF_0.99 - time_FRF_1.0</t>
   </si>
 </sst>
 </file>
@@ -408,7 +420,19 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="8">
+  <dxfs count="12">
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="2" formatCode="0.00"/>
     </dxf>
@@ -463,12 +487,12 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table4" displayName="Table4" ref="A1:L30" totalsRowShown="0" headerRowBorderDxfId="7" tableBorderDxfId="6" headerRowCellStyle="Normal" dataCellStyle="Normal">
-  <autoFilter ref="A1:L30"/>
-  <sortState ref="A2:L30">
-    <sortCondition ref="A1:A30"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table4" displayName="Table4" ref="A1:P30" totalsRowShown="0" headerRowBorderDxfId="11" tableBorderDxfId="10" headerRowCellStyle="Normal" dataCellStyle="Normal">
+  <autoFilter ref="A1:P30"/>
+  <sortState ref="A2:P30">
+    <sortCondition ref="P1:P30"/>
   </sortState>
-  <tableColumns count="12">
+  <tableColumns count="16">
     <tableColumn id="1" name="name" dataCellStyle="Normal"/>
     <tableColumn id="2" name=" numInstances" dataCellStyle="Normal"/>
     <tableColumn id="3" name="numAttributes" dataCellStyle="Normal">
@@ -477,15 +501,23 @@
     <tableColumn id="4" name=" numNumeric" dataCellStyle="Normal"/>
     <tableColumn id="5" name=" numNominal" dataCellStyle="Normal"/>
     <tableColumn id="6" name=" numClasses" dataCellStyle="Normal"/>
-    <tableColumn id="9" name="accuracy_weka" dataDxfId="5" dataCellStyle="Normal"/>
-    <tableColumn id="10" name="time_weka" dataDxfId="4" dataCellStyle="Normal"/>
-    <tableColumn id="18" name="accuracy_FRF" dataDxfId="3" dataCellStyle="Normal"/>
-    <tableColumn id="19" name="time_FRF" dataDxfId="2" dataCellStyle="Normal"/>
-    <tableColumn id="20" name="accuracy_FRF - accuracy_weka" dataDxfId="1" dataCellStyle="Normal">
-      <calculatedColumnFormula>Table4[[#This Row],[accuracy_FRF]]-Table4[[#This Row],[accuracy_weka]]</calculatedColumnFormula>
+    <tableColumn id="9" name="accuracy_weka" dataDxfId="9" dataCellStyle="Normal"/>
+    <tableColumn id="10" name="time_weka" dataDxfId="8" dataCellStyle="Normal"/>
+    <tableColumn id="7" name="accuracy_FRF_0.99" dataDxfId="4"/>
+    <tableColumn id="8" name="time_FRF_0.99" dataDxfId="3"/>
+    <tableColumn id="18" name="accuracy_FRF_1.0" dataDxfId="7" dataCellStyle="Normal"/>
+    <tableColumn id="19" name="time_FRF_1.0" dataDxfId="6" dataCellStyle="Normal"/>
+    <tableColumn id="20" name="accuracy_FRF_1.0 - accuracy_weka" dataDxfId="5" dataCellStyle="Normal">
+      <calculatedColumnFormula>Table4[[#This Row],[accuracy_FRF_1.0]]-Table4[[#This Row],[accuracy_weka]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="21" name="SpeedUp" dataDxfId="0" dataCellStyle="Normal">
-      <calculatedColumnFormula>Table4[[#This Row],[time_weka]]/Table4[[#This Row],[time_FRF]]</calculatedColumnFormula>
+    <tableColumn id="11" name="time_weka/time_FRF_1.0" dataDxfId="2">
+      <calculatedColumnFormula>Table4[[#This Row],[time_weka]]/Table4[[#This Row],[time_FRF_1.0]]</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="12" name="accuracy_FRF_1.0 - accuracy_FRF_0.99" dataDxfId="1">
+      <calculatedColumnFormula>Table4[[#This Row],[accuracy_FRF_1.0]]-Table4[[#This Row],[accuracy_FRF_0.99]]</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="21" name="time_FRF_0.99 - time_FRF_1.0" dataDxfId="0" dataCellStyle="Normal">
+      <calculatedColumnFormula>Table4[[#This Row],[time_FRF_0.99]]/Table4[[#This Row],[time_FRF_1.0]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -755,10 +787,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L30"/>
+  <dimension ref="A1:R30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L13" sqref="L13:L15"/>
+      <selection activeCell="K34" sqref="K34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -770,13 +802,18 @@
     <col min="6" max="6" width="14.140625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="16.5703125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="30.140625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="19.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="33.85546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="26.28515625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="37" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="30.140625" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="11.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -784,7 +821,7 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D1" t="s">
         <v>2</v>
@@ -796,481 +833,669 @@
         <v>4</v>
       </c>
       <c r="G1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" t="s">
+        <v>37</v>
+      </c>
+      <c r="J1" t="s">
+        <v>38</v>
+      </c>
+      <c r="K1" t="s">
+        <v>39</v>
+      </c>
+      <c r="L1" t="s">
+        <v>40</v>
+      </c>
+      <c r="M1" t="s">
+        <v>41</v>
+      </c>
+      <c r="N1" t="s">
+        <v>42</v>
+      </c>
+      <c r="O1" t="s">
+        <v>43</v>
+      </c>
+      <c r="P1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B2">
+        <v>12960</v>
+      </c>
+      <c r="C2">
+        <f>Table4[[#This Row],[ numNumeric]]+Table4[[#This Row],[ numNominal]]</f>
+        <v>8</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>8</v>
+      </c>
+      <c r="F2">
+        <v>5</v>
+      </c>
+      <c r="G2" s="1">
+        <v>99.185185185185105</v>
+      </c>
+      <c r="H2" s="1">
+        <v>7159.8</v>
+      </c>
+      <c r="I2" s="1">
+        <v>37.344135802469097</v>
+      </c>
+      <c r="J2" s="1">
+        <v>6247</v>
+      </c>
+      <c r="K2" s="1">
+        <v>97.424382716049394</v>
+      </c>
+      <c r="L2" s="1">
+        <v>7603.2</v>
+      </c>
+      <c r="M2" s="1">
+        <f>Table4[[#This Row],[accuracy_FRF_1.0]]-Table4[[#This Row],[accuracy_weka]]</f>
+        <v>-1.7608024691357116</v>
+      </c>
+      <c r="N2" s="1">
+        <f>Table4[[#This Row],[time_weka]]/Table4[[#This Row],[time_FRF_1.0]]</f>
+        <v>0.9416824494949495</v>
+      </c>
+      <c r="O2" s="1">
+        <f>Table4[[#This Row],[accuracy_FRF_1.0]]-Table4[[#This Row],[accuracy_FRF_0.99]]</f>
+        <v>60.080246913580297</v>
+      </c>
+      <c r="P2" s="1">
+        <f>Table4[[#This Row],[time_FRF_0.99]]/Table4[[#This Row],[time_FRF_1.0]]</f>
+        <v>0.82162773569023573</v>
+      </c>
+      <c r="Q2" s="1"/>
+      <c r="R2" s="1"/>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3">
+        <v>45211</v>
+      </c>
+      <c r="C3">
+        <f>Table4[[#This Row],[ numNumeric]]+Table4[[#This Row],[ numNominal]]</f>
+        <v>16</v>
+      </c>
+      <c r="D3">
+        <v>7</v>
+      </c>
+      <c r="E3">
         <v>9</v>
-      </c>
-      <c r="H1" t="s">
-        <v>10</v>
-      </c>
-      <c r="I1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" t="s">
-        <v>8</v>
-      </c>
-      <c r="K1" t="s">
-        <v>40</v>
-      </c>
-      <c r="L1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B2">
-        <v>1500</v>
-      </c>
-      <c r="C2">
-        <f>Table4[[#This Row],[ numNumeric]]+Table4[[#This Row],[ numNominal]]</f>
-        <v>10000</v>
-      </c>
-      <c r="D2">
-        <v>10000</v>
-      </c>
-      <c r="E2">
-        <v>0</v>
-      </c>
-      <c r="F2">
-        <v>50</v>
-      </c>
-      <c r="G2" s="1">
-        <v>53.76</v>
-      </c>
-      <c r="H2" s="1">
-        <v>246351.4</v>
-      </c>
-      <c r="I2" s="1">
-        <v>66.533333333333303</v>
-      </c>
-      <c r="J2" s="1">
-        <v>27120.400000000001</v>
-      </c>
-      <c r="K2" s="1">
-        <f>Table4[[#This Row],[accuracy_FRF]]-Table4[[#This Row],[accuracy_weka]]</f>
-        <v>12.773333333333305</v>
-      </c>
-      <c r="L2" s="1">
-        <f>Table4[[#This Row],[time_weka]]/Table4[[#This Row],[time_FRF]]</f>
-        <v>9.0836197106237364</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B3">
-        <v>200</v>
-      </c>
-      <c r="C3">
-        <f>Table4[[#This Row],[ numNumeric]]+Table4[[#This Row],[ numNominal]]</f>
-        <v>10000</v>
-      </c>
-      <c r="D3">
-        <v>10000</v>
-      </c>
-      <c r="E3">
-        <v>0</v>
       </c>
       <c r="F3">
         <v>2</v>
       </c>
       <c r="G3" s="1">
-        <v>83.7</v>
+        <v>90.539028112627406</v>
       </c>
       <c r="H3" s="1">
-        <v>9490.7999999999993</v>
+        <v>99039.4</v>
       </c>
       <c r="I3" s="1">
-        <v>81.099999999999994</v>
+        <v>90.082059675742599</v>
       </c>
       <c r="J3" s="1">
-        <v>1753</v>
+        <v>98475</v>
       </c>
       <c r="K3" s="1">
-        <f>Table4[[#This Row],[accuracy_FRF]]-Table4[[#This Row],[accuracy_weka]]</f>
-        <v>-2.6000000000000085</v>
+        <v>90.569109287562696</v>
       </c>
       <c r="L3" s="1">
-        <f>Table4[[#This Row],[time_weka]]/Table4[[#This Row],[time_FRF]]</f>
-        <v>5.4140330861380486</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+        <v>83627.600000000006</v>
+      </c>
+      <c r="M3" s="1">
+        <f>Table4[[#This Row],[accuracy_FRF_1.0]]-Table4[[#This Row],[accuracy_weka]]</f>
+        <v>3.0081174935290278E-2</v>
+      </c>
+      <c r="N3" s="1">
+        <f>Table4[[#This Row],[time_weka]]/Table4[[#This Row],[time_FRF_1.0]]</f>
+        <v>1.1842908322132883</v>
+      </c>
+      <c r="O3" s="1">
+        <f>Table4[[#This Row],[accuracy_FRF_1.0]]-Table4[[#This Row],[accuracy_FRF_0.99]]</f>
+        <v>0.48704961182009754</v>
+      </c>
+      <c r="P3" s="1">
+        <f>Table4[[#This Row],[time_FRF_0.99]]/Table4[[#This Row],[time_FRF_1.0]]</f>
+        <v>1.1775418641692454</v>
+      </c>
+      <c r="Q3" s="1"/>
+      <c r="R3" s="1"/>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B4">
-        <v>45211</v>
+        <v>6118</v>
       </c>
       <c r="C4">
         <f>Table4[[#This Row],[ numNumeric]]+Table4[[#This Row],[ numNominal]]</f>
-        <v>16</v>
+        <v>51</v>
       </c>
       <c r="D4">
-        <v>7</v>
+        <v>51</v>
       </c>
       <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>6</v>
+      </c>
+      <c r="G4" s="1">
+        <v>63.151356652500802</v>
+      </c>
+      <c r="H4" s="1">
+        <v>32863</v>
+      </c>
+      <c r="I4" s="1">
+        <v>63.167701863353997</v>
+      </c>
+      <c r="J4" s="1">
+        <v>26586.799999999999</v>
+      </c>
+      <c r="K4" s="1">
+        <v>63.206930369401697</v>
+      </c>
+      <c r="L4" s="1">
+        <v>21056.799999999999</v>
+      </c>
+      <c r="M4" s="1">
+        <f>Table4[[#This Row],[accuracy_FRF_1.0]]-Table4[[#This Row],[accuracy_weka]]</f>
+        <v>5.5573716900894965E-2</v>
+      </c>
+      <c r="N4" s="1">
+        <f>Table4[[#This Row],[time_weka]]/Table4[[#This Row],[time_FRF_1.0]]</f>
+        <v>1.5606834846700355</v>
+      </c>
+      <c r="O4" s="1">
+        <f>Table4[[#This Row],[accuracy_FRF_1.0]]-Table4[[#This Row],[accuracy_FRF_0.99]]</f>
+        <v>3.9228506047699341E-2</v>
+      </c>
+      <c r="P4" s="1">
+        <f>Table4[[#This Row],[time_FRF_0.99]]/Table4[[#This Row],[time_FRF_1.0]]</f>
+        <v>1.2626230006458721</v>
+      </c>
+      <c r="Q4" s="1"/>
+      <c r="R4" s="1"/>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B5">
+        <v>5000</v>
+      </c>
+      <c r="C5">
+        <f>Table4[[#This Row],[ numNumeric]]+Table4[[#This Row],[ numNominal]]</f>
+        <v>40</v>
+      </c>
+      <c r="D5">
+        <v>40</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>3</v>
+      </c>
+      <c r="G5" s="1">
+        <v>85.431999999999903</v>
+      </c>
+      <c r="H5" s="1">
+        <v>19187.8</v>
+      </c>
+      <c r="I5" s="1">
+        <v>85.447999999999993</v>
+      </c>
+      <c r="J5" s="1">
+        <v>13970.4</v>
+      </c>
+      <c r="K5" s="1">
+        <v>85.783999999999907</v>
+      </c>
+      <c r="L5" s="1">
+        <v>10550.4</v>
+      </c>
+      <c r="M5" s="1">
+        <f>Table4[[#This Row],[accuracy_FRF_1.0]]-Table4[[#This Row],[accuracy_weka]]</f>
+        <v>0.35200000000000387</v>
+      </c>
+      <c r="N5" s="1">
+        <f>Table4[[#This Row],[time_weka]]/Table4[[#This Row],[time_FRF_1.0]]</f>
+        <v>1.8186798604792236</v>
+      </c>
+      <c r="O5" s="1">
+        <f>Table4[[#This Row],[accuracy_FRF_1.0]]-Table4[[#This Row],[accuracy_FRF_0.99]]</f>
+        <v>0.33599999999991326</v>
+      </c>
+      <c r="P5" s="1">
+        <f>Table4[[#This Row],[time_FRF_0.99]]/Table4[[#This Row],[time_FRF_1.0]]</f>
+        <v>1.3241583257506824</v>
+      </c>
+      <c r="Q5" s="1"/>
+      <c r="R5" s="1"/>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B6">
+        <v>3331</v>
+      </c>
+      <c r="C6">
+        <f>Table4[[#This Row],[ numNumeric]]+Table4[[#This Row],[ numNominal]]</f>
+        <v>60</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>60</v>
+      </c>
+      <c r="F6">
+        <v>10</v>
+      </c>
+      <c r="G6" s="1">
+        <v>76.355448814169904</v>
+      </c>
+      <c r="H6" s="1">
+        <v>63978.8</v>
+      </c>
+      <c r="I6" s="1">
+        <v>75.965175622936002</v>
+      </c>
+      <c r="J6" s="1">
+        <v>154710.6</v>
+      </c>
+      <c r="K6" s="1">
+        <v>76.217352146502506</v>
+      </c>
+      <c r="L6" s="1">
+        <v>107751</v>
+      </c>
+      <c r="M6" s="1">
+        <f>Table4[[#This Row],[accuracy_FRF_1.0]]-Table4[[#This Row],[accuracy_weka]]</f>
+        <v>-0.13809666766739781</v>
+      </c>
+      <c r="N6" s="1">
+        <f>Table4[[#This Row],[time_weka]]/Table4[[#This Row],[time_FRF_1.0]]</f>
+        <v>0.59376525507883915</v>
+      </c>
+      <c r="O6" s="1">
+        <f>Table4[[#This Row],[accuracy_FRF_1.0]]-Table4[[#This Row],[accuracy_FRF_0.99]]</f>
+        <v>0.25217652356650433</v>
+      </c>
+      <c r="P6" s="1">
+        <f>Table4[[#This Row],[time_FRF_0.99]]/Table4[[#This Row],[time_FRF_1.0]]</f>
+        <v>1.4358159089010776</v>
+      </c>
+      <c r="Q6" s="1"/>
+      <c r="R6" s="1"/>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7">
+        <v>34465</v>
+      </c>
+      <c r="C7">
+        <f>Table4[[#This Row],[ numNumeric]]+Table4[[#This Row],[ numNominal]]</f>
+        <v>118</v>
+      </c>
+      <c r="D7">
+        <v>89</v>
+      </c>
+      <c r="E7">
+        <v>29</v>
+      </c>
+      <c r="F7">
+        <v>2</v>
+      </c>
+      <c r="G7" s="1">
+        <v>97.032931959959299</v>
+      </c>
+      <c r="H7" s="1">
+        <v>179149.4</v>
+      </c>
+      <c r="I7" s="1">
+        <v>97.048600029014906</v>
+      </c>
+      <c r="J7" s="1">
+        <v>151799.4</v>
+      </c>
+      <c r="K7" s="1">
+        <v>97.067169592339994</v>
+      </c>
+      <c r="L7" s="1">
+        <v>105399.2</v>
+      </c>
+      <c r="M7" s="1">
+        <f>Table4[[#This Row],[accuracy_FRF_1.0]]-Table4[[#This Row],[accuracy_weka]]</f>
+        <v>3.4237632380694549E-2</v>
+      </c>
+      <c r="N7" s="1">
+        <f>Table4[[#This Row],[time_weka]]/Table4[[#This Row],[time_FRF_1.0]]</f>
+        <v>1.6997225785394956</v>
+      </c>
+      <c r="O7" s="1">
+        <f>Table4[[#This Row],[accuracy_FRF_1.0]]-Table4[[#This Row],[accuracy_FRF_0.99]]</f>
+        <v>1.8569563325087302E-2</v>
+      </c>
+      <c r="P7" s="1">
+        <f>Table4[[#This Row],[time_FRF_0.99]]/Table4[[#This Row],[time_FRF_1.0]]</f>
+        <v>1.4402329429445384</v>
+      </c>
+      <c r="Q7" s="1"/>
+      <c r="R7" s="1"/>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>25</v>
+      </c>
+      <c r="B8">
+        <v>2744</v>
+      </c>
+      <c r="C8">
+        <f>Table4[[#This Row],[ numNumeric]]+Table4[[#This Row],[ numNominal]]</f>
+        <v>60</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>60</v>
+      </c>
+      <c r="F8">
         <v>9</v>
       </c>
-      <c r="F4">
+      <c r="G8" s="1">
+        <v>77.128279883381893</v>
+      </c>
+      <c r="H8" s="1">
+        <v>13162.8</v>
+      </c>
+      <c r="I8" s="1">
+        <v>76.829446064139901</v>
+      </c>
+      <c r="J8" s="1">
+        <v>42349.2</v>
+      </c>
+      <c r="K8" s="1">
+        <v>76.8221574344023</v>
+      </c>
+      <c r="L8" s="1">
+        <v>29404</v>
+      </c>
+      <c r="M8" s="1">
+        <f>Table4[[#This Row],[accuracy_FRF_1.0]]-Table4[[#This Row],[accuracy_weka]]</f>
+        <v>-0.30612244897959329</v>
+      </c>
+      <c r="N8" s="1">
+        <f>Table4[[#This Row],[time_weka]]/Table4[[#This Row],[time_FRF_1.0]]</f>
+        <v>0.44765338049244996</v>
+      </c>
+      <c r="O8" s="1">
+        <f>Table4[[#This Row],[accuracy_FRF_1.0]]-Table4[[#This Row],[accuracy_FRF_0.99]]</f>
+        <v>-7.2886297376015818E-3</v>
+      </c>
+      <c r="P8" s="1">
+        <f>Table4[[#This Row],[time_FRF_0.99]]/Table4[[#This Row],[time_FRF_1.0]]</f>
+        <v>1.440253026799075</v>
+      </c>
+      <c r="Q8" s="1"/>
+      <c r="R8" s="1"/>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>35</v>
+      </c>
+      <c r="B9">
+        <v>14395</v>
+      </c>
+      <c r="C9">
+        <f>Table4[[#This Row],[ numNumeric]]+Table4[[#This Row],[ numNominal]]</f>
+        <v>216</v>
+      </c>
+      <c r="D9">
+        <v>216</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
         <v>2</v>
       </c>
-      <c r="G4" s="1">
-        <v>90.539028112627406</v>
-      </c>
-      <c r="H4" s="1">
-        <v>99039.4</v>
-      </c>
-      <c r="I4" s="1">
-        <v>90.569109287562696</v>
-      </c>
-      <c r="J4" s="1">
-        <v>83627.600000000006</v>
-      </c>
-      <c r="K4" s="1">
-        <f>Table4[[#This Row],[accuracy_FRF]]-Table4[[#This Row],[accuracy_weka]]</f>
-        <v>3.0081174935290278E-2</v>
-      </c>
-      <c r="L4" s="1">
-        <f>Table4[[#This Row],[time_weka]]/Table4[[#This Row],[time_FRF]]</f>
-        <v>1.1842908322132883</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>24</v>
-      </c>
-      <c r="B5">
-        <v>1080</v>
-      </c>
-      <c r="C5">
-        <f>Table4[[#This Row],[ numNumeric]]+Table4[[#This Row],[ numNominal]]</f>
-        <v>856</v>
-      </c>
-      <c r="D5">
-        <v>856</v>
-      </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
-      <c r="F5">
-        <v>9</v>
-      </c>
-      <c r="G5" s="1">
-        <v>94.037037037036995</v>
-      </c>
-      <c r="H5" s="1">
-        <v>24922.2</v>
-      </c>
-      <c r="I5" s="1">
-        <v>95.5</v>
-      </c>
-      <c r="J5" s="1">
-        <v>5943.8</v>
-      </c>
-      <c r="K5" s="1">
-        <f>Table4[[#This Row],[accuracy_FRF]]-Table4[[#This Row],[accuracy_weka]]</f>
-        <v>1.4629629629630045</v>
-      </c>
-      <c r="L5" s="1">
-        <f>Table4[[#This Row],[time_weka]]/Table4[[#This Row],[time_FRF]]</f>
-        <v>4.1929741915946028</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6">
-        <v>805</v>
-      </c>
-      <c r="C6">
-        <f>Table4[[#This Row],[ numNumeric]]+Table4[[#This Row],[ numNominal]]</f>
-        <v>100000</v>
-      </c>
-      <c r="D6">
-        <v>100000</v>
-      </c>
-      <c r="E6">
-        <v>0</v>
-      </c>
-      <c r="F6">
+      <c r="G9" s="1">
+        <v>99.149704758596698</v>
+      </c>
+      <c r="H9" s="1">
+        <v>68198.8</v>
+      </c>
+      <c r="I9" s="1">
+        <v>99.078846821813102</v>
+      </c>
+      <c r="J9" s="1">
+        <v>63704.2</v>
+      </c>
+      <c r="K9" s="1">
+        <v>98.136853073984</v>
+      </c>
+      <c r="L9" s="1">
+        <v>38582.400000000001</v>
+      </c>
+      <c r="M9" s="1">
+        <f>Table4[[#This Row],[accuracy_FRF_1.0]]-Table4[[#This Row],[accuracy_weka]]</f>
+        <v>-1.0128516846126985</v>
+      </c>
+      <c r="N9" s="1">
+        <f>Table4[[#This Row],[time_weka]]/Table4[[#This Row],[time_FRF_1.0]]</f>
+        <v>1.7676142489839928</v>
+      </c>
+      <c r="O9" s="1">
+        <f>Table4[[#This Row],[accuracy_FRF_1.0]]-Table4[[#This Row],[accuracy_FRF_0.99]]</f>
+        <v>-0.94199374782910184</v>
+      </c>
+      <c r="P9" s="1">
+        <f>Table4[[#This Row],[time_FRF_0.99]]/Table4[[#This Row],[time_FRF_1.0]]</f>
+        <v>1.6511207182549554</v>
+      </c>
+      <c r="Q9" s="1"/>
+      <c r="R9" s="1"/>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10">
+        <v>6598</v>
+      </c>
+      <c r="C10">
+        <f>Table4[[#This Row],[ numNumeric]]+Table4[[#This Row],[ numNominal]]</f>
+        <v>167</v>
+      </c>
+      <c r="D10">
+        <v>166</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10">
         <v>2</v>
       </c>
-      <c r="G6" s="1">
-        <v>89.167701863353997</v>
-      </c>
-      <c r="H6" s="1">
-        <v>497085.8</v>
-      </c>
-      <c r="I6" s="1">
-        <v>89.118012422360195</v>
-      </c>
-      <c r="J6" s="1">
-        <v>92907.8</v>
-      </c>
-      <c r="K6" s="1">
-        <f>Table4[[#This Row],[accuracy_FRF]]-Table4[[#This Row],[accuracy_weka]]</f>
-        <v>-4.9689440993802236E-2</v>
-      </c>
-      <c r="L6" s="1">
-        <f>Table4[[#This Row],[time_weka]]/Table4[[#This Row],[time_FRF]]</f>
-        <v>5.3503128908444717</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>25</v>
-      </c>
-      <c r="B7">
-        <v>6118</v>
-      </c>
-      <c r="C7">
-        <f>Table4[[#This Row],[ numNumeric]]+Table4[[#This Row],[ numNominal]]</f>
-        <v>51</v>
-      </c>
-      <c r="D7">
-        <v>51</v>
-      </c>
-      <c r="E7">
-        <v>0</v>
-      </c>
-      <c r="F7">
-        <v>6</v>
-      </c>
-      <c r="G7" s="1">
-        <v>63.151356652500802</v>
-      </c>
-      <c r="H7" s="1">
-        <v>32863</v>
-      </c>
-      <c r="I7" s="1">
-        <v>63.206930369401697</v>
-      </c>
-      <c r="J7" s="1">
-        <v>21056.799999999999</v>
-      </c>
-      <c r="K7" s="1">
-        <f>Table4[[#This Row],[accuracy_FRF]]-Table4[[#This Row],[accuracy_weka]]</f>
-        <v>5.5573716900894965E-2</v>
-      </c>
-      <c r="L7" s="1">
-        <f>Table4[[#This Row],[time_weka]]/Table4[[#This Row],[time_FRF]]</f>
-        <v>1.5606834846700355</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+      <c r="G10" s="1">
+        <v>99.57</v>
+      </c>
+      <c r="H10" s="1">
+        <v>20453.8</v>
+      </c>
+      <c r="I10" s="1">
+        <v>99.518035768414606</v>
+      </c>
+      <c r="J10" s="1">
+        <v>20953.400000000001</v>
+      </c>
+      <c r="K10" s="1">
+        <v>99.399818126705</v>
+      </c>
+      <c r="L10" s="1">
+        <v>12625.2</v>
+      </c>
+      <c r="M10" s="1">
+        <f>Table4[[#This Row],[accuracy_FRF_1.0]]-Table4[[#This Row],[accuracy_weka]]</f>
+        <v>-0.17018187329499312</v>
+      </c>
+      <c r="N10" s="1">
+        <f>Table4[[#This Row],[time_weka]]/Table4[[#This Row],[time_FRF_1.0]]</f>
+        <v>1.620077305706048</v>
+      </c>
+      <c r="O10" s="1">
+        <f>Table4[[#This Row],[accuracy_FRF_1.0]]-Table4[[#This Row],[accuracy_FRF_0.99]]</f>
+        <v>-0.11821764170960591</v>
+      </c>
+      <c r="P10" s="1">
+        <f>Table4[[#This Row],[time_FRF_0.99]]/Table4[[#This Row],[time_FRF_1.0]]</f>
+        <v>1.6596489560561416</v>
+      </c>
+      <c r="Q10" s="1"/>
+      <c r="R10" s="1"/>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>30</v>
+      </c>
+      <c r="B11">
+        <v>2000</v>
+      </c>
+      <c r="C11">
+        <f>Table4[[#This Row],[ numNumeric]]+Table4[[#This Row],[ numNominal]]</f>
+        <v>47</v>
+      </c>
+      <c r="D11">
+        <v>47</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>10</v>
+      </c>
+      <c r="G11" s="1">
+        <v>77.67</v>
+      </c>
+      <c r="H11" s="1">
+        <v>10484.4</v>
+      </c>
+      <c r="I11" s="1">
+        <v>77.64</v>
+      </c>
+      <c r="J11" s="1">
+        <v>9668.2000000000007</v>
+      </c>
+      <c r="K11" s="1">
+        <v>77.669999999999902</v>
+      </c>
+      <c r="L11" s="1">
+        <v>5753.4</v>
+      </c>
+      <c r="M11" s="1">
+        <f>Table4[[#This Row],[accuracy_FRF_1.0]]-Table4[[#This Row],[accuracy_weka]]</f>
+        <v>0</v>
+      </c>
+      <c r="N11" s="1">
+        <f>Table4[[#This Row],[time_weka]]/Table4[[#This Row],[time_FRF_1.0]]</f>
+        <v>1.8222963812702055</v>
+      </c>
+      <c r="O11" s="1">
+        <f>Table4[[#This Row],[accuracy_FRF_1.0]]-Table4[[#This Row],[accuracy_FRF_0.99]]</f>
+        <v>2.9999999999901661E-2</v>
+      </c>
+      <c r="P11" s="1">
+        <f>Table4[[#This Row],[time_FRF_0.99]]/Table4[[#This Row],[time_FRF_1.0]]</f>
+        <v>1.6804324399485524</v>
+      </c>
+      <c r="Q11" s="1"/>
+      <c r="R11" s="1"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>29</v>
+      </c>
+      <c r="B12">
+        <v>2000</v>
+      </c>
+      <c r="C12">
+        <f>Table4[[#This Row],[ numNumeric]]+Table4[[#This Row],[ numNominal]]</f>
+        <v>64</v>
+      </c>
+      <c r="D12">
+        <v>64</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>10</v>
+      </c>
+      <c r="G12" s="1">
+        <v>96.46</v>
+      </c>
+      <c r="H12" s="1">
+        <v>11343.8</v>
+      </c>
+      <c r="I12" s="1">
+        <v>96.429999999999893</v>
+      </c>
+      <c r="J12" s="1">
+        <v>10957.2</v>
+      </c>
+      <c r="K12" s="1">
+        <v>96.4</v>
+      </c>
+      <c r="L12" s="1">
+        <v>6302.8</v>
+      </c>
+      <c r="M12" s="1">
+        <f>Table4[[#This Row],[accuracy_FRF_1.0]]-Table4[[#This Row],[accuracy_weka]]</f>
+        <v>-5.9999999999988063E-2</v>
+      </c>
+      <c r="N12" s="1">
+        <f>Table4[[#This Row],[time_weka]]/Table4[[#This Row],[time_FRF_1.0]]</f>
+        <v>1.7998032620422668</v>
+      </c>
+      <c r="O12" s="1">
+        <f>Table4[[#This Row],[accuracy_FRF_1.0]]-Table4[[#This Row],[accuracy_FRF_0.99]]</f>
+        <v>-2.999999999988745E-2</v>
+      </c>
+      <c r="P12" s="1">
+        <f>Table4[[#This Row],[time_FRF_0.99]]/Table4[[#This Row],[time_FRF_1.0]]</f>
+        <v>1.7384654439296821</v>
+      </c>
+      <c r="Q12" s="1"/>
+      <c r="R12" s="1"/>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
         <v>27</v>
       </c>
-      <c r="B8">
-        <v>1600</v>
-      </c>
-      <c r="C8">
-        <f>Table4[[#This Row],[ numNumeric]]+Table4[[#This Row],[ numNominal]]</f>
-        <v>1000</v>
-      </c>
-      <c r="D8">
-        <v>0</v>
-      </c>
-      <c r="E8">
-        <v>1000</v>
-      </c>
-      <c r="F8">
-        <v>2</v>
-      </c>
-      <c r="G8" s="1">
-        <v>49.087499999999999</v>
-      </c>
-      <c r="H8" s="1">
-        <v>13325</v>
-      </c>
-      <c r="I8" s="1">
-        <v>50.35</v>
-      </c>
-      <c r="J8" s="1">
-        <v>2931.4</v>
-      </c>
-      <c r="K8" s="1">
-        <f>Table4[[#This Row],[accuracy_FRF]]-Table4[[#This Row],[accuracy_weka]]</f>
-        <v>1.2625000000000028</v>
-      </c>
-      <c r="L8" s="1">
-        <f>Table4[[#This Row],[time_weka]]/Table4[[#This Row],[time_FRF]]</f>
-        <v>4.5456096063314453</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>18</v>
-      </c>
-      <c r="B9">
-        <v>13910</v>
-      </c>
-      <c r="C9">
-        <f>Table4[[#This Row],[ numNumeric]]+Table4[[#This Row],[ numNominal]]</f>
-        <v>128</v>
-      </c>
-      <c r="D9">
-        <v>128</v>
-      </c>
-      <c r="E9">
-        <v>0</v>
-      </c>
-      <c r="F9">
-        <v>6</v>
-      </c>
-      <c r="G9" s="1">
-        <v>99.479511143062496</v>
-      </c>
-      <c r="H9" s="1">
-        <v>89345.4</v>
-      </c>
-      <c r="I9" s="1">
-        <v>99.445003594536303</v>
-      </c>
-      <c r="J9" s="1">
-        <v>44972.800000000003</v>
-      </c>
-      <c r="K9" s="1">
-        <f>Table4[[#This Row],[accuracy_FRF]]-Table4[[#This Row],[accuracy_weka]]</f>
-        <v>-3.4507548526192977E-2</v>
-      </c>
-      <c r="L9" s="1">
-        <f>Table4[[#This Row],[time_weka]]/Table4[[#This Row],[time_FRF]]</f>
-        <v>1.9866541554005974</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>17</v>
-      </c>
-      <c r="B10">
-        <v>13910</v>
-      </c>
-      <c r="C10">
-        <f>Table4[[#This Row],[ numNumeric]]+Table4[[#This Row],[ numNominal]]</f>
-        <v>129</v>
-      </c>
-      <c r="D10">
-        <v>129</v>
-      </c>
-      <c r="E10">
-        <v>0</v>
-      </c>
-      <c r="F10">
-        <v>6</v>
-      </c>
-      <c r="G10" s="1">
-        <v>99.489575844716001</v>
-      </c>
-      <c r="H10" s="1">
-        <v>88263.8</v>
-      </c>
-      <c r="I10" s="1">
-        <v>99.469446441409005</v>
-      </c>
-      <c r="J10" s="1">
-        <v>43841.599999999999</v>
-      </c>
-      <c r="K10" s="1">
-        <f>Table4[[#This Row],[accuracy_FRF]]-Table4[[#This Row],[accuracy_weka]]</f>
-        <v>-2.0129403306995641E-2</v>
-      </c>
-      <c r="L10" s="1">
-        <f>Table4[[#This Row],[time_weka]]/Table4[[#This Row],[time_FRF]]</f>
-        <v>2.0132431298127806</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>6</v>
-      </c>
-      <c r="B11">
-        <v>4900</v>
-      </c>
-      <c r="C11">
-        <f>Table4[[#This Row],[ numNumeric]]+Table4[[#This Row],[ numNominal]]</f>
-        <v>5000</v>
-      </c>
-      <c r="D11">
-        <v>5000</v>
-      </c>
-      <c r="E11">
-        <v>0</v>
-      </c>
-      <c r="F11">
-        <v>2</v>
-      </c>
-      <c r="G11" s="1">
-        <v>96.546938775510199</v>
-      </c>
-      <c r="H11" s="1">
-        <v>113693.4</v>
-      </c>
-      <c r="I11" s="1">
-        <v>96.269387755102002</v>
-      </c>
-      <c r="J11" s="1">
-        <v>42225.599999999999</v>
-      </c>
-      <c r="K11" s="1">
-        <f>Table4[[#This Row],[accuracy_FRF]]-Table4[[#This Row],[accuracy_weka]]</f>
-        <v>-0.27755102040819679</v>
-      </c>
-      <c r="L11" s="1">
-        <f>Table4[[#This Row],[time_weka]]/Table4[[#This Row],[time_FRF]]</f>
-        <v>2.6925230192110945</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>19</v>
-      </c>
-      <c r="B12">
-        <v>10299</v>
-      </c>
-      <c r="C12">
-        <f>Table4[[#This Row],[ numNumeric]]+Table4[[#This Row],[ numNominal]]</f>
-        <v>561</v>
-      </c>
-      <c r="D12">
-        <v>561</v>
-      </c>
-      <c r="E12">
-        <v>0</v>
-      </c>
-      <c r="F12">
-        <v>6</v>
-      </c>
-      <c r="G12" s="1">
-        <v>98.2075929701912</v>
-      </c>
-      <c r="H12" s="1">
-        <v>97985.8</v>
-      </c>
-      <c r="I12" s="1">
-        <v>98.193999417419107</v>
-      </c>
-      <c r="J12" s="1">
-        <v>49482.2</v>
-      </c>
-      <c r="K12" s="1">
-        <f>Table4[[#This Row],[accuracy_FRF]]-Table4[[#This Row],[accuracy_weka]]</f>
-        <v>-1.3593552772093176E-2</v>
-      </c>
-      <c r="L12" s="1">
-        <f>Table4[[#This Row],[time_weka]]/Table4[[#This Row],[time_FRF]]</f>
-        <v>1.9802231913698261</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>28</v>
-      </c>
       <c r="B13">
-        <v>2744</v>
+        <v>4062</v>
       </c>
       <c r="C13">
         <f>Table4[[#This Row],[ numNumeric]]+Table4[[#This Row],[ numNominal]]</f>
@@ -1286,152 +1511,216 @@
         <v>9</v>
       </c>
       <c r="G13" s="1">
-        <v>77.128279883381893</v>
+        <v>86.0413589364844</v>
       </c>
       <c r="H13" s="1">
-        <v>13162.8</v>
+        <v>55359.6</v>
       </c>
       <c r="I13" s="1">
-        <v>76.8221574344023</v>
+        <v>85.977351058591793</v>
       </c>
       <c r="J13" s="1">
-        <v>29404</v>
+        <v>121163.2</v>
       </c>
       <c r="K13" s="1">
-        <f>Table4[[#This Row],[accuracy_FRF]]-Table4[[#This Row],[accuracy_weka]]</f>
-        <v>-0.30612244897959329</v>
+        <v>86.248153618906898</v>
       </c>
       <c r="L13" s="1">
-        <f>Table4[[#This Row],[time_weka]]/Table4[[#This Row],[time_FRF]]</f>
-        <v>0.44765338049244996</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+        <v>69350.399999999994</v>
+      </c>
+      <c r="M13" s="1">
+        <f>Table4[[#This Row],[accuracy_FRF_1.0]]-Table4[[#This Row],[accuracy_weka]]</f>
+        <v>0.20679468242249754</v>
+      </c>
+      <c r="N13" s="1">
+        <f>Table4[[#This Row],[time_weka]]/Table4[[#This Row],[time_FRF_1.0]]</f>
+        <v>0.79825927464008861</v>
+      </c>
+      <c r="O13" s="1">
+        <f>Table4[[#This Row],[accuracy_FRF_1.0]]-Table4[[#This Row],[accuracy_FRF_0.99]]</f>
+        <v>0.2708025603151043</v>
+      </c>
+      <c r="P13" s="1">
+        <f>Table4[[#This Row],[time_FRF_0.99]]/Table4[[#This Row],[time_FRF_1.0]]</f>
+        <v>1.7471160944998156</v>
+      </c>
+      <c r="Q13" s="1"/>
+      <c r="R13" s="1"/>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="B14">
-        <v>3331</v>
+        <v>13910</v>
       </c>
       <c r="C14">
         <f>Table4[[#This Row],[ numNumeric]]+Table4[[#This Row],[ numNominal]]</f>
-        <v>60</v>
+        <v>128</v>
       </c>
       <c r="D14">
-        <v>0</v>
+        <v>128</v>
       </c>
       <c r="E14">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="F14">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="G14" s="1">
-        <v>76.355448814169904</v>
+        <v>99.479511143062496</v>
       </c>
       <c r="H14" s="1">
-        <v>63978.8</v>
+        <v>89345.4</v>
       </c>
       <c r="I14" s="1">
-        <v>76.217352146502506</v>
+        <v>99.472322070452904</v>
       </c>
       <c r="J14" s="1">
-        <v>107751</v>
+        <v>82852</v>
       </c>
       <c r="K14" s="1">
-        <f>Table4[[#This Row],[accuracy_FRF]]-Table4[[#This Row],[accuracy_weka]]</f>
-        <v>-0.13809666766739781</v>
+        <v>99.445003594536303</v>
       </c>
       <c r="L14" s="1">
-        <f>Table4[[#This Row],[time_weka]]/Table4[[#This Row],[time_FRF]]</f>
-        <v>0.59376525507883915</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+        <v>44972.800000000003</v>
+      </c>
+      <c r="M14" s="1">
+        <f>Table4[[#This Row],[accuracy_FRF_1.0]]-Table4[[#This Row],[accuracy_weka]]</f>
+        <v>-3.4507548526192977E-2</v>
+      </c>
+      <c r="N14" s="1">
+        <f>Table4[[#This Row],[time_weka]]/Table4[[#This Row],[time_FRF_1.0]]</f>
+        <v>1.9866541554005974</v>
+      </c>
+      <c r="O14" s="1">
+        <f>Table4[[#This Row],[accuracy_FRF_1.0]]-Table4[[#This Row],[accuracy_FRF_0.99]]</f>
+        <v>-2.7318475916601415E-2</v>
+      </c>
+      <c r="P14" s="1">
+        <f>Table4[[#This Row],[time_FRF_0.99]]/Table4[[#This Row],[time_FRF_1.0]]</f>
+        <v>1.8422691048811726</v>
+      </c>
+      <c r="Q14" s="1"/>
+      <c r="R14" s="1"/>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>30</v>
+        <v>14</v>
       </c>
       <c r="B15">
-        <v>4062</v>
+        <v>13910</v>
       </c>
       <c r="C15">
         <f>Table4[[#This Row],[ numNumeric]]+Table4[[#This Row],[ numNominal]]</f>
-        <v>60</v>
+        <v>129</v>
       </c>
       <c r="D15">
-        <v>0</v>
+        <v>129</v>
       </c>
       <c r="E15">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="F15">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="G15" s="1">
-        <v>86.0413589364844</v>
+        <v>99.489575844716001</v>
       </c>
       <c r="H15" s="1">
-        <v>55359.6</v>
+        <v>88263.8</v>
       </c>
       <c r="I15" s="1">
-        <v>86.248153618906898</v>
+        <v>99.485262401150194</v>
       </c>
       <c r="J15" s="1">
-        <v>69350.399999999994</v>
+        <v>82258.8</v>
       </c>
       <c r="K15" s="1">
-        <f>Table4[[#This Row],[accuracy_FRF]]-Table4[[#This Row],[accuracy_weka]]</f>
-        <v>0.20679468242249754</v>
+        <v>99.469446441409005</v>
       </c>
       <c r="L15" s="1">
-        <f>Table4[[#This Row],[time_weka]]/Table4[[#This Row],[time_FRF]]</f>
-        <v>0.79825927464008861</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+        <v>43841.599999999999</v>
+      </c>
+      <c r="M15" s="1">
+        <f>Table4[[#This Row],[accuracy_FRF_1.0]]-Table4[[#This Row],[accuracy_weka]]</f>
+        <v>-2.0129403306995641E-2</v>
+      </c>
+      <c r="N15" s="1">
+        <f>Table4[[#This Row],[time_weka]]/Table4[[#This Row],[time_FRF_1.0]]</f>
+        <v>2.0132431298127806</v>
+      </c>
+      <c r="O15" s="1">
+        <f>Table4[[#This Row],[accuracy_FRF_1.0]]-Table4[[#This Row],[accuracy_FRF_0.99]]</f>
+        <v>-1.5815959741189545E-2</v>
+      </c>
+      <c r="P15" s="1">
+        <f>Table4[[#This Row],[time_FRF_0.99]]/Table4[[#This Row],[time_FRF_1.0]]</f>
+        <v>1.8762727637677459</v>
+      </c>
+      <c r="Q15" s="1"/>
+      <c r="R15" s="1"/>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="B16">
-        <v>2600</v>
+        <v>8378</v>
       </c>
       <c r="C16">
         <f>Table4[[#This Row],[ numNumeric]]+Table4[[#This Row],[ numNominal]]</f>
-        <v>500</v>
+        <v>122</v>
       </c>
       <c r="D16">
-        <v>500</v>
+        <v>59</v>
       </c>
       <c r="E16">
-        <v>0</v>
+        <v>63</v>
       </c>
       <c r="F16">
         <v>2</v>
       </c>
       <c r="G16" s="1">
-        <v>67.400000000000006</v>
+        <v>92.924325614705097</v>
       </c>
       <c r="H16" s="1">
-        <v>22888.2</v>
+        <v>22187.8</v>
       </c>
       <c r="I16" s="1">
-        <v>67.707692307692298</v>
+        <v>97.333492480305495</v>
       </c>
       <c r="J16" s="1">
-        <v>11412.8</v>
+        <v>30177.4</v>
       </c>
       <c r="K16" s="1">
-        <f>Table4[[#This Row],[accuracy_FRF]]-Table4[[#This Row],[accuracy_weka]]</f>
-        <v>0.30769230769229239</v>
+        <v>96.082597278586704</v>
       </c>
       <c r="L16" s="1">
-        <f>Table4[[#This Row],[time_weka]]/Table4[[#This Row],[time_FRF]]</f>
-        <v>2.0054850693957662</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+        <v>14784.4</v>
+      </c>
+      <c r="M16" s="1">
+        <f>Table4[[#This Row],[accuracy_FRF_1.0]]-Table4[[#This Row],[accuracy_weka]]</f>
+        <v>3.1582716638816066</v>
+      </c>
+      <c r="N16" s="1">
+        <f>Table4[[#This Row],[time_weka]]/Table4[[#This Row],[time_FRF_1.0]]</f>
+        <v>1.5007575552609507</v>
+      </c>
+      <c r="O16" s="1">
+        <f>Table4[[#This Row],[accuracy_FRF_1.0]]-Table4[[#This Row],[accuracy_FRF_0.99]]</f>
+        <v>-1.2508952017187909</v>
+      </c>
+      <c r="P16" s="1">
+        <f>Table4[[#This Row],[time_FRF_0.99]]/Table4[[#This Row],[time_FRF_1.0]]</f>
+        <v>2.0411650117691624</v>
+      </c>
+      <c r="Q16" s="1"/>
+      <c r="R16" s="1"/>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B17">
         <v>2000</v>
@@ -1456,310 +1745,438 @@
         <v>8753.2000000000007</v>
       </c>
       <c r="I17" s="1">
+        <v>96.77</v>
+      </c>
+      <c r="J17" s="1">
+        <v>11561.2</v>
+      </c>
+      <c r="K17" s="1">
         <v>96.869999999999905</v>
       </c>
-      <c r="J17" s="1">
+      <c r="L17" s="1">
         <v>5540.6</v>
       </c>
-      <c r="K17" s="1">
-        <f>Table4[[#This Row],[accuracy_FRF]]-Table4[[#This Row],[accuracy_weka]]</f>
+      <c r="M17" s="1">
+        <f>Table4[[#This Row],[accuracy_FRF_1.0]]-Table4[[#This Row],[accuracy_weka]]</f>
         <v>-1.0000000000090381E-2</v>
       </c>
-      <c r="L17" s="1">
-        <f>Table4[[#This Row],[time_weka]]/Table4[[#This Row],[time_FRF]]</f>
+      <c r="N17" s="1">
+        <f>Table4[[#This Row],[time_weka]]/Table4[[#This Row],[time_FRF_1.0]]</f>
         <v>1.5798288993971772</v>
       </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="O17" s="1">
+        <f>Table4[[#This Row],[accuracy_FRF_1.0]]-Table4[[#This Row],[accuracy_FRF_0.99]]</f>
+        <v>9.9999999999909051E-2</v>
+      </c>
+      <c r="P17" s="1">
+        <f>Table4[[#This Row],[time_FRF_0.99]]/Table4[[#This Row],[time_FRF_1.0]]</f>
+        <v>2.0866332166191386</v>
+      </c>
+      <c r="Q17" s="1"/>
+      <c r="R17" s="1"/>
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="B18">
+        <v>2600</v>
+      </c>
+      <c r="C18">
+        <f>Table4[[#This Row],[ numNumeric]]+Table4[[#This Row],[ numNominal]]</f>
+        <v>500</v>
+      </c>
+      <c r="D18">
+        <v>500</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>2</v>
+      </c>
+      <c r="G18" s="1">
+        <v>67.400000000000006</v>
+      </c>
+      <c r="H18" s="1">
+        <v>22888.2</v>
+      </c>
+      <c r="I18" s="1">
+        <v>66.915384615384596</v>
+      </c>
+      <c r="J18" s="1">
+        <v>41418.6</v>
+      </c>
+      <c r="K18" s="1">
+        <v>67.707692307692298</v>
+      </c>
+      <c r="L18" s="1">
+        <v>11412.8</v>
+      </c>
+      <c r="M18" s="1">
+        <f>Table4[[#This Row],[accuracy_FRF_1.0]]-Table4[[#This Row],[accuracy_weka]]</f>
+        <v>0.30769230769229239</v>
+      </c>
+      <c r="N18" s="1">
+        <f>Table4[[#This Row],[time_weka]]/Table4[[#This Row],[time_FRF_1.0]]</f>
+        <v>2.0054850693957662</v>
+      </c>
+      <c r="O18" s="1">
+        <f>Table4[[#This Row],[accuracy_FRF_1.0]]-Table4[[#This Row],[accuracy_FRF_0.99]]</f>
+        <v>0.79230769230770193</v>
+      </c>
+      <c r="P18" s="1">
+        <f>Table4[[#This Row],[time_FRF_0.99]]/Table4[[#This Row],[time_FRF_1.0]]</f>
+        <v>3.6291357072760411</v>
+      </c>
+      <c r="Q18" s="1"/>
+      <c r="R18" s="1"/>
+    </row>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>16</v>
+      </c>
+      <c r="B19">
+        <v>10299</v>
+      </c>
+      <c r="C19">
+        <f>Table4[[#This Row],[ numNumeric]]+Table4[[#This Row],[ numNominal]]</f>
+        <v>561</v>
+      </c>
+      <c r="D19">
+        <v>561</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>6</v>
+      </c>
+      <c r="G19" s="1">
+        <v>98.2075929701912</v>
+      </c>
+      <c r="H19" s="1">
+        <v>97985.8</v>
+      </c>
+      <c r="I19" s="1">
+        <v>98.178463928536701</v>
+      </c>
+      <c r="J19" s="1">
+        <v>183516.2</v>
+      </c>
+      <c r="K19" s="1">
+        <v>98.193999417419107</v>
+      </c>
+      <c r="L19" s="1">
+        <v>49482.2</v>
+      </c>
+      <c r="M19" s="1">
+        <f>Table4[[#This Row],[accuracy_FRF_1.0]]-Table4[[#This Row],[accuracy_weka]]</f>
+        <v>-1.3593552772093176E-2</v>
+      </c>
+      <c r="N19" s="1">
+        <f>Table4[[#This Row],[time_weka]]/Table4[[#This Row],[time_FRF_1.0]]</f>
+        <v>1.9802231913698261</v>
+      </c>
+      <c r="O19" s="1">
+        <f>Table4[[#This Row],[accuracy_FRF_1.0]]-Table4[[#This Row],[accuracy_FRF_0.99]]</f>
+        <v>1.5535488882406412E-2</v>
+      </c>
+      <c r="P19" s="1">
+        <f>Table4[[#This Row],[time_FRF_0.99]]/Table4[[#This Row],[time_FRF_1.0]]</f>
+        <v>3.7087316247054503</v>
+      </c>
+      <c r="Q19" s="1"/>
+      <c r="R19" s="1"/>
+    </row>
+    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>18</v>
+      </c>
+      <c r="B20">
         <v>2000</v>
       </c>
-      <c r="C18">
-        <f>Table4[[#This Row],[ numNumeric]]+Table4[[#This Row],[ numNominal]]</f>
-        <v>64</v>
-      </c>
-      <c r="D18">
-        <v>64</v>
-      </c>
-      <c r="E18">
-        <v>0</v>
-      </c>
-      <c r="F18">
+      <c r="C20">
+        <f>Table4[[#This Row],[ numNumeric]]+Table4[[#This Row],[ numNominal]]</f>
+        <v>649</v>
+      </c>
+      <c r="D20">
+        <v>649</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
+      </c>
+      <c r="F20">
         <v>10</v>
       </c>
-      <c r="G18" s="1">
-        <v>96.46</v>
-      </c>
-      <c r="H18" s="1">
-        <v>11343.8</v>
-      </c>
-      <c r="I18" s="1">
-        <v>96.4</v>
-      </c>
-      <c r="J18" s="1">
-        <v>6302.8</v>
-      </c>
-      <c r="K18" s="1">
-        <f>Table4[[#This Row],[accuracy_FRF]]-Table4[[#This Row],[accuracy_weka]]</f>
-        <v>-5.9999999999988063E-2</v>
-      </c>
-      <c r="L18" s="1">
-        <f>Table4[[#This Row],[time_weka]]/Table4[[#This Row],[time_FRF]]</f>
-        <v>1.7998032620422668</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
+      <c r="G20" s="1">
+        <v>98.46</v>
+      </c>
+      <c r="H20" s="1">
+        <v>12816</v>
+      </c>
+      <c r="I20" s="1">
+        <v>98.51</v>
+      </c>
+      <c r="J20" s="1">
+        <v>29299.4</v>
+      </c>
+      <c r="K20" s="1">
+        <v>98.52</v>
+      </c>
+      <c r="L20" s="1">
+        <v>6997</v>
+      </c>
+      <c r="M20" s="1">
+        <f>Table4[[#This Row],[accuracy_FRF_1.0]]-Table4[[#This Row],[accuracy_weka]]</f>
+        <v>6.0000000000002274E-2</v>
+      </c>
+      <c r="N20" s="1">
+        <f>Table4[[#This Row],[time_weka]]/Table4[[#This Row],[time_FRF_1.0]]</f>
+        <v>1.8316421323424326</v>
+      </c>
+      <c r="O20" s="1">
+        <f>Table4[[#This Row],[accuracy_FRF_1.0]]-Table4[[#This Row],[accuracy_FRF_0.99]]</f>
+        <v>9.9999999999909051E-3</v>
+      </c>
+      <c r="P20" s="1">
+        <f>Table4[[#This Row],[time_FRF_0.99]]/Table4[[#This Row],[time_FRF_1.0]]</f>
+        <v>4.1874231813634415</v>
+      </c>
+      <c r="Q20" s="1"/>
+      <c r="R20" s="1"/>
+    </row>
+    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21">
+        <v>571</v>
+      </c>
+      <c r="C21">
+        <f>Table4[[#This Row],[ numNumeric]]+Table4[[#This Row],[ numNominal]]</f>
+        <v>1300</v>
+      </c>
+      <c r="D21">
+        <v>1300</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
+      </c>
+      <c r="F21">
+        <v>20</v>
+      </c>
+      <c r="G21" s="1">
+        <v>87.355516637478104</v>
+      </c>
+      <c r="H21" s="1">
+        <v>10915.4</v>
+      </c>
+      <c r="I21" s="1">
+        <v>86.865148861646205</v>
+      </c>
+      <c r="J21" s="1">
+        <v>18379.2</v>
+      </c>
+      <c r="K21" s="1">
+        <v>87.075306479859805</v>
+      </c>
+      <c r="L21" s="1">
+        <v>2968.8</v>
+      </c>
+      <c r="M21" s="1">
+        <f>Table4[[#This Row],[accuracy_FRF_1.0]]-Table4[[#This Row],[accuracy_weka]]</f>
+        <v>-0.28021015761829915</v>
+      </c>
+      <c r="N21" s="1">
+        <f>Table4[[#This Row],[time_weka]]/Table4[[#This Row],[time_FRF_1.0]]</f>
+        <v>3.6767043923470761</v>
+      </c>
+      <c r="O21" s="1">
+        <f>Table4[[#This Row],[accuracy_FRF_1.0]]-Table4[[#This Row],[accuracy_FRF_0.99]]</f>
+        <v>0.21015761821360002</v>
+      </c>
+      <c r="P21" s="1">
+        <f>Table4[[#This Row],[time_FRF_0.99]]/Table4[[#This Row],[time_FRF_1.0]]</f>
+        <v>6.190784155214228</v>
+      </c>
+      <c r="Q21" s="1"/>
+      <c r="R21" s="1"/>
+    </row>
+    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>21</v>
+      </c>
+      <c r="B22">
+        <v>1080</v>
+      </c>
+      <c r="C22">
+        <f>Table4[[#This Row],[ numNumeric]]+Table4[[#This Row],[ numNominal]]</f>
+        <v>856</v>
+      </c>
+      <c r="D22">
+        <v>856</v>
+      </c>
+      <c r="E22">
+        <v>0</v>
+      </c>
+      <c r="F22">
+        <v>9</v>
+      </c>
+      <c r="G22" s="1">
+        <v>94.037037037036995</v>
+      </c>
+      <c r="H22" s="1">
+        <v>24922.2</v>
+      </c>
+      <c r="I22" s="1">
+        <v>94.037037037036995</v>
+      </c>
+      <c r="J22" s="1">
+        <v>40365</v>
+      </c>
+      <c r="K22" s="1">
+        <v>95.5</v>
+      </c>
+      <c r="L22" s="1">
+        <v>5943.8</v>
+      </c>
+      <c r="M22" s="1">
+        <f>Table4[[#This Row],[accuracy_FRF_1.0]]-Table4[[#This Row],[accuracy_weka]]</f>
+        <v>1.4629629629630045</v>
+      </c>
+      <c r="N22" s="1">
+        <f>Table4[[#This Row],[time_weka]]/Table4[[#This Row],[time_FRF_1.0]]</f>
+        <v>4.1929741915946028</v>
+      </c>
+      <c r="O22" s="1">
+        <f>Table4[[#This Row],[accuracy_FRF_1.0]]-Table4[[#This Row],[accuracy_FRF_0.99]]</f>
+        <v>1.4629629629630045</v>
+      </c>
+      <c r="P22" s="1">
+        <f>Table4[[#This Row],[time_FRF_0.99]]/Table4[[#This Row],[time_FRF_1.0]]</f>
+        <v>6.7911100642686497</v>
+      </c>
+      <c r="Q22" s="1"/>
+      <c r="R22" s="1"/>
+    </row>
+    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
         <v>33</v>
       </c>
-      <c r="B19">
-        <v>2000</v>
-      </c>
-      <c r="C19">
-        <f>Table4[[#This Row],[ numNumeric]]+Table4[[#This Row],[ numNominal]]</f>
-        <v>47</v>
-      </c>
-      <c r="D19">
-        <v>47</v>
-      </c>
-      <c r="E19">
-        <v>0</v>
-      </c>
-      <c r="F19">
-        <v>10</v>
-      </c>
-      <c r="G19" s="1">
-        <v>77.67</v>
-      </c>
-      <c r="H19" s="1">
-        <v>10484.4</v>
-      </c>
-      <c r="I19" s="1">
-        <v>77.669999999999902</v>
-      </c>
-      <c r="J19" s="1">
-        <v>5753.4</v>
-      </c>
-      <c r="K19" s="1">
-        <f>Table4[[#This Row],[accuracy_FRF]]-Table4[[#This Row],[accuracy_weka]]</f>
-        <v>0</v>
-      </c>
-      <c r="L19" s="1">
-        <f>Table4[[#This Row],[time_weka]]/Table4[[#This Row],[time_FRF]]</f>
-        <v>1.8222963812702055</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>26</v>
-      </c>
-      <c r="B20">
-        <v>571</v>
-      </c>
-      <c r="C20">
-        <f>Table4[[#This Row],[ numNumeric]]+Table4[[#This Row],[ numNominal]]</f>
-        <v>1300</v>
-      </c>
-      <c r="D20">
-        <v>1300</v>
-      </c>
-      <c r="E20">
-        <v>0</v>
-      </c>
-      <c r="F20">
-        <v>20</v>
-      </c>
-      <c r="G20" s="1">
-        <v>87.355516637478104</v>
-      </c>
-      <c r="H20" s="1">
-        <v>10915.4</v>
-      </c>
-      <c r="I20" s="1">
-        <v>87.075306479859805</v>
-      </c>
-      <c r="J20" s="1">
-        <v>2968.8</v>
-      </c>
-      <c r="K20" s="1">
-        <f>Table4[[#This Row],[accuracy_FRF]]-Table4[[#This Row],[accuracy_weka]]</f>
-        <v>-0.28021015761829915</v>
-      </c>
-      <c r="L20" s="1">
-        <f>Table4[[#This Row],[time_weka]]/Table4[[#This Row],[time_FRF]]</f>
-        <v>3.6767043923470761</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>21</v>
-      </c>
-      <c r="B21">
-        <v>2000</v>
-      </c>
-      <c r="C21">
-        <f>Table4[[#This Row],[ numNumeric]]+Table4[[#This Row],[ numNominal]]</f>
-        <v>649</v>
-      </c>
-      <c r="D21">
-        <v>649</v>
-      </c>
-      <c r="E21">
-        <v>0</v>
-      </c>
-      <c r="F21">
-        <v>10</v>
-      </c>
-      <c r="G21" s="1">
-        <v>98.46</v>
-      </c>
-      <c r="H21" s="1">
-        <v>12816</v>
-      </c>
-      <c r="I21" s="1">
-        <v>98.52</v>
-      </c>
-      <c r="J21" s="1">
-        <v>6997</v>
-      </c>
-      <c r="K21" s="1">
-        <f>Table4[[#This Row],[accuracy_FRF]]-Table4[[#This Row],[accuracy_weka]]</f>
-        <v>6.0000000000002274E-2</v>
-      </c>
-      <c r="L21" s="1">
-        <f>Table4[[#This Row],[time_weka]]/Table4[[#This Row],[time_FRF]]</f>
-        <v>1.8316421323424326</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>14</v>
-      </c>
-      <c r="B22">
-        <v>6598</v>
-      </c>
-      <c r="C22">
-        <f>Table4[[#This Row],[ numNumeric]]+Table4[[#This Row],[ numNominal]]</f>
-        <v>167</v>
-      </c>
-      <c r="D22">
-        <v>166</v>
-      </c>
-      <c r="E22">
-        <v>1</v>
-      </c>
-      <c r="F22">
-        <v>2</v>
-      </c>
-      <c r="G22" s="1">
-        <v>99.57</v>
-      </c>
-      <c r="H22" s="1">
-        <v>20453.8</v>
-      </c>
-      <c r="I22" s="1">
-        <v>99.399818126705</v>
-      </c>
-      <c r="J22" s="1">
-        <v>12625.2</v>
-      </c>
-      <c r="K22" s="1">
-        <f>Table4[[#This Row],[accuracy_FRF]]-Table4[[#This Row],[accuracy_weka]]</f>
-        <v>-0.17018187329499312</v>
-      </c>
-      <c r="L22" s="1">
-        <f>Table4[[#This Row],[time_weka]]/Table4[[#This Row],[time_FRF]]</f>
-        <v>1.620077305706048</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>22</v>
-      </c>
       <c r="B23">
-        <v>34465</v>
+        <v>3751</v>
       </c>
       <c r="C23">
         <f>Table4[[#This Row],[ numNumeric]]+Table4[[#This Row],[ numNominal]]</f>
-        <v>118</v>
+        <v>1776</v>
       </c>
       <c r="D23">
-        <v>89</v>
+        <v>1776</v>
       </c>
       <c r="E23">
-        <v>29</v>
+        <v>0</v>
       </c>
       <c r="F23">
         <v>2</v>
       </c>
       <c r="G23" s="1">
-        <v>97.032931959959299</v>
+        <v>80.101306318315096</v>
       </c>
       <c r="H23" s="1">
-        <v>179149.4</v>
+        <v>72772.600000000006</v>
       </c>
       <c r="I23" s="1">
-        <v>97.067169592339994</v>
+        <v>80.085310583844304</v>
       </c>
       <c r="J23" s="1">
-        <v>105399.2</v>
+        <v>235369.4</v>
       </c>
       <c r="K23" s="1">
-        <f>Table4[[#This Row],[accuracy_FRF]]-Table4[[#This Row],[accuracy_weka]]</f>
-        <v>3.4237632380694549E-2</v>
+        <v>79.808051186350298</v>
       </c>
       <c r="L23" s="1">
-        <f>Table4[[#This Row],[time_weka]]/Table4[[#This Row],[time_FRF]]</f>
-        <v>1.6997225785394956</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+        <v>24362.799999999999</v>
+      </c>
+      <c r="M23" s="1">
+        <f>Table4[[#This Row],[accuracy_FRF_1.0]]-Table4[[#This Row],[accuracy_weka]]</f>
+        <v>-0.29325513196479847</v>
+      </c>
+      <c r="N23" s="1">
+        <f>Table4[[#This Row],[time_weka]]/Table4[[#This Row],[time_FRF_1.0]]</f>
+        <v>2.987037614724088</v>
+      </c>
+      <c r="O23" s="1">
+        <f>Table4[[#This Row],[accuracy_FRF_1.0]]-Table4[[#This Row],[accuracy_FRF_0.99]]</f>
+        <v>-0.27725939749400652</v>
+      </c>
+      <c r="P23" s="1">
+        <f>Table4[[#This Row],[time_FRF_0.99]]/Table4[[#This Row],[time_FRF_1.0]]</f>
+        <v>9.6610159751752676</v>
+      </c>
+      <c r="Q23" s="1"/>
+      <c r="R23" s="1"/>
+    </row>
+    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>34</v>
+        <v>12</v>
       </c>
       <c r="B24">
-        <v>12960</v>
+        <v>16772</v>
       </c>
       <c r="C24">
         <f>Table4[[#This Row],[ numNumeric]]+Table4[[#This Row],[ numNominal]]</f>
-        <v>8</v>
+        <v>5655</v>
       </c>
       <c r="D24">
-        <v>0</v>
+        <v>5655</v>
       </c>
       <c r="E24">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="F24">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G24" s="1">
-        <v>99.185185185185105</v>
+        <v>99.152158359170002</v>
       </c>
       <c r="H24" s="1">
-        <v>7159.8</v>
+        <v>307338.59999999998</v>
       </c>
       <c r="I24" s="1">
-        <v>97.424382716049394</v>
+        <v>99.217743858812298</v>
       </c>
       <c r="J24" s="1">
-        <v>7603.2</v>
+        <v>1748540.4</v>
       </c>
       <c r="K24" s="1">
-        <f>Table4[[#This Row],[accuracy_FRF]]-Table4[[#This Row],[accuracy_weka]]</f>
-        <v>-1.7608024691357116</v>
+        <v>99.212974004292803</v>
       </c>
       <c r="L24" s="1">
-        <f>Table4[[#This Row],[time_weka]]/Table4[[#This Row],[time_FRF]]</f>
-        <v>0.9416824494949495</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+        <v>171363.6</v>
+      </c>
+      <c r="M24" s="1">
+        <f>Table4[[#This Row],[accuracy_FRF_1.0]]-Table4[[#This Row],[accuracy_weka]]</f>
+        <v>6.0815645122801243E-2</v>
+      </c>
+      <c r="N24" s="1">
+        <f>Table4[[#This Row],[time_weka]]/Table4[[#This Row],[time_FRF_1.0]]</f>
+        <v>1.793488232039943</v>
+      </c>
+      <c r="O24" s="1">
+        <f>Table4[[#This Row],[accuracy_FRF_1.0]]-Table4[[#This Row],[accuracy_FRF_0.99]]</f>
+        <v>-4.7698545194947428E-3</v>
+      </c>
+      <c r="P24" s="1">
+        <f>Table4[[#This Row],[time_FRF_0.99]]/Table4[[#This Row],[time_FRF_1.0]]</f>
+        <v>10.203686197068688</v>
+      </c>
+      <c r="Q24" s="1"/>
+      <c r="R24" s="1"/>
+    </row>
+    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B25">
         <v>1545</v>
@@ -1784,74 +2201,106 @@
         <v>27884.6</v>
       </c>
       <c r="I25" s="1">
+        <v>95.883495145631002</v>
+      </c>
+      <c r="J25" s="1">
+        <v>305366</v>
+      </c>
+      <c r="K25" s="1">
         <v>95.495145631067899</v>
       </c>
-      <c r="J25" s="1">
+      <c r="L25" s="1">
         <v>21622.2</v>
       </c>
-      <c r="K25" s="1">
-        <f>Table4[[#This Row],[accuracy_FRF]]-Table4[[#This Row],[accuracy_weka]]</f>
+      <c r="M25" s="1">
+        <f>Table4[[#This Row],[accuracy_FRF_1.0]]-Table4[[#This Row],[accuracy_weka]]</f>
         <v>-0.1553398058253066</v>
       </c>
-      <c r="L25" s="1">
-        <f>Table4[[#This Row],[time_weka]]/Table4[[#This Row],[time_FRF]]</f>
+      <c r="N25" s="1">
+        <f>Table4[[#This Row],[time_weka]]/Table4[[#This Row],[time_FRF_1.0]]</f>
         <v>1.2896282524442471</v>
       </c>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="O25" s="1">
+        <f>Table4[[#This Row],[accuracy_FRF_1.0]]-Table4[[#This Row],[accuracy_FRF_0.99]]</f>
+        <v>-0.38834951456310307</v>
+      </c>
+      <c r="P25" s="1">
+        <f>Table4[[#This Row],[time_FRF_0.99]]/Table4[[#This Row],[time_FRF_1.0]]</f>
+        <v>14.12279971510762</v>
+      </c>
+      <c r="Q25" s="1"/>
+      <c r="R25" s="1"/>
+    </row>
+    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="B26">
-        <v>16772</v>
+        <v>1600</v>
       </c>
       <c r="C26">
         <f>Table4[[#This Row],[ numNumeric]]+Table4[[#This Row],[ numNominal]]</f>
-        <v>5655</v>
+        <v>1000</v>
       </c>
       <c r="D26">
-        <v>5655</v>
+        <v>0</v>
       </c>
       <c r="E26">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="F26">
         <v>2</v>
       </c>
       <c r="G26" s="1">
-        <v>99.152158359170002</v>
+        <v>49.087499999999999</v>
       </c>
       <c r="H26" s="1">
-        <v>307338.59999999998</v>
+        <v>13325</v>
       </c>
       <c r="I26" s="1">
-        <v>99.212974004292803</v>
+        <v>50.825000000000003</v>
       </c>
       <c r="J26" s="1">
-        <v>171363.6</v>
+        <v>48221.8</v>
       </c>
       <c r="K26" s="1">
-        <f>Table4[[#This Row],[accuracy_FRF]]-Table4[[#This Row],[accuracy_weka]]</f>
-        <v>6.0815645122801243E-2</v>
+        <v>50.35</v>
       </c>
       <c r="L26" s="1">
-        <f>Table4[[#This Row],[time_weka]]/Table4[[#This Row],[time_FRF]]</f>
-        <v>1.793488232039943</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+        <v>2931.4</v>
+      </c>
+      <c r="M26" s="1">
+        <f>Table4[[#This Row],[accuracy_FRF_1.0]]-Table4[[#This Row],[accuracy_weka]]</f>
+        <v>1.2625000000000028</v>
+      </c>
+      <c r="N26" s="1">
+        <f>Table4[[#This Row],[time_weka]]/Table4[[#This Row],[time_FRF_1.0]]</f>
+        <v>4.5456096063314453</v>
+      </c>
+      <c r="O26" s="1">
+        <f>Table4[[#This Row],[accuracy_FRF_1.0]]-Table4[[#This Row],[accuracy_FRF_0.99]]</f>
+        <v>-0.47500000000000142</v>
+      </c>
+      <c r="P26" s="1">
+        <f>Table4[[#This Row],[time_FRF_0.99]]/Table4[[#This Row],[time_FRF_1.0]]</f>
+        <v>16.450092106160881</v>
+      </c>
+      <c r="Q26" s="1"/>
+      <c r="R26" s="1"/>
+    </row>
+    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>36</v>
+        <v>6</v>
       </c>
       <c r="B27">
-        <v>3751</v>
+        <v>4900</v>
       </c>
       <c r="C27">
         <f>Table4[[#This Row],[ numNumeric]]+Table4[[#This Row],[ numNominal]]</f>
-        <v>1776</v>
+        <v>5000</v>
       </c>
       <c r="D27">
-        <v>1776</v>
+        <v>5000</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -1860,148 +2309,212 @@
         <v>2</v>
       </c>
       <c r="G27" s="1">
-        <v>80.101306318315096</v>
+        <v>96.546938775510199</v>
       </c>
       <c r="H27" s="1">
-        <v>72772.600000000006</v>
+        <v>113693.4</v>
       </c>
       <c r="I27" s="1">
-        <v>79.808051186350298</v>
+        <v>96.493877551020404</v>
       </c>
       <c r="J27" s="1">
-        <v>24362.799999999999</v>
+        <v>776471.6</v>
       </c>
       <c r="K27" s="1">
-        <f>Table4[[#This Row],[accuracy_FRF]]-Table4[[#This Row],[accuracy_weka]]</f>
-        <v>-0.29325513196479847</v>
+        <v>96.269387755102002</v>
       </c>
       <c r="L27" s="1">
-        <f>Table4[[#This Row],[time_weka]]/Table4[[#This Row],[time_FRF]]</f>
-        <v>2.987037614724088</v>
-      </c>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+        <v>42225.599999999999</v>
+      </c>
+      <c r="M27" s="1">
+        <f>Table4[[#This Row],[accuracy_FRF_1.0]]-Table4[[#This Row],[accuracy_weka]]</f>
+        <v>-0.27755102040819679</v>
+      </c>
+      <c r="N27" s="1">
+        <f>Table4[[#This Row],[time_weka]]/Table4[[#This Row],[time_FRF_1.0]]</f>
+        <v>2.6925230192110945</v>
+      </c>
+      <c r="O27" s="1">
+        <f>Table4[[#This Row],[accuracy_FRF_1.0]]-Table4[[#This Row],[accuracy_FRF_0.99]]</f>
+        <v>-0.22448979591840157</v>
+      </c>
+      <c r="P27" s="1">
+        <f>Table4[[#This Row],[time_FRF_0.99]]/Table4[[#This Row],[time_FRF_1.0]]</f>
+        <v>18.388645750445228</v>
+      </c>
+      <c r="Q27" s="1"/>
+      <c r="R27" s="1"/>
+    </row>
+    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>37</v>
+        <v>10</v>
       </c>
       <c r="B28">
-        <v>8378</v>
+        <v>200</v>
       </c>
       <c r="C28">
         <f>Table4[[#This Row],[ numNumeric]]+Table4[[#This Row],[ numNominal]]</f>
-        <v>122</v>
+        <v>10000</v>
       </c>
       <c r="D28">
-        <v>59</v>
+        <v>10000</v>
       </c>
       <c r="E28">
-        <v>63</v>
+        <v>0</v>
       </c>
       <c r="F28">
         <v>2</v>
       </c>
       <c r="G28" s="1">
-        <v>92.924325614705097</v>
+        <v>83.7</v>
       </c>
       <c r="H28" s="1">
-        <v>22187.8</v>
+        <v>9490.7999999999993</v>
       </c>
       <c r="I28" s="1">
-        <v>96.082597278586704</v>
+        <v>82.7</v>
       </c>
       <c r="J28" s="1">
-        <v>14784.4</v>
+        <v>34131.4</v>
       </c>
       <c r="K28" s="1">
-        <f>Table4[[#This Row],[accuracy_FRF]]-Table4[[#This Row],[accuracy_weka]]</f>
-        <v>3.1582716638816066</v>
+        <v>81.099999999999994</v>
       </c>
       <c r="L28" s="1">
-        <f>Table4[[#This Row],[time_weka]]/Table4[[#This Row],[time_FRF]]</f>
-        <v>1.5007575552609507</v>
-      </c>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+        <v>1753</v>
+      </c>
+      <c r="M28" s="1">
+        <f>Table4[[#This Row],[accuracy_FRF_1.0]]-Table4[[#This Row],[accuracy_weka]]</f>
+        <v>-2.6000000000000085</v>
+      </c>
+      <c r="N28" s="1">
+        <f>Table4[[#This Row],[time_weka]]/Table4[[#This Row],[time_FRF_1.0]]</f>
+        <v>5.4140330861380486</v>
+      </c>
+      <c r="O28" s="1">
+        <f>Table4[[#This Row],[accuracy_FRF_1.0]]-Table4[[#This Row],[accuracy_FRF_0.99]]</f>
+        <v>-1.6000000000000085</v>
+      </c>
+      <c r="P28" s="1">
+        <f>Table4[[#This Row],[time_FRF_0.99]]/Table4[[#This Row],[time_FRF_1.0]]</f>
+        <v>19.47027952082145</v>
+      </c>
+      <c r="Q28" s="1"/>
+      <c r="R28" s="1"/>
+    </row>
+    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>38</v>
+        <v>13</v>
       </c>
       <c r="B29">
-        <v>14395</v>
+        <v>1500</v>
       </c>
       <c r="C29">
         <f>Table4[[#This Row],[ numNumeric]]+Table4[[#This Row],[ numNominal]]</f>
-        <v>216</v>
+        <v>10000</v>
       </c>
       <c r="D29">
-        <v>216</v>
+        <v>10000</v>
       </c>
       <c r="E29">
         <v>0</v>
       </c>
       <c r="F29">
+        <v>50</v>
+      </c>
+      <c r="G29" s="1">
+        <v>53.76</v>
+      </c>
+      <c r="H29" s="1">
+        <v>246351.4</v>
+      </c>
+      <c r="I29" s="1">
+        <v>52.32</v>
+      </c>
+      <c r="J29" s="1">
+        <v>854274.8</v>
+      </c>
+      <c r="K29" s="1">
+        <v>66.533333333333303</v>
+      </c>
+      <c r="L29" s="1">
+        <v>27120.400000000001</v>
+      </c>
+      <c r="M29" s="1">
+        <f>Table4[[#This Row],[accuracy_FRF_1.0]]-Table4[[#This Row],[accuracy_weka]]</f>
+        <v>12.773333333333305</v>
+      </c>
+      <c r="N29" s="1">
+        <f>Table4[[#This Row],[time_weka]]/Table4[[#This Row],[time_FRF_1.0]]</f>
+        <v>9.0836197106237364</v>
+      </c>
+      <c r="O29" s="1">
+        <f>Table4[[#This Row],[accuracy_FRF_1.0]]-Table4[[#This Row],[accuracy_FRF_0.99]]</f>
+        <v>14.213333333333303</v>
+      </c>
+      <c r="P29" s="1">
+        <f>Table4[[#This Row],[time_FRF_0.99]]/Table4[[#This Row],[time_FRF_1.0]]</f>
+        <v>31.499343667497531</v>
+      </c>
+      <c r="Q29" s="1"/>
+      <c r="R29" s="1"/>
+    </row>
+    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>5</v>
+      </c>
+      <c r="B30">
+        <v>805</v>
+      </c>
+      <c r="C30">
+        <f>Table4[[#This Row],[ numNumeric]]+Table4[[#This Row],[ numNominal]]</f>
+        <v>100000</v>
+      </c>
+      <c r="D30">
+        <v>100000</v>
+      </c>
+      <c r="E30">
+        <v>0</v>
+      </c>
+      <c r="F30">
         <v>2</v>
       </c>
-      <c r="G29" s="1">
-        <v>99.149704758596698</v>
-      </c>
-      <c r="H29" s="1">
-        <v>68198.8</v>
-      </c>
-      <c r="I29" s="1">
-        <v>98.136853073984</v>
-      </c>
-      <c r="J29" s="1">
-        <v>38582.400000000001</v>
-      </c>
-      <c r="K29" s="1">
-        <f>Table4[[#This Row],[accuracy_FRF]]-Table4[[#This Row],[accuracy_weka]]</f>
-        <v>-1.0128516846126985</v>
-      </c>
-      <c r="L29" s="1">
-        <f>Table4[[#This Row],[time_weka]]/Table4[[#This Row],[time_FRF]]</f>
-        <v>1.7676142489839928</v>
-      </c>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>39</v>
-      </c>
-      <c r="B30">
-        <v>5000</v>
-      </c>
-      <c r="C30">
-        <f>Table4[[#This Row],[ numNumeric]]+Table4[[#This Row],[ numNominal]]</f>
-        <v>40</v>
-      </c>
-      <c r="D30">
-        <v>40</v>
-      </c>
-      <c r="E30">
-        <v>0</v>
-      </c>
-      <c r="F30">
-        <v>3</v>
-      </c>
       <c r="G30" s="1">
-        <v>85.431999999999903</v>
+        <v>89.167701863353997</v>
       </c>
       <c r="H30" s="1">
-        <v>19187.8</v>
+        <v>497085.8</v>
       </c>
       <c r="I30" s="1">
-        <v>85.783999999999907</v>
+        <v>89.018633540372605</v>
       </c>
       <c r="J30" s="1">
-        <v>10550.4</v>
+        <v>5188896.8</v>
       </c>
       <c r="K30" s="1">
-        <f>Table4[[#This Row],[accuracy_FRF]]-Table4[[#This Row],[accuracy_weka]]</f>
-        <v>0.35200000000000387</v>
+        <v>89.118012422360195</v>
       </c>
       <c r="L30" s="1">
-        <f>Table4[[#This Row],[time_weka]]/Table4[[#This Row],[time_FRF]]</f>
-        <v>1.8186798604792236</v>
-      </c>
+        <v>92907.8</v>
+      </c>
+      <c r="M30" s="1">
+        <f>Table4[[#This Row],[accuracy_FRF_1.0]]-Table4[[#This Row],[accuracy_weka]]</f>
+        <v>-4.9689440993802236E-2</v>
+      </c>
+      <c r="N30" s="1">
+        <f>Table4[[#This Row],[time_weka]]/Table4[[#This Row],[time_FRF_1.0]]</f>
+        <v>5.3503128908444717</v>
+      </c>
+      <c r="O30" s="1">
+        <f>Table4[[#This Row],[accuracy_FRF_1.0]]-Table4[[#This Row],[accuracy_FRF_0.99]]</f>
+        <v>9.9378881987590262E-2</v>
+      </c>
+      <c r="P30" s="1">
+        <f>Table4[[#This Row],[time_FRF_0.99]]/Table4[[#This Row],[time_FRF_1.0]]</f>
+        <v>55.849958776335242</v>
+      </c>
+      <c r="Q30" s="1"/>
+      <c r="R30" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/results/results_real_datasets.xlsx
+++ b/results/results_real_datasets.xlsx
@@ -490,7 +490,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table4" displayName="Table4" ref="A1:P30" totalsRowShown="0" headerRowBorderDxfId="11" tableBorderDxfId="10" headerRowCellStyle="Normal" dataCellStyle="Normal">
   <autoFilter ref="A1:P30"/>
   <sortState ref="A2:P30">
-    <sortCondition ref="P1:P30"/>
+    <sortCondition ref="C1:C30"/>
   </sortState>
   <tableColumns count="16">
     <tableColumn id="1" name="name" dataCellStyle="Normal"/>
@@ -503,11 +503,11 @@
     <tableColumn id="6" name=" numClasses" dataCellStyle="Normal"/>
     <tableColumn id="9" name="accuracy_weka" dataDxfId="9" dataCellStyle="Normal"/>
     <tableColumn id="10" name="time_weka" dataDxfId="8" dataCellStyle="Normal"/>
-    <tableColumn id="7" name="accuracy_FRF_0.99" dataDxfId="4"/>
-    <tableColumn id="8" name="time_FRF_0.99" dataDxfId="3"/>
-    <tableColumn id="18" name="accuracy_FRF_1.0" dataDxfId="7" dataCellStyle="Normal"/>
-    <tableColumn id="19" name="time_FRF_1.0" dataDxfId="6" dataCellStyle="Normal"/>
-    <tableColumn id="20" name="accuracy_FRF_1.0 - accuracy_weka" dataDxfId="5" dataCellStyle="Normal">
+    <tableColumn id="7" name="accuracy_FRF_0.99" dataDxfId="7"/>
+    <tableColumn id="8" name="time_FRF_0.99" dataDxfId="6"/>
+    <tableColumn id="18" name="accuracy_FRF_1.0" dataDxfId="5" dataCellStyle="Normal"/>
+    <tableColumn id="19" name="time_FRF_1.0" dataDxfId="4" dataCellStyle="Normal"/>
+    <tableColumn id="20" name="accuracy_FRF_1.0 - accuracy_weka" dataDxfId="3" dataCellStyle="Normal">
       <calculatedColumnFormula>Table4[[#This Row],[accuracy_FRF_1.0]]-Table4[[#This Row],[accuracy_weka]]</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="11" name="time_weka/time_FRF_1.0" dataDxfId="2">
@@ -790,7 +790,7 @@
   <dimension ref="A1:R30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K34" sqref="K34"/>
+      <selection activeCell="G28" sqref="G28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -979,238 +979,238 @@
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>22</v>
+        <v>36</v>
       </c>
       <c r="B4">
-        <v>6118</v>
+        <v>5000</v>
       </c>
       <c r="C4">
         <f>Table4[[#This Row],[ numNumeric]]+Table4[[#This Row],[ numNominal]]</f>
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="D4">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G4" s="1">
-        <v>63.151356652500802</v>
+        <v>85.431999999999903</v>
       </c>
       <c r="H4" s="1">
-        <v>32863</v>
+        <v>19187.8</v>
       </c>
       <c r="I4" s="1">
-        <v>63.167701863353997</v>
+        <v>85.447999999999993</v>
       </c>
       <c r="J4" s="1">
-        <v>26586.799999999999</v>
+        <v>13970.4</v>
       </c>
       <c r="K4" s="1">
-        <v>63.206930369401697</v>
+        <v>85.783999999999907</v>
       </c>
       <c r="L4" s="1">
-        <v>21056.799999999999</v>
+        <v>10550.4</v>
       </c>
       <c r="M4" s="1">
         <f>Table4[[#This Row],[accuracy_FRF_1.0]]-Table4[[#This Row],[accuracy_weka]]</f>
-        <v>5.5573716900894965E-2</v>
+        <v>0.35200000000000387</v>
       </c>
       <c r="N4" s="1">
         <f>Table4[[#This Row],[time_weka]]/Table4[[#This Row],[time_FRF_1.0]]</f>
-        <v>1.5606834846700355</v>
+        <v>1.8186798604792236</v>
       </c>
       <c r="O4" s="1">
         <f>Table4[[#This Row],[accuracy_FRF_1.0]]-Table4[[#This Row],[accuracy_FRF_0.99]]</f>
-        <v>3.9228506047699341E-2</v>
+        <v>0.33599999999991326</v>
       </c>
       <c r="P4" s="1">
         <f>Table4[[#This Row],[time_FRF_0.99]]/Table4[[#This Row],[time_FRF_1.0]]</f>
-        <v>1.2626230006458721</v>
+        <v>1.3241583257506824</v>
       </c>
       <c r="Q4" s="1"/>
       <c r="R4" s="1"/>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="B5">
-        <v>5000</v>
+        <v>2000</v>
       </c>
       <c r="C5">
         <f>Table4[[#This Row],[ numNumeric]]+Table4[[#This Row],[ numNominal]]</f>
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="D5">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="G5" s="1">
-        <v>85.431999999999903</v>
+        <v>77.67</v>
       </c>
       <c r="H5" s="1">
-        <v>19187.8</v>
+        <v>10484.4</v>
       </c>
       <c r="I5" s="1">
-        <v>85.447999999999993</v>
+        <v>77.64</v>
       </c>
       <c r="J5" s="1">
-        <v>13970.4</v>
+        <v>9668.2000000000007</v>
       </c>
       <c r="K5" s="1">
-        <v>85.783999999999907</v>
+        <v>77.669999999999902</v>
       </c>
       <c r="L5" s="1">
-        <v>10550.4</v>
+        <v>5753.4</v>
       </c>
       <c r="M5" s="1">
         <f>Table4[[#This Row],[accuracy_FRF_1.0]]-Table4[[#This Row],[accuracy_weka]]</f>
-        <v>0.35200000000000387</v>
+        <v>0</v>
       </c>
       <c r="N5" s="1">
         <f>Table4[[#This Row],[time_weka]]/Table4[[#This Row],[time_FRF_1.0]]</f>
-        <v>1.8186798604792236</v>
+        <v>1.8222963812702055</v>
       </c>
       <c r="O5" s="1">
         <f>Table4[[#This Row],[accuracy_FRF_1.0]]-Table4[[#This Row],[accuracy_FRF_0.99]]</f>
-        <v>0.33599999999991326</v>
+        <v>2.9999999999901661E-2</v>
       </c>
       <c r="P5" s="1">
         <f>Table4[[#This Row],[time_FRF_0.99]]/Table4[[#This Row],[time_FRF_1.0]]</f>
-        <v>1.3241583257506824</v>
+        <v>1.6804324399485524</v>
       </c>
       <c r="Q5" s="1"/>
       <c r="R5" s="1"/>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B6">
-        <v>3331</v>
+        <v>6118</v>
       </c>
       <c r="C6">
         <f>Table4[[#This Row],[ numNumeric]]+Table4[[#This Row],[ numNominal]]</f>
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="D6">
-        <v>0</v>
+        <v>51</v>
       </c>
       <c r="E6">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="F6">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="G6" s="1">
-        <v>76.355448814169904</v>
+        <v>63.151356652500802</v>
       </c>
       <c r="H6" s="1">
-        <v>63978.8</v>
+        <v>32863</v>
       </c>
       <c r="I6" s="1">
-        <v>75.965175622936002</v>
+        <v>63.167701863353997</v>
       </c>
       <c r="J6" s="1">
-        <v>154710.6</v>
+        <v>26586.799999999999</v>
       </c>
       <c r="K6" s="1">
-        <v>76.217352146502506</v>
+        <v>63.206930369401697</v>
       </c>
       <c r="L6" s="1">
-        <v>107751</v>
+        <v>21056.799999999999</v>
       </c>
       <c r="M6" s="1">
         <f>Table4[[#This Row],[accuracy_FRF_1.0]]-Table4[[#This Row],[accuracy_weka]]</f>
-        <v>-0.13809666766739781</v>
+        <v>5.5573716900894965E-2</v>
       </c>
       <c r="N6" s="1">
         <f>Table4[[#This Row],[time_weka]]/Table4[[#This Row],[time_FRF_1.0]]</f>
-        <v>0.59376525507883915</v>
+        <v>1.5606834846700355</v>
       </c>
       <c r="O6" s="1">
         <f>Table4[[#This Row],[accuracy_FRF_1.0]]-Table4[[#This Row],[accuracy_FRF_0.99]]</f>
-        <v>0.25217652356650433</v>
+        <v>3.9228506047699341E-2</v>
       </c>
       <c r="P6" s="1">
         <f>Table4[[#This Row],[time_FRF_0.99]]/Table4[[#This Row],[time_FRF_1.0]]</f>
-        <v>1.4358159089010776</v>
+        <v>1.2626230006458721</v>
       </c>
       <c r="Q6" s="1"/>
       <c r="R6" s="1"/>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="B7">
-        <v>34465</v>
+        <v>2744</v>
       </c>
       <c r="C7">
         <f>Table4[[#This Row],[ numNumeric]]+Table4[[#This Row],[ numNominal]]</f>
-        <v>118</v>
+        <v>60</v>
       </c>
       <c r="D7">
-        <v>89</v>
+        <v>0</v>
       </c>
       <c r="E7">
-        <v>29</v>
+        <v>60</v>
       </c>
       <c r="F7">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="G7" s="1">
-        <v>97.032931959959299</v>
+        <v>77.128279883381893</v>
       </c>
       <c r="H7" s="1">
-        <v>179149.4</v>
+        <v>13162.8</v>
       </c>
       <c r="I7" s="1">
-        <v>97.048600029014906</v>
+        <v>76.829446064139901</v>
       </c>
       <c r="J7" s="1">
-        <v>151799.4</v>
+        <v>42349.2</v>
       </c>
       <c r="K7" s="1">
-        <v>97.067169592339994</v>
+        <v>76.8221574344023</v>
       </c>
       <c r="L7" s="1">
-        <v>105399.2</v>
+        <v>29404</v>
       </c>
       <c r="M7" s="1">
         <f>Table4[[#This Row],[accuracy_FRF_1.0]]-Table4[[#This Row],[accuracy_weka]]</f>
-        <v>3.4237632380694549E-2</v>
+        <v>-0.30612244897959329</v>
       </c>
       <c r="N7" s="1">
         <f>Table4[[#This Row],[time_weka]]/Table4[[#This Row],[time_FRF_1.0]]</f>
-        <v>1.6997225785394956</v>
+        <v>0.44765338049244996</v>
       </c>
       <c r="O7" s="1">
         <f>Table4[[#This Row],[accuracy_FRF_1.0]]-Table4[[#This Row],[accuracy_FRF_0.99]]</f>
-        <v>1.8569563325087302E-2</v>
+        <v>-7.2886297376015818E-3</v>
       </c>
       <c r="P7" s="1">
         <f>Table4[[#This Row],[time_FRF_0.99]]/Table4[[#This Row],[time_FRF_1.0]]</f>
-        <v>1.4402329429445384</v>
+        <v>1.440253026799075</v>
       </c>
       <c r="Q7" s="1"/>
       <c r="R7" s="1"/>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B8">
-        <v>2744</v>
+        <v>3331</v>
       </c>
       <c r="C8">
         <f>Table4[[#This Row],[ numNumeric]]+Table4[[#This Row],[ numNominal]]</f>
@@ -1223,343 +1223,343 @@
         <v>60</v>
       </c>
       <c r="F8">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G8" s="1">
-        <v>77.128279883381893</v>
+        <v>76.355448814169904</v>
       </c>
       <c r="H8" s="1">
-        <v>13162.8</v>
+        <v>63978.8</v>
       </c>
       <c r="I8" s="1">
-        <v>76.829446064139901</v>
+        <v>75.965175622936002</v>
       </c>
       <c r="J8" s="1">
-        <v>42349.2</v>
+        <v>154710.6</v>
       </c>
       <c r="K8" s="1">
-        <v>76.8221574344023</v>
+        <v>76.217352146502506</v>
       </c>
       <c r="L8" s="1">
-        <v>29404</v>
+        <v>107751</v>
       </c>
       <c r="M8" s="1">
         <f>Table4[[#This Row],[accuracy_FRF_1.0]]-Table4[[#This Row],[accuracy_weka]]</f>
-        <v>-0.30612244897959329</v>
+        <v>-0.13809666766739781</v>
       </c>
       <c r="N8" s="1">
         <f>Table4[[#This Row],[time_weka]]/Table4[[#This Row],[time_FRF_1.0]]</f>
-        <v>0.44765338049244996</v>
+        <v>0.59376525507883915</v>
       </c>
       <c r="O8" s="1">
         <f>Table4[[#This Row],[accuracy_FRF_1.0]]-Table4[[#This Row],[accuracy_FRF_0.99]]</f>
-        <v>-7.2886297376015818E-3</v>
+        <v>0.25217652356650433</v>
       </c>
       <c r="P8" s="1">
         <f>Table4[[#This Row],[time_FRF_0.99]]/Table4[[#This Row],[time_FRF_1.0]]</f>
-        <v>1.440253026799075</v>
+        <v>1.4358159089010776</v>
       </c>
       <c r="Q8" s="1"/>
       <c r="R8" s="1"/>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="B9">
-        <v>14395</v>
+        <v>4062</v>
       </c>
       <c r="C9">
         <f>Table4[[#This Row],[ numNumeric]]+Table4[[#This Row],[ numNominal]]</f>
-        <v>216</v>
+        <v>60</v>
       </c>
       <c r="D9">
-        <v>216</v>
+        <v>0</v>
       </c>
       <c r="E9">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="F9">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="G9" s="1">
-        <v>99.149704758596698</v>
+        <v>86.0413589364844</v>
       </c>
       <c r="H9" s="1">
-        <v>68198.8</v>
+        <v>55359.6</v>
       </c>
       <c r="I9" s="1">
-        <v>99.078846821813102</v>
+        <v>85.977351058591793</v>
       </c>
       <c r="J9" s="1">
-        <v>63704.2</v>
+        <v>121163.2</v>
       </c>
       <c r="K9" s="1">
-        <v>98.136853073984</v>
+        <v>86.248153618906898</v>
       </c>
       <c r="L9" s="1">
-        <v>38582.400000000001</v>
+        <v>69350.399999999994</v>
       </c>
       <c r="M9" s="1">
         <f>Table4[[#This Row],[accuracy_FRF_1.0]]-Table4[[#This Row],[accuracy_weka]]</f>
-        <v>-1.0128516846126985</v>
+        <v>0.20679468242249754</v>
       </c>
       <c r="N9" s="1">
         <f>Table4[[#This Row],[time_weka]]/Table4[[#This Row],[time_FRF_1.0]]</f>
-        <v>1.7676142489839928</v>
+        <v>0.79825927464008861</v>
       </c>
       <c r="O9" s="1">
         <f>Table4[[#This Row],[accuracy_FRF_1.0]]-Table4[[#This Row],[accuracy_FRF_0.99]]</f>
-        <v>-0.94199374782910184</v>
+        <v>0.2708025603151043</v>
       </c>
       <c r="P9" s="1">
         <f>Table4[[#This Row],[time_FRF_0.99]]/Table4[[#This Row],[time_FRF_1.0]]</f>
-        <v>1.6511207182549554</v>
+        <v>1.7471160944998156</v>
       </c>
       <c r="Q9" s="1"/>
       <c r="R9" s="1"/>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="B10">
-        <v>6598</v>
+        <v>2000</v>
       </c>
       <c r="C10">
         <f>Table4[[#This Row],[ numNumeric]]+Table4[[#This Row],[ numNominal]]</f>
-        <v>167</v>
+        <v>64</v>
       </c>
       <c r="D10">
-        <v>166</v>
+        <v>64</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F10">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="G10" s="1">
-        <v>99.57</v>
+        <v>96.46</v>
       </c>
       <c r="H10" s="1">
-        <v>20453.8</v>
+        <v>11343.8</v>
       </c>
       <c r="I10" s="1">
-        <v>99.518035768414606</v>
+        <v>96.429999999999893</v>
       </c>
       <c r="J10" s="1">
-        <v>20953.400000000001</v>
+        <v>10957.2</v>
       </c>
       <c r="K10" s="1">
-        <v>99.399818126705</v>
+        <v>96.4</v>
       </c>
       <c r="L10" s="1">
-        <v>12625.2</v>
+        <v>6302.8</v>
       </c>
       <c r="M10" s="1">
         <f>Table4[[#This Row],[accuracy_FRF_1.0]]-Table4[[#This Row],[accuracy_weka]]</f>
-        <v>-0.17018187329499312</v>
+        <v>-5.9999999999988063E-2</v>
       </c>
       <c r="N10" s="1">
         <f>Table4[[#This Row],[time_weka]]/Table4[[#This Row],[time_FRF_1.0]]</f>
-        <v>1.620077305706048</v>
+        <v>1.7998032620422668</v>
       </c>
       <c r="O10" s="1">
         <f>Table4[[#This Row],[accuracy_FRF_1.0]]-Table4[[#This Row],[accuracy_FRF_0.99]]</f>
-        <v>-0.11821764170960591</v>
+        <v>-2.999999999988745E-2</v>
       </c>
       <c r="P10" s="1">
         <f>Table4[[#This Row],[time_FRF_0.99]]/Table4[[#This Row],[time_FRF_1.0]]</f>
-        <v>1.6596489560561416</v>
+        <v>1.7384654439296821</v>
       </c>
       <c r="Q10" s="1"/>
       <c r="R10" s="1"/>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="B11">
-        <v>2000</v>
+        <v>34465</v>
       </c>
       <c r="C11">
         <f>Table4[[#This Row],[ numNumeric]]+Table4[[#This Row],[ numNominal]]</f>
-        <v>47</v>
+        <v>118</v>
       </c>
       <c r="D11">
-        <v>47</v>
+        <v>89</v>
       </c>
       <c r="E11">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="F11">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="G11" s="1">
-        <v>77.67</v>
+        <v>97.032931959959299</v>
       </c>
       <c r="H11" s="1">
-        <v>10484.4</v>
+        <v>179149.4</v>
       </c>
       <c r="I11" s="1">
-        <v>77.64</v>
+        <v>97.048600029014906</v>
       </c>
       <c r="J11" s="1">
-        <v>9668.2000000000007</v>
+        <v>151799.4</v>
       </c>
       <c r="K11" s="1">
-        <v>77.669999999999902</v>
+        <v>97.067169592339994</v>
       </c>
       <c r="L11" s="1">
-        <v>5753.4</v>
+        <v>105399.2</v>
       </c>
       <c r="M11" s="1">
         <f>Table4[[#This Row],[accuracy_FRF_1.0]]-Table4[[#This Row],[accuracy_weka]]</f>
-        <v>0</v>
+        <v>3.4237632380694549E-2</v>
       </c>
       <c r="N11" s="1">
         <f>Table4[[#This Row],[time_weka]]/Table4[[#This Row],[time_FRF_1.0]]</f>
-        <v>1.8222963812702055</v>
+        <v>1.6997225785394956</v>
       </c>
       <c r="O11" s="1">
         <f>Table4[[#This Row],[accuracy_FRF_1.0]]-Table4[[#This Row],[accuracy_FRF_0.99]]</f>
-        <v>2.9999999999901661E-2</v>
+        <v>1.8569563325087302E-2</v>
       </c>
       <c r="P11" s="1">
         <f>Table4[[#This Row],[time_FRF_0.99]]/Table4[[#This Row],[time_FRF_1.0]]</f>
-        <v>1.6804324399485524</v>
+        <v>1.4402329429445384</v>
       </c>
       <c r="Q11" s="1"/>
       <c r="R11" s="1"/>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="B12">
-        <v>2000</v>
+        <v>8378</v>
       </c>
       <c r="C12">
         <f>Table4[[#This Row],[ numNumeric]]+Table4[[#This Row],[ numNominal]]</f>
-        <v>64</v>
+        <v>122</v>
       </c>
       <c r="D12">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="E12">
-        <v>0</v>
+        <v>63</v>
       </c>
       <c r="F12">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="G12" s="1">
-        <v>96.46</v>
+        <v>92.924325614705097</v>
       </c>
       <c r="H12" s="1">
-        <v>11343.8</v>
+        <v>22187.8</v>
       </c>
       <c r="I12" s="1">
-        <v>96.429999999999893</v>
+        <v>97.333492480305495</v>
       </c>
       <c r="J12" s="1">
-        <v>10957.2</v>
+        <v>30177.4</v>
       </c>
       <c r="K12" s="1">
-        <v>96.4</v>
+        <v>96.082597278586704</v>
       </c>
       <c r="L12" s="1">
-        <v>6302.8</v>
+        <v>14784.4</v>
       </c>
       <c r="M12" s="1">
         <f>Table4[[#This Row],[accuracy_FRF_1.0]]-Table4[[#This Row],[accuracy_weka]]</f>
-        <v>-5.9999999999988063E-2</v>
+        <v>3.1582716638816066</v>
       </c>
       <c r="N12" s="1">
         <f>Table4[[#This Row],[time_weka]]/Table4[[#This Row],[time_FRF_1.0]]</f>
-        <v>1.7998032620422668</v>
+        <v>1.5007575552609507</v>
       </c>
       <c r="O12" s="1">
         <f>Table4[[#This Row],[accuracy_FRF_1.0]]-Table4[[#This Row],[accuracy_FRF_0.99]]</f>
-        <v>-2.999999999988745E-2</v>
+        <v>-1.2508952017187909</v>
       </c>
       <c r="P12" s="1">
         <f>Table4[[#This Row],[time_FRF_0.99]]/Table4[[#This Row],[time_FRF_1.0]]</f>
-        <v>1.7384654439296821</v>
+        <v>2.0411650117691624</v>
       </c>
       <c r="Q12" s="1"/>
       <c r="R12" s="1"/>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="B13">
-        <v>4062</v>
+        <v>13910</v>
       </c>
       <c r="C13">
         <f>Table4[[#This Row],[ numNumeric]]+Table4[[#This Row],[ numNominal]]</f>
-        <v>60</v>
+        <v>128</v>
       </c>
       <c r="D13">
-        <v>0</v>
+        <v>128</v>
       </c>
       <c r="E13">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="F13">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="G13" s="1">
-        <v>86.0413589364844</v>
+        <v>99.479511143062496</v>
       </c>
       <c r="H13" s="1">
-        <v>55359.6</v>
+        <v>89345.4</v>
       </c>
       <c r="I13" s="1">
-        <v>85.977351058591793</v>
+        <v>99.472322070452904</v>
       </c>
       <c r="J13" s="1">
-        <v>121163.2</v>
+        <v>82852</v>
       </c>
       <c r="K13" s="1">
-        <v>86.248153618906898</v>
+        <v>99.445003594536303</v>
       </c>
       <c r="L13" s="1">
-        <v>69350.399999999994</v>
+        <v>44972.800000000003</v>
       </c>
       <c r="M13" s="1">
         <f>Table4[[#This Row],[accuracy_FRF_1.0]]-Table4[[#This Row],[accuracy_weka]]</f>
-        <v>0.20679468242249754</v>
+        <v>-3.4507548526192977E-2</v>
       </c>
       <c r="N13" s="1">
         <f>Table4[[#This Row],[time_weka]]/Table4[[#This Row],[time_FRF_1.0]]</f>
-        <v>0.79825927464008861</v>
+        <v>1.9866541554005974</v>
       </c>
       <c r="O13" s="1">
         <f>Table4[[#This Row],[accuracy_FRF_1.0]]-Table4[[#This Row],[accuracy_FRF_0.99]]</f>
-        <v>0.2708025603151043</v>
+        <v>-2.7318475916601415E-2</v>
       </c>
       <c r="P13" s="1">
         <f>Table4[[#This Row],[time_FRF_0.99]]/Table4[[#This Row],[time_FRF_1.0]]</f>
-        <v>1.7471160944998156</v>
+        <v>1.8422691048811726</v>
       </c>
       <c r="Q13" s="1"/>
       <c r="R13" s="1"/>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B14">
         <v>13910</v>
       </c>
       <c r="C14">
         <f>Table4[[#This Row],[ numNumeric]]+Table4[[#This Row],[ numNominal]]</f>
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D14">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1568,162 +1568,162 @@
         <v>6</v>
       </c>
       <c r="G14" s="1">
-        <v>99.479511143062496</v>
+        <v>99.489575844716001</v>
       </c>
       <c r="H14" s="1">
-        <v>89345.4</v>
+        <v>88263.8</v>
       </c>
       <c r="I14" s="1">
-        <v>99.472322070452904</v>
+        <v>99.485262401150194</v>
       </c>
       <c r="J14" s="1">
-        <v>82852</v>
+        <v>82258.8</v>
       </c>
       <c r="K14" s="1">
-        <v>99.445003594536303</v>
+        <v>99.469446441409005</v>
       </c>
       <c r="L14" s="1">
-        <v>44972.800000000003</v>
+        <v>43841.599999999999</v>
       </c>
       <c r="M14" s="1">
         <f>Table4[[#This Row],[accuracy_FRF_1.0]]-Table4[[#This Row],[accuracy_weka]]</f>
-        <v>-3.4507548526192977E-2</v>
+        <v>-2.0129403306995641E-2</v>
       </c>
       <c r="N14" s="1">
         <f>Table4[[#This Row],[time_weka]]/Table4[[#This Row],[time_FRF_1.0]]</f>
-        <v>1.9866541554005974</v>
+        <v>2.0132431298127806</v>
       </c>
       <c r="O14" s="1">
         <f>Table4[[#This Row],[accuracy_FRF_1.0]]-Table4[[#This Row],[accuracy_FRF_0.99]]</f>
-        <v>-2.7318475916601415E-2</v>
+        <v>-1.5815959741189545E-2</v>
       </c>
       <c r="P14" s="1">
         <f>Table4[[#This Row],[time_FRF_0.99]]/Table4[[#This Row],[time_FRF_1.0]]</f>
-        <v>1.8422691048811726</v>
+        <v>1.8762727637677459</v>
       </c>
       <c r="Q14" s="1"/>
       <c r="R14" s="1"/>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B15">
-        <v>13910</v>
+        <v>6598</v>
       </c>
       <c r="C15">
         <f>Table4[[#This Row],[ numNumeric]]+Table4[[#This Row],[ numNominal]]</f>
-        <v>129</v>
+        <v>167</v>
       </c>
       <c r="D15">
-        <v>129</v>
+        <v>166</v>
       </c>
       <c r="E15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F15">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="G15" s="1">
-        <v>99.489575844716001</v>
+        <v>99.57</v>
       </c>
       <c r="H15" s="1">
-        <v>88263.8</v>
+        <v>20453.8</v>
       </c>
       <c r="I15" s="1">
-        <v>99.485262401150194</v>
+        <v>99.518035768414606</v>
       </c>
       <c r="J15" s="1">
-        <v>82258.8</v>
+        <v>20953.400000000001</v>
       </c>
       <c r="K15" s="1">
-        <v>99.469446441409005</v>
+        <v>99.399818126705</v>
       </c>
       <c r="L15" s="1">
-        <v>43841.599999999999</v>
+        <v>12625.2</v>
       </c>
       <c r="M15" s="1">
         <f>Table4[[#This Row],[accuracy_FRF_1.0]]-Table4[[#This Row],[accuracy_weka]]</f>
-        <v>-2.0129403306995641E-2</v>
+        <v>-0.17018187329499312</v>
       </c>
       <c r="N15" s="1">
         <f>Table4[[#This Row],[time_weka]]/Table4[[#This Row],[time_FRF_1.0]]</f>
-        <v>2.0132431298127806</v>
+        <v>1.620077305706048</v>
       </c>
       <c r="O15" s="1">
         <f>Table4[[#This Row],[accuracy_FRF_1.0]]-Table4[[#This Row],[accuracy_FRF_0.99]]</f>
-        <v>-1.5815959741189545E-2</v>
+        <v>-0.11821764170960591</v>
       </c>
       <c r="P15" s="1">
         <f>Table4[[#This Row],[time_FRF_0.99]]/Table4[[#This Row],[time_FRF_1.0]]</f>
-        <v>1.8762727637677459</v>
+        <v>1.6596489560561416</v>
       </c>
       <c r="Q15" s="1"/>
       <c r="R15" s="1"/>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="B16">
-        <v>8378</v>
+        <v>2000</v>
       </c>
       <c r="C16">
         <f>Table4[[#This Row],[ numNumeric]]+Table4[[#This Row],[ numNominal]]</f>
-        <v>122</v>
+        <v>216</v>
       </c>
       <c r="D16">
-        <v>59</v>
+        <v>216</v>
       </c>
       <c r="E16">
-        <v>63</v>
+        <v>0</v>
       </c>
       <c r="F16">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="G16" s="1">
-        <v>92.924325614705097</v>
+        <v>96.88</v>
       </c>
       <c r="H16" s="1">
-        <v>22187.8</v>
+        <v>8753.2000000000007</v>
       </c>
       <c r="I16" s="1">
-        <v>97.333492480305495</v>
+        <v>96.77</v>
       </c>
       <c r="J16" s="1">
-        <v>30177.4</v>
+        <v>11561.2</v>
       </c>
       <c r="K16" s="1">
-        <v>96.082597278586704</v>
+        <v>96.869999999999905</v>
       </c>
       <c r="L16" s="1">
-        <v>14784.4</v>
+        <v>5540.6</v>
       </c>
       <c r="M16" s="1">
         <f>Table4[[#This Row],[accuracy_FRF_1.0]]-Table4[[#This Row],[accuracy_weka]]</f>
-        <v>3.1582716638816066</v>
+        <v>-1.0000000000090381E-2</v>
       </c>
       <c r="N16" s="1">
         <f>Table4[[#This Row],[time_weka]]/Table4[[#This Row],[time_FRF_1.0]]</f>
-        <v>1.5007575552609507</v>
+        <v>1.5798288993971772</v>
       </c>
       <c r="O16" s="1">
         <f>Table4[[#This Row],[accuracy_FRF_1.0]]-Table4[[#This Row],[accuracy_FRF_0.99]]</f>
-        <v>-1.2508952017187909</v>
+        <v>9.9999999999909051E-2</v>
       </c>
       <c r="P16" s="1">
         <f>Table4[[#This Row],[time_FRF_0.99]]/Table4[[#This Row],[time_FRF_1.0]]</f>
-        <v>2.0411650117691624</v>
+        <v>2.0866332166191386</v>
       </c>
       <c r="Q16" s="1"/>
       <c r="R16" s="1"/>
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="B17">
-        <v>2000</v>
+        <v>14395</v>
       </c>
       <c r="C17">
         <f>Table4[[#This Row],[ numNumeric]]+Table4[[#This Row],[ numNominal]]</f>
@@ -1736,41 +1736,41 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="G17" s="1">
-        <v>96.88</v>
+        <v>99.149704758596698</v>
       </c>
       <c r="H17" s="1">
-        <v>8753.2000000000007</v>
+        <v>68198.8</v>
       </c>
       <c r="I17" s="1">
-        <v>96.77</v>
+        <v>99.078846821813102</v>
       </c>
       <c r="J17" s="1">
-        <v>11561.2</v>
+        <v>63704.2</v>
       </c>
       <c r="K17" s="1">
-        <v>96.869999999999905</v>
+        <v>98.136853073984</v>
       </c>
       <c r="L17" s="1">
-        <v>5540.6</v>
+        <v>38582.400000000001</v>
       </c>
       <c r="M17" s="1">
         <f>Table4[[#This Row],[accuracy_FRF_1.0]]-Table4[[#This Row],[accuracy_weka]]</f>
-        <v>-1.0000000000090381E-2</v>
+        <v>-1.0128516846126985</v>
       </c>
       <c r="N17" s="1">
         <f>Table4[[#This Row],[time_weka]]/Table4[[#This Row],[time_FRF_1.0]]</f>
-        <v>1.5798288993971772</v>
+        <v>1.7676142489839928</v>
       </c>
       <c r="O17" s="1">
         <f>Table4[[#This Row],[accuracy_FRF_1.0]]-Table4[[#This Row],[accuracy_FRF_0.99]]</f>
-        <v>9.9999999999909051E-2</v>
+        <v>-0.94199374782910184</v>
       </c>
       <c r="P17" s="1">
         <f>Table4[[#This Row],[time_FRF_0.99]]/Table4[[#This Row],[time_FRF_1.0]]</f>
-        <v>2.0866332166191386</v>
+        <v>1.6511207182549554</v>
       </c>
       <c r="Q17" s="1"/>
       <c r="R17" s="1"/>
@@ -1948,188 +1948,188 @@
     </row>
     <row r="21" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B21">
-        <v>571</v>
+        <v>1080</v>
       </c>
       <c r="C21">
         <f>Table4[[#This Row],[ numNumeric]]+Table4[[#This Row],[ numNominal]]</f>
-        <v>1300</v>
+        <v>856</v>
       </c>
       <c r="D21">
-        <v>1300</v>
+        <v>856</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="G21" s="1">
-        <v>87.355516637478104</v>
+        <v>94.037037037036995</v>
       </c>
       <c r="H21" s="1">
-        <v>10915.4</v>
+        <v>24922.2</v>
       </c>
       <c r="I21" s="1">
-        <v>86.865148861646205</v>
+        <v>94.037037037036995</v>
       </c>
       <c r="J21" s="1">
-        <v>18379.2</v>
+        <v>40365</v>
       </c>
       <c r="K21" s="1">
-        <v>87.075306479859805</v>
+        <v>95.5</v>
       </c>
       <c r="L21" s="1">
-        <v>2968.8</v>
+        <v>5943.8</v>
       </c>
       <c r="M21" s="1">
         <f>Table4[[#This Row],[accuracy_FRF_1.0]]-Table4[[#This Row],[accuracy_weka]]</f>
-        <v>-0.28021015761829915</v>
+        <v>1.4629629629630045</v>
       </c>
       <c r="N21" s="1">
         <f>Table4[[#This Row],[time_weka]]/Table4[[#This Row],[time_FRF_1.0]]</f>
-        <v>3.6767043923470761</v>
+        <v>4.1929741915946028</v>
       </c>
       <c r="O21" s="1">
         <f>Table4[[#This Row],[accuracy_FRF_1.0]]-Table4[[#This Row],[accuracy_FRF_0.99]]</f>
-        <v>0.21015761821360002</v>
+        <v>1.4629629629630045</v>
       </c>
       <c r="P21" s="1">
         <f>Table4[[#This Row],[time_FRF_0.99]]/Table4[[#This Row],[time_FRF_1.0]]</f>
-        <v>6.190784155214228</v>
+        <v>6.7911100642686497</v>
       </c>
       <c r="Q21" s="1"/>
       <c r="R21" s="1"/>
     </row>
     <row r="22" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B22">
-        <v>1080</v>
+        <v>1600</v>
       </c>
       <c r="C22">
         <f>Table4[[#This Row],[ numNumeric]]+Table4[[#This Row],[ numNominal]]</f>
-        <v>856</v>
+        <v>1000</v>
       </c>
       <c r="D22">
-        <v>856</v>
+        <v>0</v>
       </c>
       <c r="E22">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="F22">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="G22" s="1">
-        <v>94.037037037036995</v>
+        <v>49.087499999999999</v>
       </c>
       <c r="H22" s="1">
-        <v>24922.2</v>
+        <v>13325</v>
       </c>
       <c r="I22" s="1">
-        <v>94.037037037036995</v>
+        <v>50.825000000000003</v>
       </c>
       <c r="J22" s="1">
-        <v>40365</v>
+        <v>48221.8</v>
       </c>
       <c r="K22" s="1">
-        <v>95.5</v>
+        <v>50.35</v>
       </c>
       <c r="L22" s="1">
-        <v>5943.8</v>
+        <v>2931.4</v>
       </c>
       <c r="M22" s="1">
         <f>Table4[[#This Row],[accuracy_FRF_1.0]]-Table4[[#This Row],[accuracy_weka]]</f>
-        <v>1.4629629629630045</v>
+        <v>1.2625000000000028</v>
       </c>
       <c r="N22" s="1">
         <f>Table4[[#This Row],[time_weka]]/Table4[[#This Row],[time_FRF_1.0]]</f>
-        <v>4.1929741915946028</v>
+        <v>4.5456096063314453</v>
       </c>
       <c r="O22" s="1">
         <f>Table4[[#This Row],[accuracy_FRF_1.0]]-Table4[[#This Row],[accuracy_FRF_0.99]]</f>
-        <v>1.4629629629630045</v>
+        <v>-0.47500000000000142</v>
       </c>
       <c r="P22" s="1">
         <f>Table4[[#This Row],[time_FRF_0.99]]/Table4[[#This Row],[time_FRF_1.0]]</f>
-        <v>6.7911100642686497</v>
+        <v>16.450092106160881</v>
       </c>
       <c r="Q22" s="1"/>
       <c r="R22" s="1"/>
     </row>
     <row r="23" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="B23">
-        <v>3751</v>
+        <v>571</v>
       </c>
       <c r="C23">
         <f>Table4[[#This Row],[ numNumeric]]+Table4[[#This Row],[ numNominal]]</f>
-        <v>1776</v>
+        <v>1300</v>
       </c>
       <c r="D23">
-        <v>1776</v>
+        <v>1300</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="G23" s="1">
-        <v>80.101306318315096</v>
+        <v>87.355516637478104</v>
       </c>
       <c r="H23" s="1">
-        <v>72772.600000000006</v>
+        <v>10915.4</v>
       </c>
       <c r="I23" s="1">
-        <v>80.085310583844304</v>
+        <v>86.865148861646205</v>
       </c>
       <c r="J23" s="1">
-        <v>235369.4</v>
+        <v>18379.2</v>
       </c>
       <c r="K23" s="1">
-        <v>79.808051186350298</v>
+        <v>87.075306479859805</v>
       </c>
       <c r="L23" s="1">
-        <v>24362.799999999999</v>
+        <v>2968.8</v>
       </c>
       <c r="M23" s="1">
         <f>Table4[[#This Row],[accuracy_FRF_1.0]]-Table4[[#This Row],[accuracy_weka]]</f>
-        <v>-0.29325513196479847</v>
+        <v>-0.28021015761829915</v>
       </c>
       <c r="N23" s="1">
         <f>Table4[[#This Row],[time_weka]]/Table4[[#This Row],[time_FRF_1.0]]</f>
-        <v>2.987037614724088</v>
+        <v>3.6767043923470761</v>
       </c>
       <c r="O23" s="1">
         <f>Table4[[#This Row],[accuracy_FRF_1.0]]-Table4[[#This Row],[accuracy_FRF_0.99]]</f>
-        <v>-0.27725939749400652</v>
+        <v>0.21015761821360002</v>
       </c>
       <c r="P23" s="1">
         <f>Table4[[#This Row],[time_FRF_0.99]]/Table4[[#This Row],[time_FRF_1.0]]</f>
-        <v>9.6610159751752676</v>
+        <v>6.190784155214228</v>
       </c>
       <c r="Q23" s="1"/>
       <c r="R23" s="1"/>
     </row>
     <row r="24" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="B24">
-        <v>16772</v>
+        <v>3751</v>
       </c>
       <c r="C24">
         <f>Table4[[#This Row],[ numNumeric]]+Table4[[#This Row],[ numNominal]]</f>
-        <v>5655</v>
+        <v>1776</v>
       </c>
       <c r="D24">
-        <v>5655</v>
+        <v>1776</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -2138,55 +2138,55 @@
         <v>2</v>
       </c>
       <c r="G24" s="1">
-        <v>99.152158359170002</v>
+        <v>80.101306318315096</v>
       </c>
       <c r="H24" s="1">
-        <v>307338.59999999998</v>
+        <v>72772.600000000006</v>
       </c>
       <c r="I24" s="1">
-        <v>99.217743858812298</v>
+        <v>80.085310583844304</v>
       </c>
       <c r="J24" s="1">
-        <v>1748540.4</v>
+        <v>235369.4</v>
       </c>
       <c r="K24" s="1">
-        <v>99.212974004292803</v>
+        <v>79.808051186350298</v>
       </c>
       <c r="L24" s="1">
-        <v>171363.6</v>
+        <v>24362.799999999999</v>
       </c>
       <c r="M24" s="1">
         <f>Table4[[#This Row],[accuracy_FRF_1.0]]-Table4[[#This Row],[accuracy_weka]]</f>
-        <v>6.0815645122801243E-2</v>
+        <v>-0.29325513196479847</v>
       </c>
       <c r="N24" s="1">
         <f>Table4[[#This Row],[time_weka]]/Table4[[#This Row],[time_FRF_1.0]]</f>
-        <v>1.793488232039943</v>
+        <v>2.987037614724088</v>
       </c>
       <c r="O24" s="1">
         <f>Table4[[#This Row],[accuracy_FRF_1.0]]-Table4[[#This Row],[accuracy_FRF_0.99]]</f>
-        <v>-4.7698545194947428E-3</v>
+        <v>-0.27725939749400652</v>
       </c>
       <c r="P24" s="1">
         <f>Table4[[#This Row],[time_FRF_0.99]]/Table4[[#This Row],[time_FRF_1.0]]</f>
-        <v>10.203686197068688</v>
+        <v>9.6610159751752676</v>
       </c>
       <c r="Q24" s="1"/>
       <c r="R24" s="1"/>
     </row>
     <row r="25" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>32</v>
+        <v>6</v>
       </c>
       <c r="B25">
-        <v>1545</v>
+        <v>4900</v>
       </c>
       <c r="C25">
         <f>Table4[[#This Row],[ numNumeric]]+Table4[[#This Row],[ numNominal]]</f>
-        <v>10936</v>
+        <v>5000</v>
       </c>
       <c r="D25">
-        <v>10936</v>
+        <v>5000</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -2195,112 +2195,112 @@
         <v>2</v>
       </c>
       <c r="G25" s="1">
-        <v>95.650485436893206</v>
+        <v>96.546938775510199</v>
       </c>
       <c r="H25" s="1">
-        <v>27884.6</v>
+        <v>113693.4</v>
       </c>
       <c r="I25" s="1">
-        <v>95.883495145631002</v>
+        <v>96.493877551020404</v>
       </c>
       <c r="J25" s="1">
-        <v>305366</v>
+        <v>776471.6</v>
       </c>
       <c r="K25" s="1">
-        <v>95.495145631067899</v>
+        <v>96.269387755102002</v>
       </c>
       <c r="L25" s="1">
-        <v>21622.2</v>
+        <v>42225.599999999999</v>
       </c>
       <c r="M25" s="1">
         <f>Table4[[#This Row],[accuracy_FRF_1.0]]-Table4[[#This Row],[accuracy_weka]]</f>
-        <v>-0.1553398058253066</v>
+        <v>-0.27755102040819679</v>
       </c>
       <c r="N25" s="1">
         <f>Table4[[#This Row],[time_weka]]/Table4[[#This Row],[time_FRF_1.0]]</f>
-        <v>1.2896282524442471</v>
+        <v>2.6925230192110945</v>
       </c>
       <c r="O25" s="1">
         <f>Table4[[#This Row],[accuracy_FRF_1.0]]-Table4[[#This Row],[accuracy_FRF_0.99]]</f>
-        <v>-0.38834951456310307</v>
+        <v>-0.22448979591840157</v>
       </c>
       <c r="P25" s="1">
         <f>Table4[[#This Row],[time_FRF_0.99]]/Table4[[#This Row],[time_FRF_1.0]]</f>
-        <v>14.12279971510762</v>
+        <v>18.388645750445228</v>
       </c>
       <c r="Q25" s="1"/>
       <c r="R25" s="1"/>
     </row>
     <row r="26" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="B26">
-        <v>1600</v>
+        <v>16772</v>
       </c>
       <c r="C26">
         <f>Table4[[#This Row],[ numNumeric]]+Table4[[#This Row],[ numNominal]]</f>
-        <v>1000</v>
+        <v>5655</v>
       </c>
       <c r="D26">
-        <v>0</v>
+        <v>5655</v>
       </c>
       <c r="E26">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="F26">
         <v>2</v>
       </c>
       <c r="G26" s="1">
-        <v>49.087499999999999</v>
+        <v>99.152158359170002</v>
       </c>
       <c r="H26" s="1">
-        <v>13325</v>
+        <v>307338.59999999998</v>
       </c>
       <c r="I26" s="1">
-        <v>50.825000000000003</v>
+        <v>99.217743858812298</v>
       </c>
       <c r="J26" s="1">
-        <v>48221.8</v>
+        <v>1748540.4</v>
       </c>
       <c r="K26" s="1">
-        <v>50.35</v>
+        <v>99.212974004292803</v>
       </c>
       <c r="L26" s="1">
-        <v>2931.4</v>
+        <v>171363.6</v>
       </c>
       <c r="M26" s="1">
         <f>Table4[[#This Row],[accuracy_FRF_1.0]]-Table4[[#This Row],[accuracy_weka]]</f>
-        <v>1.2625000000000028</v>
+        <v>6.0815645122801243E-2</v>
       </c>
       <c r="N26" s="1">
         <f>Table4[[#This Row],[time_weka]]/Table4[[#This Row],[time_FRF_1.0]]</f>
-        <v>4.5456096063314453</v>
+        <v>1.793488232039943</v>
       </c>
       <c r="O26" s="1">
         <f>Table4[[#This Row],[accuracy_FRF_1.0]]-Table4[[#This Row],[accuracy_FRF_0.99]]</f>
-        <v>-0.47500000000000142</v>
+        <v>-4.7698545194947428E-3</v>
       </c>
       <c r="P26" s="1">
         <f>Table4[[#This Row],[time_FRF_0.99]]/Table4[[#This Row],[time_FRF_1.0]]</f>
-        <v>16.450092106160881</v>
+        <v>10.203686197068688</v>
       </c>
       <c r="Q26" s="1"/>
       <c r="R26" s="1"/>
     </row>
     <row r="27" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B27">
-        <v>4900</v>
+        <v>200</v>
       </c>
       <c r="C27">
         <f>Table4[[#This Row],[ numNumeric]]+Table4[[#This Row],[ numNominal]]</f>
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="D27">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -2309,48 +2309,48 @@
         <v>2</v>
       </c>
       <c r="G27" s="1">
-        <v>96.546938775510199</v>
+        <v>83.7</v>
       </c>
       <c r="H27" s="1">
-        <v>113693.4</v>
+        <v>9490.7999999999993</v>
       </c>
       <c r="I27" s="1">
-        <v>96.493877551020404</v>
+        <v>82.7</v>
       </c>
       <c r="J27" s="1">
-        <v>776471.6</v>
+        <v>34131.4</v>
       </c>
       <c r="K27" s="1">
-        <v>96.269387755102002</v>
+        <v>81.099999999999994</v>
       </c>
       <c r="L27" s="1">
-        <v>42225.599999999999</v>
+        <v>1753</v>
       </c>
       <c r="M27" s="1">
         <f>Table4[[#This Row],[accuracy_FRF_1.0]]-Table4[[#This Row],[accuracy_weka]]</f>
-        <v>-0.27755102040819679</v>
+        <v>-2.6000000000000085</v>
       </c>
       <c r="N27" s="1">
         <f>Table4[[#This Row],[time_weka]]/Table4[[#This Row],[time_FRF_1.0]]</f>
-        <v>2.6925230192110945</v>
+        <v>5.4140330861380486</v>
       </c>
       <c r="O27" s="1">
         <f>Table4[[#This Row],[accuracy_FRF_1.0]]-Table4[[#This Row],[accuracy_FRF_0.99]]</f>
-        <v>-0.22448979591840157</v>
+        <v>-1.6000000000000085</v>
       </c>
       <c r="P27" s="1">
         <f>Table4[[#This Row],[time_FRF_0.99]]/Table4[[#This Row],[time_FRF_1.0]]</f>
-        <v>18.388645750445228</v>
+        <v>19.47027952082145</v>
       </c>
       <c r="Q27" s="1"/>
       <c r="R27" s="1"/>
     </row>
     <row r="28" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B28">
-        <v>200</v>
+        <v>1500</v>
       </c>
       <c r="C28">
         <f>Table4[[#This Row],[ numNumeric]]+Table4[[#This Row],[ numNominal]]</f>
@@ -2363,98 +2363,98 @@
         <v>0</v>
       </c>
       <c r="F28">
-        <v>2</v>
+        <v>50</v>
       </c>
       <c r="G28" s="1">
-        <v>83.7</v>
+        <v>53.76</v>
       </c>
       <c r="H28" s="1">
-        <v>9490.7999999999993</v>
+        <v>246351.4</v>
       </c>
       <c r="I28" s="1">
-        <v>82.7</v>
+        <v>52.32</v>
       </c>
       <c r="J28" s="1">
-        <v>34131.4</v>
+        <v>854274.8</v>
       </c>
       <c r="K28" s="1">
-        <v>81.099999999999994</v>
+        <v>66.533333333333303</v>
       </c>
       <c r="L28" s="1">
-        <v>1753</v>
+        <v>27120.400000000001</v>
       </c>
       <c r="M28" s="1">
         <f>Table4[[#This Row],[accuracy_FRF_1.0]]-Table4[[#This Row],[accuracy_weka]]</f>
-        <v>-2.6000000000000085</v>
+        <v>12.773333333333305</v>
       </c>
       <c r="N28" s="1">
         <f>Table4[[#This Row],[time_weka]]/Table4[[#This Row],[time_FRF_1.0]]</f>
-        <v>5.4140330861380486</v>
+        <v>9.0836197106237364</v>
       </c>
       <c r="O28" s="1">
         <f>Table4[[#This Row],[accuracy_FRF_1.0]]-Table4[[#This Row],[accuracy_FRF_0.99]]</f>
-        <v>-1.6000000000000085</v>
+        <v>14.213333333333303</v>
       </c>
       <c r="P28" s="1">
         <f>Table4[[#This Row],[time_FRF_0.99]]/Table4[[#This Row],[time_FRF_1.0]]</f>
-        <v>19.47027952082145</v>
+        <v>31.499343667497531</v>
       </c>
       <c r="Q28" s="1"/>
       <c r="R28" s="1"/>
     </row>
     <row r="29" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>13</v>
+        <v>32</v>
       </c>
       <c r="B29">
-        <v>1500</v>
+        <v>1545</v>
       </c>
       <c r="C29">
         <f>Table4[[#This Row],[ numNumeric]]+Table4[[#This Row],[ numNominal]]</f>
-        <v>10000</v>
+        <v>10936</v>
       </c>
       <c r="D29">
-        <v>10000</v>
+        <v>10936</v>
       </c>
       <c r="E29">
         <v>0</v>
       </c>
       <c r="F29">
-        <v>50</v>
+        <v>2</v>
       </c>
       <c r="G29" s="1">
-        <v>53.76</v>
+        <v>95.650485436893206</v>
       </c>
       <c r="H29" s="1">
-        <v>246351.4</v>
+        <v>27884.6</v>
       </c>
       <c r="I29" s="1">
-        <v>52.32</v>
+        <v>95.883495145631002</v>
       </c>
       <c r="J29" s="1">
-        <v>854274.8</v>
+        <v>305366</v>
       </c>
       <c r="K29" s="1">
-        <v>66.533333333333303</v>
+        <v>95.495145631067899</v>
       </c>
       <c r="L29" s="1">
-        <v>27120.400000000001</v>
+        <v>21622.2</v>
       </c>
       <c r="M29" s="1">
         <f>Table4[[#This Row],[accuracy_FRF_1.0]]-Table4[[#This Row],[accuracy_weka]]</f>
-        <v>12.773333333333305</v>
+        <v>-0.1553398058253066</v>
       </c>
       <c r="N29" s="1">
         <f>Table4[[#This Row],[time_weka]]/Table4[[#This Row],[time_FRF_1.0]]</f>
-        <v>9.0836197106237364</v>
+        <v>1.2896282524442471</v>
       </c>
       <c r="O29" s="1">
         <f>Table4[[#This Row],[accuracy_FRF_1.0]]-Table4[[#This Row],[accuracy_FRF_0.99]]</f>
-        <v>14.213333333333303</v>
+        <v>-0.38834951456310307</v>
       </c>
       <c r="P29" s="1">
         <f>Table4[[#This Row],[time_FRF_0.99]]/Table4[[#This Row],[time_FRF_1.0]]</f>
-        <v>31.499343667497531</v>
+        <v>14.12279971510762</v>
       </c>
       <c r="Q29" s="1"/>
       <c r="R29" s="1"/>

--- a/results/results_real_datasets.xlsx
+++ b/results/results_real_datasets.xlsx
@@ -243,7 +243,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="49">
   <si>
     <t>name</t>
   </si>
@@ -378,6 +378,18 @@
   </si>
   <si>
     <t>time_FRF_0.99 - time_FRF_1.0</t>
+  </si>
+  <si>
+    <t>la1s.wc.arff</t>
+  </si>
+  <si>
+    <t>ohscal.wc.arff</t>
+  </si>
+  <si>
+    <t>OVA_Breast.arff</t>
+  </si>
+  <si>
+    <t>skin-segmentation.arff</t>
   </si>
 </sst>
 </file>
@@ -413,9 +425,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -487,10 +501,10 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table4" displayName="Table4" ref="A1:P30" totalsRowShown="0" headerRowBorderDxfId="11" tableBorderDxfId="10" headerRowCellStyle="Normal" dataCellStyle="Normal">
-  <autoFilter ref="A1:P30"/>
-  <sortState ref="A2:P30">
-    <sortCondition ref="C1:C30"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table4" displayName="Table4" ref="A1:P37" totalsRowShown="0" headerRowBorderDxfId="11" tableBorderDxfId="10" headerRowCellStyle="Normal" dataCellStyle="Normal">
+  <autoFilter ref="A1:P37"/>
+  <sortState ref="A2:P37">
+    <sortCondition ref="H1:H37"/>
   </sortState>
   <tableColumns count="16">
     <tableColumn id="1" name="name" dataCellStyle="Normal"/>
@@ -787,10 +801,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R30"/>
+  <dimension ref="A1:R37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G28" sqref="G28"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="P36" sqref="P36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -922,114 +937,114 @@
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="B3">
-        <v>45211</v>
+        <v>2000</v>
       </c>
       <c r="C3">
         <f>Table4[[#This Row],[ numNumeric]]+Table4[[#This Row],[ numNominal]]</f>
-        <v>16</v>
+        <v>216</v>
       </c>
       <c r="D3">
-        <v>7</v>
+        <v>216</v>
       </c>
       <c r="E3">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="G3" s="1">
-        <v>90.539028112627406</v>
+        <v>96.88</v>
       </c>
       <c r="H3" s="1">
-        <v>99039.4</v>
+        <v>8753.2000000000007</v>
       </c>
       <c r="I3" s="1">
-        <v>90.082059675742599</v>
+        <v>96.77</v>
       </c>
       <c r="J3" s="1">
-        <v>98475</v>
+        <v>11561.2</v>
       </c>
       <c r="K3" s="1">
-        <v>90.569109287562696</v>
+        <v>96.869999999999905</v>
       </c>
       <c r="L3" s="1">
-        <v>83627.600000000006</v>
+        <v>5540.6</v>
       </c>
       <c r="M3" s="1">
         <f>Table4[[#This Row],[accuracy_FRF_1.0]]-Table4[[#This Row],[accuracy_weka]]</f>
-        <v>3.0081174935290278E-2</v>
+        <v>-1.0000000000090381E-2</v>
       </c>
       <c r="N3" s="1">
         <f>Table4[[#This Row],[time_weka]]/Table4[[#This Row],[time_FRF_1.0]]</f>
-        <v>1.1842908322132883</v>
+        <v>1.5798288993971772</v>
       </c>
       <c r="O3" s="1">
         <f>Table4[[#This Row],[accuracy_FRF_1.0]]-Table4[[#This Row],[accuracy_FRF_0.99]]</f>
-        <v>0.48704961182009754</v>
+        <v>9.9999999999909051E-2</v>
       </c>
       <c r="P3" s="1">
         <f>Table4[[#This Row],[time_FRF_0.99]]/Table4[[#This Row],[time_FRF_1.0]]</f>
-        <v>1.1775418641692454</v>
+        <v>2.0866332166191386</v>
       </c>
       <c r="Q3" s="1"/>
       <c r="R3" s="1"/>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>36</v>
+        <v>10</v>
       </c>
       <c r="B4">
-        <v>5000</v>
+        <v>200</v>
       </c>
       <c r="C4">
         <f>Table4[[#This Row],[ numNumeric]]+Table4[[#This Row],[ numNominal]]</f>
-        <v>40</v>
+        <v>10000</v>
       </c>
       <c r="D4">
-        <v>40</v>
+        <v>10000</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G4" s="1">
-        <v>85.431999999999903</v>
+        <v>83.7</v>
       </c>
       <c r="H4" s="1">
-        <v>19187.8</v>
+        <v>9490.7999999999993</v>
       </c>
       <c r="I4" s="1">
-        <v>85.447999999999993</v>
+        <v>82.7</v>
       </c>
       <c r="J4" s="1">
-        <v>13970.4</v>
+        <v>34131.4</v>
       </c>
       <c r="K4" s="1">
-        <v>85.783999999999907</v>
+        <v>81.099999999999994</v>
       </c>
       <c r="L4" s="1">
-        <v>10550.4</v>
+        <v>1753</v>
       </c>
       <c r="M4" s="1">
         <f>Table4[[#This Row],[accuracy_FRF_1.0]]-Table4[[#This Row],[accuracy_weka]]</f>
-        <v>0.35200000000000387</v>
+        <v>-2.6000000000000085</v>
       </c>
       <c r="N4" s="1">
         <f>Table4[[#This Row],[time_weka]]/Table4[[#This Row],[time_FRF_1.0]]</f>
-        <v>1.8186798604792236</v>
+        <v>5.4140330861380486</v>
       </c>
       <c r="O4" s="1">
         <f>Table4[[#This Row],[accuracy_FRF_1.0]]-Table4[[#This Row],[accuracy_FRF_0.99]]</f>
-        <v>0.33599999999991326</v>
+        <v>-1.6000000000000085</v>
       </c>
       <c r="P4" s="1">
         <f>Table4[[#This Row],[time_FRF_0.99]]/Table4[[#This Row],[time_FRF_1.0]]</f>
-        <v>1.3241583257506824</v>
+        <v>19.47027952082145</v>
       </c>
       <c r="Q4" s="1"/>
       <c r="R4" s="1"/>
@@ -1093,644 +1108,644 @@
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B6">
-        <v>6118</v>
+        <v>571</v>
       </c>
       <c r="C6">
         <f>Table4[[#This Row],[ numNumeric]]+Table4[[#This Row],[ numNominal]]</f>
-        <v>51</v>
+        <v>1300</v>
       </c>
       <c r="D6">
-        <v>51</v>
+        <v>1300</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="G6" s="1">
-        <v>63.151356652500802</v>
+        <v>87.355516637478104</v>
       </c>
       <c r="H6" s="1">
-        <v>32863</v>
+        <v>10915.4</v>
       </c>
       <c r="I6" s="1">
-        <v>63.167701863353997</v>
+        <v>86.865148861646205</v>
       </c>
       <c r="J6" s="1">
-        <v>26586.799999999999</v>
+        <v>18379.2</v>
       </c>
       <c r="K6" s="1">
-        <v>63.206930369401697</v>
+        <v>87.075306479859805</v>
       </c>
       <c r="L6" s="1">
-        <v>21056.799999999999</v>
+        <v>2968.8</v>
       </c>
       <c r="M6" s="1">
         <f>Table4[[#This Row],[accuracy_FRF_1.0]]-Table4[[#This Row],[accuracy_weka]]</f>
-        <v>5.5573716900894965E-2</v>
+        <v>-0.28021015761829915</v>
       </c>
       <c r="N6" s="1">
         <f>Table4[[#This Row],[time_weka]]/Table4[[#This Row],[time_FRF_1.0]]</f>
-        <v>1.5606834846700355</v>
+        <v>3.6767043923470761</v>
       </c>
       <c r="O6" s="1">
         <f>Table4[[#This Row],[accuracy_FRF_1.0]]-Table4[[#This Row],[accuracy_FRF_0.99]]</f>
-        <v>3.9228506047699341E-2</v>
+        <v>0.21015761821360002</v>
       </c>
       <c r="P6" s="1">
         <f>Table4[[#This Row],[time_FRF_0.99]]/Table4[[#This Row],[time_FRF_1.0]]</f>
-        <v>1.2626230006458721</v>
+        <v>6.190784155214228</v>
       </c>
       <c r="Q6" s="1"/>
       <c r="R6" s="1"/>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>25</v>
-      </c>
-      <c r="B7">
-        <v>2744</v>
-      </c>
-      <c r="C7">
-        <f>Table4[[#This Row],[ numNumeric]]+Table4[[#This Row],[ numNominal]]</f>
-        <v>60</v>
-      </c>
-      <c r="D7">
-        <v>0</v>
-      </c>
-      <c r="E7">
-        <v>60</v>
-      </c>
-      <c r="F7">
-        <v>9</v>
-      </c>
-      <c r="G7" s="1">
-        <v>77.128279883381893</v>
-      </c>
-      <c r="H7" s="1">
-        <v>13162.8</v>
+      <c r="A7" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B7" s="2">
+        <v>571</v>
+      </c>
+      <c r="C7" s="2">
+        <f>Table4[[#This Row],[ numNumeric]]+Table4[[#This Row],[ numNominal]]</f>
+        <v>1300</v>
+      </c>
+      <c r="D7" s="2">
+        <v>1300</v>
+      </c>
+      <c r="E7" s="2">
+        <v>0</v>
+      </c>
+      <c r="F7" s="2">
+        <v>20</v>
+      </c>
+      <c r="G7" s="3">
+        <v>87.355516637478104</v>
+      </c>
+      <c r="H7" s="3">
+        <v>11253.2</v>
       </c>
       <c r="I7" s="1">
-        <v>76.829446064139901</v>
+        <v>86.865148861646205</v>
       </c>
       <c r="J7" s="1">
-        <v>42349.2</v>
+        <v>18802.8</v>
       </c>
       <c r="K7" s="1">
-        <v>76.8221574344023</v>
+        <v>87.075306479859805</v>
       </c>
       <c r="L7" s="1">
-        <v>29404</v>
-      </c>
-      <c r="M7" s="1">
-        <f>Table4[[#This Row],[accuracy_FRF_1.0]]-Table4[[#This Row],[accuracy_weka]]</f>
-        <v>-0.30612244897959329</v>
+        <v>3055.8</v>
+      </c>
+      <c r="M7" s="3">
+        <f>Table4[[#This Row],[accuracy_FRF_1.0]]-Table4[[#This Row],[accuracy_weka]]</f>
+        <v>-0.28021015761829915</v>
       </c>
       <c r="N7" s="1">
         <f>Table4[[#This Row],[time_weka]]/Table4[[#This Row],[time_FRF_1.0]]</f>
-        <v>0.44765338049244996</v>
+        <v>3.6825708488775444</v>
       </c>
       <c r="O7" s="1">
         <f>Table4[[#This Row],[accuracy_FRF_1.0]]-Table4[[#This Row],[accuracy_FRF_0.99]]</f>
-        <v>-7.2886297376015818E-3</v>
-      </c>
-      <c r="P7" s="1">
-        <f>Table4[[#This Row],[time_FRF_0.99]]/Table4[[#This Row],[time_FRF_1.0]]</f>
-        <v>1.440253026799075</v>
+        <v>0.21015761821360002</v>
+      </c>
+      <c r="P7" s="3">
+        <f>Table4[[#This Row],[time_FRF_0.99]]/Table4[[#This Row],[time_FRF_1.0]]</f>
+        <v>6.1531513842528955</v>
       </c>
       <c r="Q7" s="1"/>
       <c r="R7" s="1"/>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B8">
-        <v>3331</v>
+        <v>2000</v>
       </c>
       <c r="C8">
         <f>Table4[[#This Row],[ numNumeric]]+Table4[[#This Row],[ numNominal]]</f>
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="D8">
-        <v>0</v>
+        <v>64</v>
       </c>
       <c r="E8">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="F8">
         <v>10</v>
       </c>
       <c r="G8" s="1">
-        <v>76.355448814169904</v>
+        <v>96.46</v>
       </c>
       <c r="H8" s="1">
-        <v>63978.8</v>
+        <v>11343.8</v>
       </c>
       <c r="I8" s="1">
-        <v>75.965175622936002</v>
+        <v>96.429999999999893</v>
       </c>
       <c r="J8" s="1">
-        <v>154710.6</v>
+        <v>10957.2</v>
       </c>
       <c r="K8" s="1">
-        <v>76.217352146502506</v>
+        <v>96.4</v>
       </c>
       <c r="L8" s="1">
-        <v>107751</v>
+        <v>6302.8</v>
       </c>
       <c r="M8" s="1">
         <f>Table4[[#This Row],[accuracy_FRF_1.0]]-Table4[[#This Row],[accuracy_weka]]</f>
-        <v>-0.13809666766739781</v>
+        <v>-5.9999999999988063E-2</v>
       </c>
       <c r="N8" s="1">
         <f>Table4[[#This Row],[time_weka]]/Table4[[#This Row],[time_FRF_1.0]]</f>
-        <v>0.59376525507883915</v>
+        <v>1.7998032620422668</v>
       </c>
       <c r="O8" s="1">
         <f>Table4[[#This Row],[accuracy_FRF_1.0]]-Table4[[#This Row],[accuracy_FRF_0.99]]</f>
-        <v>0.25217652356650433</v>
+        <v>-2.999999999988745E-2</v>
       </c>
       <c r="P8" s="1">
         <f>Table4[[#This Row],[time_FRF_0.99]]/Table4[[#This Row],[time_FRF_1.0]]</f>
-        <v>1.4358159089010776</v>
+        <v>1.7384654439296821</v>
       </c>
       <c r="Q8" s="1"/>
       <c r="R8" s="1"/>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="B9">
-        <v>4062</v>
+        <v>2000</v>
       </c>
       <c r="C9">
         <f>Table4[[#This Row],[ numNumeric]]+Table4[[#This Row],[ numNominal]]</f>
-        <v>60</v>
+        <v>649</v>
       </c>
       <c r="D9">
-        <v>0</v>
+        <v>649</v>
       </c>
       <c r="E9">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="F9">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G9" s="1">
-        <v>86.0413589364844</v>
+        <v>98.46</v>
       </c>
       <c r="H9" s="1">
-        <v>55359.6</v>
+        <v>12816</v>
       </c>
       <c r="I9" s="1">
-        <v>85.977351058591793</v>
+        <v>98.51</v>
       </c>
       <c r="J9" s="1">
-        <v>121163.2</v>
+        <v>29299.4</v>
       </c>
       <c r="K9" s="1">
-        <v>86.248153618906898</v>
+        <v>98.52</v>
       </c>
       <c r="L9" s="1">
-        <v>69350.399999999994</v>
+        <v>6997</v>
       </c>
       <c r="M9" s="1">
         <f>Table4[[#This Row],[accuracy_FRF_1.0]]-Table4[[#This Row],[accuracy_weka]]</f>
-        <v>0.20679468242249754</v>
+        <v>6.0000000000002274E-2</v>
       </c>
       <c r="N9" s="1">
         <f>Table4[[#This Row],[time_weka]]/Table4[[#This Row],[time_FRF_1.0]]</f>
-        <v>0.79825927464008861</v>
+        <v>1.8316421323424326</v>
       </c>
       <c r="O9" s="1">
         <f>Table4[[#This Row],[accuracy_FRF_1.0]]-Table4[[#This Row],[accuracy_FRF_0.99]]</f>
-        <v>0.2708025603151043</v>
+        <v>9.9999999999909051E-3</v>
       </c>
       <c r="P9" s="1">
         <f>Table4[[#This Row],[time_FRF_0.99]]/Table4[[#This Row],[time_FRF_1.0]]</f>
-        <v>1.7471160944998156</v>
+        <v>4.1874231813634415</v>
       </c>
       <c r="Q9" s="1"/>
       <c r="R9" s="1"/>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B10">
-        <v>2000</v>
+        <v>2744</v>
       </c>
       <c r="C10">
         <f>Table4[[#This Row],[ numNumeric]]+Table4[[#This Row],[ numNominal]]</f>
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="D10">
-        <v>64</v>
+        <v>0</v>
       </c>
       <c r="E10">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="F10">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G10" s="1">
-        <v>96.46</v>
+        <v>77.128279883381893</v>
       </c>
       <c r="H10" s="1">
-        <v>11343.8</v>
+        <v>13162.8</v>
       </c>
       <c r="I10" s="1">
-        <v>96.429999999999893</v>
+        <v>76.829446064139901</v>
       </c>
       <c r="J10" s="1">
-        <v>10957.2</v>
+        <v>42349.2</v>
       </c>
       <c r="K10" s="1">
-        <v>96.4</v>
+        <v>76.8221574344023</v>
       </c>
       <c r="L10" s="1">
-        <v>6302.8</v>
+        <v>29404</v>
       </c>
       <c r="M10" s="1">
         <f>Table4[[#This Row],[accuracy_FRF_1.0]]-Table4[[#This Row],[accuracy_weka]]</f>
-        <v>-5.9999999999988063E-2</v>
+        <v>-0.30612244897959329</v>
       </c>
       <c r="N10" s="1">
         <f>Table4[[#This Row],[time_weka]]/Table4[[#This Row],[time_FRF_1.0]]</f>
-        <v>1.7998032620422668</v>
+        <v>0.44765338049244996</v>
       </c>
       <c r="O10" s="1">
         <f>Table4[[#This Row],[accuracy_FRF_1.0]]-Table4[[#This Row],[accuracy_FRF_0.99]]</f>
-        <v>-2.999999999988745E-2</v>
+        <v>-7.2886297376015818E-3</v>
       </c>
       <c r="P10" s="1">
         <f>Table4[[#This Row],[time_FRF_0.99]]/Table4[[#This Row],[time_FRF_1.0]]</f>
-        <v>1.7384654439296821</v>
+        <v>1.440253026799075</v>
       </c>
       <c r="Q10" s="1"/>
       <c r="R10" s="1"/>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="B11">
-        <v>34465</v>
+        <v>1600</v>
       </c>
       <c r="C11">
         <f>Table4[[#This Row],[ numNumeric]]+Table4[[#This Row],[ numNominal]]</f>
-        <v>118</v>
+        <v>1000</v>
       </c>
       <c r="D11">
-        <v>89</v>
+        <v>0</v>
       </c>
       <c r="E11">
-        <v>29</v>
+        <v>1000</v>
       </c>
       <c r="F11">
         <v>2</v>
       </c>
       <c r="G11" s="1">
-        <v>97.032931959959299</v>
+        <v>49.087499999999999</v>
       </c>
       <c r="H11" s="1">
-        <v>179149.4</v>
+        <v>13325</v>
       </c>
       <c r="I11" s="1">
-        <v>97.048600029014906</v>
+        <v>50.825000000000003</v>
       </c>
       <c r="J11" s="1">
-        <v>151799.4</v>
+        <v>48221.8</v>
       </c>
       <c r="K11" s="1">
-        <v>97.067169592339994</v>
+        <v>50.35</v>
       </c>
       <c r="L11" s="1">
-        <v>105399.2</v>
+        <v>2931.4</v>
       </c>
       <c r="M11" s="1">
         <f>Table4[[#This Row],[accuracy_FRF_1.0]]-Table4[[#This Row],[accuracy_weka]]</f>
-        <v>3.4237632380694549E-2</v>
+        <v>1.2625000000000028</v>
       </c>
       <c r="N11" s="1">
         <f>Table4[[#This Row],[time_weka]]/Table4[[#This Row],[time_FRF_1.0]]</f>
-        <v>1.6997225785394956</v>
+        <v>4.5456096063314453</v>
       </c>
       <c r="O11" s="1">
         <f>Table4[[#This Row],[accuracy_FRF_1.0]]-Table4[[#This Row],[accuracy_FRF_0.99]]</f>
-        <v>1.8569563325087302E-2</v>
+        <v>-0.47500000000000142</v>
       </c>
       <c r="P11" s="1">
         <f>Table4[[#This Row],[time_FRF_0.99]]/Table4[[#This Row],[time_FRF_1.0]]</f>
-        <v>1.4402329429445384</v>
+        <v>16.450092106160881</v>
       </c>
       <c r="Q11" s="1"/>
       <c r="R11" s="1"/>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B12">
-        <v>8378</v>
+        <v>5000</v>
       </c>
       <c r="C12">
         <f>Table4[[#This Row],[ numNumeric]]+Table4[[#This Row],[ numNominal]]</f>
-        <v>122</v>
+        <v>40</v>
       </c>
       <c r="D12">
-        <v>59</v>
+        <v>40</v>
       </c>
       <c r="E12">
-        <v>63</v>
+        <v>0</v>
       </c>
       <c r="F12">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G12" s="1">
-        <v>92.924325614705097</v>
+        <v>85.431999999999903</v>
       </c>
       <c r="H12" s="1">
-        <v>22187.8</v>
+        <v>19187.8</v>
       </c>
       <c r="I12" s="1">
-        <v>97.333492480305495</v>
+        <v>85.447999999999993</v>
       </c>
       <c r="J12" s="1">
-        <v>30177.4</v>
+        <v>13970.4</v>
       </c>
       <c r="K12" s="1">
-        <v>96.082597278586704</v>
+        <v>85.783999999999907</v>
       </c>
       <c r="L12" s="1">
-        <v>14784.4</v>
+        <v>10550.4</v>
       </c>
       <c r="M12" s="1">
         <f>Table4[[#This Row],[accuracy_FRF_1.0]]-Table4[[#This Row],[accuracy_weka]]</f>
-        <v>3.1582716638816066</v>
+        <v>0.35200000000000387</v>
       </c>
       <c r="N12" s="1">
         <f>Table4[[#This Row],[time_weka]]/Table4[[#This Row],[time_FRF_1.0]]</f>
-        <v>1.5007575552609507</v>
+        <v>1.8186798604792236</v>
       </c>
       <c r="O12" s="1">
         <f>Table4[[#This Row],[accuracy_FRF_1.0]]-Table4[[#This Row],[accuracy_FRF_0.99]]</f>
-        <v>-1.2508952017187909</v>
+        <v>0.33599999999991326</v>
       </c>
       <c r="P12" s="1">
         <f>Table4[[#This Row],[time_FRF_0.99]]/Table4[[#This Row],[time_FRF_1.0]]</f>
-        <v>2.0411650117691624</v>
+        <v>1.3241583257506824</v>
       </c>
       <c r="Q12" s="1"/>
       <c r="R12" s="1"/>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B13">
-        <v>13910</v>
+        <v>6598</v>
       </c>
       <c r="C13">
         <f>Table4[[#This Row],[ numNumeric]]+Table4[[#This Row],[ numNominal]]</f>
-        <v>128</v>
+        <v>167</v>
       </c>
       <c r="D13">
-        <v>128</v>
+        <v>166</v>
       </c>
       <c r="E13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F13">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="G13" s="1">
-        <v>99.479511143062496</v>
+        <v>99.57</v>
       </c>
       <c r="H13" s="1">
-        <v>89345.4</v>
+        <v>20453.8</v>
       </c>
       <c r="I13" s="1">
-        <v>99.472322070452904</v>
+        <v>99.518035768414606</v>
       </c>
       <c r="J13" s="1">
-        <v>82852</v>
+        <v>20953.400000000001</v>
       </c>
       <c r="K13" s="1">
-        <v>99.445003594536303</v>
+        <v>99.399818126705</v>
       </c>
       <c r="L13" s="1">
-        <v>44972.800000000003</v>
+        <v>12625.2</v>
       </c>
       <c r="M13" s="1">
         <f>Table4[[#This Row],[accuracy_FRF_1.0]]-Table4[[#This Row],[accuracy_weka]]</f>
-        <v>-3.4507548526192977E-2</v>
+        <v>-0.17018187329499312</v>
       </c>
       <c r="N13" s="1">
         <f>Table4[[#This Row],[time_weka]]/Table4[[#This Row],[time_FRF_1.0]]</f>
-        <v>1.9866541554005974</v>
+        <v>1.620077305706048</v>
       </c>
       <c r="O13" s="1">
         <f>Table4[[#This Row],[accuracy_FRF_1.0]]-Table4[[#This Row],[accuracy_FRF_0.99]]</f>
-        <v>-2.7318475916601415E-2</v>
+        <v>-0.11821764170960591</v>
       </c>
       <c r="P13" s="1">
         <f>Table4[[#This Row],[time_FRF_0.99]]/Table4[[#This Row],[time_FRF_1.0]]</f>
-        <v>1.8422691048811726</v>
+        <v>1.6596489560561416</v>
       </c>
       <c r="Q13" s="1"/>
       <c r="R13" s="1"/>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>14</v>
+        <v>34</v>
       </c>
       <c r="B14">
-        <v>13910</v>
+        <v>8378</v>
       </c>
       <c r="C14">
         <f>Table4[[#This Row],[ numNumeric]]+Table4[[#This Row],[ numNominal]]</f>
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="D14">
-        <v>129</v>
+        <v>59</v>
       </c>
       <c r="E14">
-        <v>0</v>
+        <v>63</v>
       </c>
       <c r="F14">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="G14" s="1">
-        <v>99.489575844716001</v>
+        <v>92.924325614705097</v>
       </c>
       <c r="H14" s="1">
-        <v>88263.8</v>
+        <v>22187.8</v>
       </c>
       <c r="I14" s="1">
-        <v>99.485262401150194</v>
+        <v>97.333492480305495</v>
       </c>
       <c r="J14" s="1">
-        <v>82258.8</v>
+        <v>30177.4</v>
       </c>
       <c r="K14" s="1">
-        <v>99.469446441409005</v>
+        <v>96.082597278586704</v>
       </c>
       <c r="L14" s="1">
-        <v>43841.599999999999</v>
+        <v>14784.4</v>
       </c>
       <c r="M14" s="1">
         <f>Table4[[#This Row],[accuracy_FRF_1.0]]-Table4[[#This Row],[accuracy_weka]]</f>
-        <v>-2.0129403306995641E-2</v>
+        <v>3.1582716638816066</v>
       </c>
       <c r="N14" s="1">
         <f>Table4[[#This Row],[time_weka]]/Table4[[#This Row],[time_FRF_1.0]]</f>
-        <v>2.0132431298127806</v>
+        <v>1.5007575552609507</v>
       </c>
       <c r="O14" s="1">
         <f>Table4[[#This Row],[accuracy_FRF_1.0]]-Table4[[#This Row],[accuracy_FRF_0.99]]</f>
-        <v>-1.5815959741189545E-2</v>
+        <v>-1.2508952017187909</v>
       </c>
       <c r="P14" s="1">
         <f>Table4[[#This Row],[time_FRF_0.99]]/Table4[[#This Row],[time_FRF_1.0]]</f>
-        <v>1.8762727637677459</v>
+        <v>2.0411650117691624</v>
       </c>
       <c r="Q14" s="1"/>
       <c r="R14" s="1"/>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="B15">
-        <v>6598</v>
+        <v>2600</v>
       </c>
       <c r="C15">
         <f>Table4[[#This Row],[ numNumeric]]+Table4[[#This Row],[ numNominal]]</f>
-        <v>167</v>
+        <v>500</v>
       </c>
       <c r="D15">
-        <v>166</v>
+        <v>500</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F15">
         <v>2</v>
       </c>
       <c r="G15" s="1">
-        <v>99.57</v>
+        <v>67.400000000000006</v>
       </c>
       <c r="H15" s="1">
-        <v>20453.8</v>
+        <v>22888.2</v>
       </c>
       <c r="I15" s="1">
-        <v>99.518035768414606</v>
+        <v>66.915384615384596</v>
       </c>
       <c r="J15" s="1">
-        <v>20953.400000000001</v>
+        <v>41418.6</v>
       </c>
       <c r="K15" s="1">
-        <v>99.399818126705</v>
+        <v>67.707692307692298</v>
       </c>
       <c r="L15" s="1">
-        <v>12625.2</v>
+        <v>11412.8</v>
       </c>
       <c r="M15" s="1">
         <f>Table4[[#This Row],[accuracy_FRF_1.0]]-Table4[[#This Row],[accuracy_weka]]</f>
-        <v>-0.17018187329499312</v>
+        <v>0.30769230769229239</v>
       </c>
       <c r="N15" s="1">
         <f>Table4[[#This Row],[time_weka]]/Table4[[#This Row],[time_FRF_1.0]]</f>
-        <v>1.620077305706048</v>
+        <v>2.0054850693957662</v>
       </c>
       <c r="O15" s="1">
         <f>Table4[[#This Row],[accuracy_FRF_1.0]]-Table4[[#This Row],[accuracy_FRF_0.99]]</f>
-        <v>-0.11821764170960591</v>
+        <v>0.79230769230770193</v>
       </c>
       <c r="P15" s="1">
         <f>Table4[[#This Row],[time_FRF_0.99]]/Table4[[#This Row],[time_FRF_1.0]]</f>
-        <v>1.6596489560561416</v>
+        <v>3.6291357072760411</v>
       </c>
       <c r="Q15" s="1"/>
       <c r="R15" s="1"/>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="B16">
-        <v>2000</v>
+        <v>1080</v>
       </c>
       <c r="C16">
         <f>Table4[[#This Row],[ numNumeric]]+Table4[[#This Row],[ numNominal]]</f>
-        <v>216</v>
+        <v>856</v>
       </c>
       <c r="D16">
-        <v>216</v>
+        <v>856</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G16" s="1">
-        <v>96.88</v>
+        <v>94.037037037036995</v>
       </c>
       <c r="H16" s="1">
-        <v>8753.2000000000007</v>
+        <v>24922.2</v>
       </c>
       <c r="I16" s="1">
-        <v>96.77</v>
+        <v>94.037037037036995</v>
       </c>
       <c r="J16" s="1">
-        <v>11561.2</v>
+        <v>40365</v>
       </c>
       <c r="K16" s="1">
-        <v>96.869999999999905</v>
+        <v>95.5</v>
       </c>
       <c r="L16" s="1">
-        <v>5540.6</v>
+        <v>5943.8</v>
       </c>
       <c r="M16" s="1">
         <f>Table4[[#This Row],[accuracy_FRF_1.0]]-Table4[[#This Row],[accuracy_weka]]</f>
-        <v>-1.0000000000090381E-2</v>
+        <v>1.4629629629630045</v>
       </c>
       <c r="N16" s="1">
         <f>Table4[[#This Row],[time_weka]]/Table4[[#This Row],[time_FRF_1.0]]</f>
-        <v>1.5798288993971772</v>
+        <v>4.1929741915946028</v>
       </c>
       <c r="O16" s="1">
         <f>Table4[[#This Row],[accuracy_FRF_1.0]]-Table4[[#This Row],[accuracy_FRF_0.99]]</f>
-        <v>9.9999999999909051E-2</v>
+        <v>1.4629629629630045</v>
       </c>
       <c r="P16" s="1">
         <f>Table4[[#This Row],[time_FRF_0.99]]/Table4[[#This Row],[time_FRF_1.0]]</f>
-        <v>2.0866332166191386</v>
+        <v>6.7911100642686497</v>
       </c>
       <c r="Q16" s="1"/>
       <c r="R16" s="1"/>
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B17">
-        <v>14395</v>
+        <v>1545</v>
       </c>
       <c r="C17">
         <f>Table4[[#This Row],[ numNumeric]]+Table4[[#This Row],[ numNominal]]</f>
-        <v>216</v>
+        <v>10936</v>
       </c>
       <c r="D17">
-        <v>216</v>
+        <v>10936</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1739,112 +1754,112 @@
         <v>2</v>
       </c>
       <c r="G17" s="1">
-        <v>99.149704758596698</v>
+        <v>95.650485436893206</v>
       </c>
       <c r="H17" s="1">
-        <v>68198.8</v>
+        <v>27884.6</v>
       </c>
       <c r="I17" s="1">
-        <v>99.078846821813102</v>
+        <v>95.883495145631002</v>
       </c>
       <c r="J17" s="1">
-        <v>63704.2</v>
+        <v>305366</v>
       </c>
       <c r="K17" s="1">
-        <v>98.136853073984</v>
+        <v>95.495145631067899</v>
       </c>
       <c r="L17" s="1">
-        <v>38582.400000000001</v>
+        <v>21622.2</v>
       </c>
       <c r="M17" s="1">
         <f>Table4[[#This Row],[accuracy_FRF_1.0]]-Table4[[#This Row],[accuracy_weka]]</f>
-        <v>-1.0128516846126985</v>
+        <v>-0.1553398058253066</v>
       </c>
       <c r="N17" s="1">
         <f>Table4[[#This Row],[time_weka]]/Table4[[#This Row],[time_FRF_1.0]]</f>
-        <v>1.7676142489839928</v>
+        <v>1.2896282524442471</v>
       </c>
       <c r="O17" s="1">
         <f>Table4[[#This Row],[accuracy_FRF_1.0]]-Table4[[#This Row],[accuracy_FRF_0.99]]</f>
-        <v>-0.94199374782910184</v>
+        <v>-0.38834951456310307</v>
       </c>
       <c r="P17" s="1">
         <f>Table4[[#This Row],[time_FRF_0.99]]/Table4[[#This Row],[time_FRF_1.0]]</f>
-        <v>1.6511207182549554</v>
+        <v>14.12279971510762</v>
       </c>
       <c r="Q17" s="1"/>
       <c r="R17" s="1"/>
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>17</v>
-      </c>
-      <c r="B18">
-        <v>2600</v>
-      </c>
-      <c r="C18">
-        <f>Table4[[#This Row],[ numNumeric]]+Table4[[#This Row],[ numNominal]]</f>
-        <v>500</v>
-      </c>
-      <c r="D18">
-        <v>500</v>
-      </c>
-      <c r="E18">
-        <v>0</v>
-      </c>
-      <c r="F18">
-        <v>2</v>
-      </c>
-      <c r="G18" s="1">
-        <v>67.400000000000006</v>
-      </c>
-      <c r="H18" s="1">
-        <v>22888.2</v>
+      <c r="A18" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" s="2">
+        <v>6118</v>
+      </c>
+      <c r="C18" s="2">
+        <f>Table4[[#This Row],[ numNumeric]]+Table4[[#This Row],[ numNominal]]</f>
+        <v>51</v>
+      </c>
+      <c r="D18" s="2">
+        <v>51</v>
+      </c>
+      <c r="E18" s="2">
+        <v>0</v>
+      </c>
+      <c r="F18" s="2">
+        <v>6</v>
+      </c>
+      <c r="G18" s="3">
+        <v>63.151356652500802</v>
+      </c>
+      <c r="H18" s="3">
+        <v>32814</v>
       </c>
       <c r="I18" s="1">
-        <v>66.915384615384596</v>
+        <v>63.167701863353997</v>
       </c>
       <c r="J18" s="1">
-        <v>41418.6</v>
+        <v>26682.799999999999</v>
       </c>
       <c r="K18" s="1">
-        <v>67.707692307692298</v>
+        <v>63.206930369401697</v>
       </c>
       <c r="L18" s="1">
-        <v>11412.8</v>
-      </c>
-      <c r="M18" s="1">
-        <f>Table4[[#This Row],[accuracy_FRF_1.0]]-Table4[[#This Row],[accuracy_weka]]</f>
-        <v>0.30769230769229239</v>
+        <v>20680.8</v>
+      </c>
+      <c r="M18" s="3">
+        <f>Table4[[#This Row],[accuracy_FRF_1.0]]-Table4[[#This Row],[accuracy_weka]]</f>
+        <v>5.5573716900894965E-2</v>
       </c>
       <c r="N18" s="1">
         <f>Table4[[#This Row],[time_weka]]/Table4[[#This Row],[time_FRF_1.0]]</f>
-        <v>2.0054850693957662</v>
+        <v>1.5866891029360566</v>
       </c>
       <c r="O18" s="1">
         <f>Table4[[#This Row],[accuracy_FRF_1.0]]-Table4[[#This Row],[accuracy_FRF_0.99]]</f>
-        <v>0.79230769230770193</v>
-      </c>
-      <c r="P18" s="1">
-        <f>Table4[[#This Row],[time_FRF_0.99]]/Table4[[#This Row],[time_FRF_1.0]]</f>
-        <v>3.6291357072760411</v>
+        <v>3.9228506047699341E-2</v>
+      </c>
+      <c r="P18" s="3">
+        <f>Table4[[#This Row],[time_FRF_0.99]]/Table4[[#This Row],[time_FRF_1.0]]</f>
+        <v>1.2902208812038218</v>
       </c>
       <c r="Q18" s="1"/>
       <c r="R18" s="1"/>
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="B19">
-        <v>10299</v>
+        <v>6118</v>
       </c>
       <c r="C19">
         <f>Table4[[#This Row],[ numNumeric]]+Table4[[#This Row],[ numNominal]]</f>
-        <v>561</v>
+        <v>51</v>
       </c>
       <c r="D19">
-        <v>561</v>
+        <v>51</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1853,266 +1868,266 @@
         <v>6</v>
       </c>
       <c r="G19" s="1">
-        <v>98.2075929701912</v>
+        <v>63.151356652500802</v>
       </c>
       <c r="H19" s="1">
-        <v>97985.8</v>
+        <v>32863</v>
       </c>
       <c r="I19" s="1">
-        <v>98.178463928536701</v>
+        <v>63.167701863353997</v>
       </c>
       <c r="J19" s="1">
-        <v>183516.2</v>
+        <v>26586.799999999999</v>
       </c>
       <c r="K19" s="1">
-        <v>98.193999417419107</v>
+        <v>63.206930369401697</v>
       </c>
       <c r="L19" s="1">
-        <v>49482.2</v>
+        <v>21056.799999999999</v>
       </c>
       <c r="M19" s="1">
         <f>Table4[[#This Row],[accuracy_FRF_1.0]]-Table4[[#This Row],[accuracy_weka]]</f>
-        <v>-1.3593552772093176E-2</v>
+        <v>5.5573716900894965E-2</v>
       </c>
       <c r="N19" s="1">
         <f>Table4[[#This Row],[time_weka]]/Table4[[#This Row],[time_FRF_1.0]]</f>
-        <v>1.9802231913698261</v>
+        <v>1.5606834846700355</v>
       </c>
       <c r="O19" s="1">
         <f>Table4[[#This Row],[accuracy_FRF_1.0]]-Table4[[#This Row],[accuracy_FRF_0.99]]</f>
-        <v>1.5535488882406412E-2</v>
+        <v>3.9228506047699341E-2</v>
       </c>
       <c r="P19" s="1">
         <f>Table4[[#This Row],[time_FRF_0.99]]/Table4[[#This Row],[time_FRF_1.0]]</f>
-        <v>3.7087316247054503</v>
+        <v>1.2626230006458721</v>
       </c>
       <c r="Q19" s="1"/>
       <c r="R19" s="1"/>
     </row>
     <row r="20" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>18</v>
-      </c>
-      <c r="B20">
-        <v>2000</v>
-      </c>
-      <c r="C20">
-        <f>Table4[[#This Row],[ numNumeric]]+Table4[[#This Row],[ numNominal]]</f>
-        <v>649</v>
-      </c>
-      <c r="D20">
-        <v>649</v>
-      </c>
-      <c r="E20">
-        <v>0</v>
-      </c>
-      <c r="F20">
-        <v>10</v>
-      </c>
-      <c r="G20" s="1">
-        <v>98.46</v>
-      </c>
-      <c r="H20" s="1">
-        <v>12816</v>
+      <c r="A20" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B20" s="2">
+        <v>1545</v>
+      </c>
+      <c r="C20" s="2">
+        <f>Table4[[#This Row],[ numNumeric]]+Table4[[#This Row],[ numNominal]]</f>
+        <v>10936</v>
+      </c>
+      <c r="D20" s="2">
+        <v>10936</v>
+      </c>
+      <c r="E20" s="2">
+        <v>0</v>
+      </c>
+      <c r="F20" s="2">
+        <v>2</v>
+      </c>
+      <c r="G20" s="3">
+        <v>95.754045307443306</v>
+      </c>
+      <c r="H20" s="3">
+        <v>35464.800000000003</v>
       </c>
       <c r="I20" s="1">
-        <v>98.51</v>
+        <v>95.857605177993506</v>
       </c>
       <c r="J20" s="1">
-        <v>29299.4</v>
+        <v>357991.6</v>
       </c>
       <c r="K20" s="1">
-        <v>98.52</v>
+        <v>95.637540453074394</v>
       </c>
       <c r="L20" s="1">
-        <v>6997</v>
-      </c>
-      <c r="M20" s="1">
-        <f>Table4[[#This Row],[accuracy_FRF_1.0]]-Table4[[#This Row],[accuracy_weka]]</f>
-        <v>6.0000000000002274E-2</v>
+        <v>22969.200000000001</v>
+      </c>
+      <c r="M20" s="3">
+        <f>Table4[[#This Row],[accuracy_FRF_1.0]]-Table4[[#This Row],[accuracy_weka]]</f>
+        <v>-0.11650485436891245</v>
       </c>
       <c r="N20" s="1">
         <f>Table4[[#This Row],[time_weka]]/Table4[[#This Row],[time_FRF_1.0]]</f>
-        <v>1.8316421323424326</v>
+        <v>1.5440154641868242</v>
       </c>
       <c r="O20" s="1">
         <f>Table4[[#This Row],[accuracy_FRF_1.0]]-Table4[[#This Row],[accuracy_FRF_0.99]]</f>
-        <v>9.9999999999909051E-3</v>
-      </c>
-      <c r="P20" s="1">
-        <f>Table4[[#This Row],[time_FRF_0.99]]/Table4[[#This Row],[time_FRF_1.0]]</f>
-        <v>4.1874231813634415</v>
+        <v>-0.22006472491911211</v>
+      </c>
+      <c r="P20" s="3">
+        <f>Table4[[#This Row],[time_FRF_0.99]]/Table4[[#This Row],[time_FRF_1.0]]</f>
+        <v>15.585723490587394</v>
       </c>
       <c r="Q20" s="1"/>
       <c r="R20" s="1"/>
     </row>
     <row r="21" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="B21">
-        <v>1080</v>
+        <v>4062</v>
       </c>
       <c r="C21">
         <f>Table4[[#This Row],[ numNumeric]]+Table4[[#This Row],[ numNominal]]</f>
-        <v>856</v>
+        <v>60</v>
       </c>
       <c r="D21">
-        <v>856</v>
+        <v>0</v>
       </c>
       <c r="E21">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="F21">
         <v>9</v>
       </c>
       <c r="G21" s="1">
-        <v>94.037037037036995</v>
+        <v>86.0413589364844</v>
       </c>
       <c r="H21" s="1">
-        <v>24922.2</v>
+        <v>55359.6</v>
       </c>
       <c r="I21" s="1">
-        <v>94.037037037036995</v>
+        <v>85.977351058591793</v>
       </c>
       <c r="J21" s="1">
-        <v>40365</v>
+        <v>121163.2</v>
       </c>
       <c r="K21" s="1">
-        <v>95.5</v>
+        <v>86.248153618906898</v>
       </c>
       <c r="L21" s="1">
-        <v>5943.8</v>
+        <v>69350.399999999994</v>
       </c>
       <c r="M21" s="1">
         <f>Table4[[#This Row],[accuracy_FRF_1.0]]-Table4[[#This Row],[accuracy_weka]]</f>
-        <v>1.4629629629630045</v>
+        <v>0.20679468242249754</v>
       </c>
       <c r="N21" s="1">
         <f>Table4[[#This Row],[time_weka]]/Table4[[#This Row],[time_FRF_1.0]]</f>
-        <v>4.1929741915946028</v>
+        <v>0.79825927464008861</v>
       </c>
       <c r="O21" s="1">
         <f>Table4[[#This Row],[accuracy_FRF_1.0]]-Table4[[#This Row],[accuracy_FRF_0.99]]</f>
-        <v>1.4629629629630045</v>
+        <v>0.2708025603151043</v>
       </c>
       <c r="P21" s="1">
         <f>Table4[[#This Row],[time_FRF_0.99]]/Table4[[#This Row],[time_FRF_1.0]]</f>
-        <v>6.7911100642686497</v>
+        <v>1.7471160944998156</v>
       </c>
       <c r="Q21" s="1"/>
       <c r="R21" s="1"/>
     </row>
     <row r="22" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B22">
-        <v>1600</v>
+        <v>3331</v>
       </c>
       <c r="C22">
         <f>Table4[[#This Row],[ numNumeric]]+Table4[[#This Row],[ numNominal]]</f>
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="F22">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="G22" s="1">
-        <v>49.087499999999999</v>
+        <v>76.355448814169904</v>
       </c>
       <c r="H22" s="1">
-        <v>13325</v>
+        <v>63978.8</v>
       </c>
       <c r="I22" s="1">
-        <v>50.825000000000003</v>
+        <v>75.965175622936002</v>
       </c>
       <c r="J22" s="1">
-        <v>48221.8</v>
+        <v>154710.6</v>
       </c>
       <c r="K22" s="1">
-        <v>50.35</v>
+        <v>76.217352146502506</v>
       </c>
       <c r="L22" s="1">
-        <v>2931.4</v>
+        <v>107751</v>
       </c>
       <c r="M22" s="1">
         <f>Table4[[#This Row],[accuracy_FRF_1.0]]-Table4[[#This Row],[accuracy_weka]]</f>
-        <v>1.2625000000000028</v>
+        <v>-0.13809666766739781</v>
       </c>
       <c r="N22" s="1">
         <f>Table4[[#This Row],[time_weka]]/Table4[[#This Row],[time_FRF_1.0]]</f>
-        <v>4.5456096063314453</v>
+        <v>0.59376525507883915</v>
       </c>
       <c r="O22" s="1">
         <f>Table4[[#This Row],[accuracy_FRF_1.0]]-Table4[[#This Row],[accuracy_FRF_0.99]]</f>
-        <v>-0.47500000000000142</v>
+        <v>0.25217652356650433</v>
       </c>
       <c r="P22" s="1">
         <f>Table4[[#This Row],[time_FRF_0.99]]/Table4[[#This Row],[time_FRF_1.0]]</f>
-        <v>16.450092106160881</v>
+        <v>1.4358159089010776</v>
       </c>
       <c r="Q22" s="1"/>
       <c r="R22" s="1"/>
     </row>
     <row r="23" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="B23">
-        <v>571</v>
+        <v>14395</v>
       </c>
       <c r="C23">
         <f>Table4[[#This Row],[ numNumeric]]+Table4[[#This Row],[ numNominal]]</f>
-        <v>1300</v>
+        <v>216</v>
       </c>
       <c r="D23">
-        <v>1300</v>
+        <v>216</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="G23" s="1">
-        <v>87.355516637478104</v>
+        <v>99.149704758596698</v>
       </c>
       <c r="H23" s="1">
-        <v>10915.4</v>
+        <v>68198.8</v>
       </c>
       <c r="I23" s="1">
-        <v>86.865148861646205</v>
+        <v>99.078846821813102</v>
       </c>
       <c r="J23" s="1">
-        <v>18379.2</v>
+        <v>63704.2</v>
       </c>
       <c r="K23" s="1">
-        <v>87.075306479859805</v>
+        <v>98.136853073984</v>
       </c>
       <c r="L23" s="1">
-        <v>2968.8</v>
+        <v>38582.400000000001</v>
       </c>
       <c r="M23" s="1">
         <f>Table4[[#This Row],[accuracy_FRF_1.0]]-Table4[[#This Row],[accuracy_weka]]</f>
-        <v>-0.28021015761829915</v>
+        <v>-1.0128516846126985</v>
       </c>
       <c r="N23" s="1">
         <f>Table4[[#This Row],[time_weka]]/Table4[[#This Row],[time_FRF_1.0]]</f>
-        <v>3.6767043923470761</v>
+        <v>1.7676142489839928</v>
       </c>
       <c r="O23" s="1">
         <f>Table4[[#This Row],[accuracy_FRF_1.0]]-Table4[[#This Row],[accuracy_FRF_0.99]]</f>
-        <v>0.21015761821360002</v>
+        <v>-0.94199374782910184</v>
       </c>
       <c r="P23" s="1">
         <f>Table4[[#This Row],[time_FRF_0.99]]/Table4[[#This Row],[time_FRF_1.0]]</f>
-        <v>6.190784155214228</v>
+        <v>1.6511207182549554</v>
       </c>
       <c r="Q23" s="1"/>
       <c r="R23" s="1"/>
@@ -2176,302 +2191,302 @@
     </row>
     <row r="25" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
+        <v>14</v>
+      </c>
+      <c r="B25">
+        <v>13910</v>
+      </c>
+      <c r="C25">
+        <f>Table4[[#This Row],[ numNumeric]]+Table4[[#This Row],[ numNominal]]</f>
+        <v>129</v>
+      </c>
+      <c r="D25">
+        <v>129</v>
+      </c>
+      <c r="E25">
+        <v>0</v>
+      </c>
+      <c r="F25">
         <v>6</v>
       </c>
-      <c r="B25">
-        <v>4900</v>
-      </c>
-      <c r="C25">
-        <f>Table4[[#This Row],[ numNumeric]]+Table4[[#This Row],[ numNominal]]</f>
-        <v>5000</v>
-      </c>
-      <c r="D25">
-        <v>5000</v>
-      </c>
-      <c r="E25">
-        <v>0</v>
-      </c>
-      <c r="F25">
-        <v>2</v>
-      </c>
       <c r="G25" s="1">
-        <v>96.546938775510199</v>
+        <v>99.489575844716001</v>
       </c>
       <c r="H25" s="1">
-        <v>113693.4</v>
+        <v>88263.8</v>
       </c>
       <c r="I25" s="1">
-        <v>96.493877551020404</v>
+        <v>99.485262401150194</v>
       </c>
       <c r="J25" s="1">
-        <v>776471.6</v>
+        <v>82258.8</v>
       </c>
       <c r="K25" s="1">
-        <v>96.269387755102002</v>
+        <v>99.469446441409005</v>
       </c>
       <c r="L25" s="1">
-        <v>42225.599999999999</v>
+        <v>43841.599999999999</v>
       </c>
       <c r="M25" s="1">
         <f>Table4[[#This Row],[accuracy_FRF_1.0]]-Table4[[#This Row],[accuracy_weka]]</f>
-        <v>-0.27755102040819679</v>
+        <v>-2.0129403306995641E-2</v>
       </c>
       <c r="N25" s="1">
         <f>Table4[[#This Row],[time_weka]]/Table4[[#This Row],[time_FRF_1.0]]</f>
-        <v>2.6925230192110945</v>
+        <v>2.0132431298127806</v>
       </c>
       <c r="O25" s="1">
         <f>Table4[[#This Row],[accuracy_FRF_1.0]]-Table4[[#This Row],[accuracy_FRF_0.99]]</f>
-        <v>-0.22448979591840157</v>
+        <v>-1.5815959741189545E-2</v>
       </c>
       <c r="P25" s="1">
         <f>Table4[[#This Row],[time_FRF_0.99]]/Table4[[#This Row],[time_FRF_1.0]]</f>
-        <v>18.388645750445228</v>
+        <v>1.8762727637677459</v>
       </c>
       <c r="Q25" s="1"/>
       <c r="R25" s="1"/>
     </row>
     <row r="26" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B26">
-        <v>16772</v>
+        <v>13910</v>
       </c>
       <c r="C26">
         <f>Table4[[#This Row],[ numNumeric]]+Table4[[#This Row],[ numNominal]]</f>
-        <v>5655</v>
+        <v>128</v>
       </c>
       <c r="D26">
-        <v>5655</v>
+        <v>128</v>
       </c>
       <c r="E26">
         <v>0</v>
       </c>
       <c r="F26">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="G26" s="1">
-        <v>99.152158359170002</v>
+        <v>99.479511143062496</v>
       </c>
       <c r="H26" s="1">
-        <v>307338.59999999998</v>
+        <v>89345.4</v>
       </c>
       <c r="I26" s="1">
-        <v>99.217743858812298</v>
+        <v>99.472322070452904</v>
       </c>
       <c r="J26" s="1">
-        <v>1748540.4</v>
+        <v>82852</v>
       </c>
       <c r="K26" s="1">
-        <v>99.212974004292803</v>
+        <v>99.445003594536303</v>
       </c>
       <c r="L26" s="1">
-        <v>171363.6</v>
+        <v>44972.800000000003</v>
       </c>
       <c r="M26" s="1">
         <f>Table4[[#This Row],[accuracy_FRF_1.0]]-Table4[[#This Row],[accuracy_weka]]</f>
-        <v>6.0815645122801243E-2</v>
+        <v>-3.4507548526192977E-2</v>
       </c>
       <c r="N26" s="1">
         <f>Table4[[#This Row],[time_weka]]/Table4[[#This Row],[time_FRF_1.0]]</f>
-        <v>1.793488232039943</v>
+        <v>1.9866541554005974</v>
       </c>
       <c r="O26" s="1">
         <f>Table4[[#This Row],[accuracy_FRF_1.0]]-Table4[[#This Row],[accuracy_FRF_0.99]]</f>
-        <v>-4.7698545194947428E-3</v>
+        <v>-2.7318475916601415E-2</v>
       </c>
       <c r="P26" s="1">
         <f>Table4[[#This Row],[time_FRF_0.99]]/Table4[[#This Row],[time_FRF_1.0]]</f>
-        <v>10.203686197068688</v>
+        <v>1.8422691048811726</v>
       </c>
       <c r="Q26" s="1"/>
       <c r="R26" s="1"/>
     </row>
     <row r="27" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="B27">
-        <v>200</v>
+        <v>10299</v>
       </c>
       <c r="C27">
         <f>Table4[[#This Row],[ numNumeric]]+Table4[[#This Row],[ numNominal]]</f>
-        <v>10000</v>
+        <v>561</v>
       </c>
       <c r="D27">
-        <v>10000</v>
+        <v>561</v>
       </c>
       <c r="E27">
         <v>0</v>
       </c>
       <c r="F27">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="G27" s="1">
-        <v>83.7</v>
+        <v>98.2075929701912</v>
       </c>
       <c r="H27" s="1">
-        <v>9490.7999999999993</v>
+        <v>97985.8</v>
       </c>
       <c r="I27" s="1">
-        <v>82.7</v>
+        <v>98.178463928536701</v>
       </c>
       <c r="J27" s="1">
-        <v>34131.4</v>
+        <v>183516.2</v>
       </c>
       <c r="K27" s="1">
-        <v>81.099999999999994</v>
+        <v>98.193999417419107</v>
       </c>
       <c r="L27" s="1">
-        <v>1753</v>
+        <v>49482.2</v>
       </c>
       <c r="M27" s="1">
         <f>Table4[[#This Row],[accuracy_FRF_1.0]]-Table4[[#This Row],[accuracy_weka]]</f>
-        <v>-2.6000000000000085</v>
+        <v>-1.3593552772093176E-2</v>
       </c>
       <c r="N27" s="1">
         <f>Table4[[#This Row],[time_weka]]/Table4[[#This Row],[time_FRF_1.0]]</f>
-        <v>5.4140330861380486</v>
+        <v>1.9802231913698261</v>
       </c>
       <c r="O27" s="1">
         <f>Table4[[#This Row],[accuracy_FRF_1.0]]-Table4[[#This Row],[accuracy_FRF_0.99]]</f>
-        <v>-1.6000000000000085</v>
+        <v>1.5535488882406412E-2</v>
       </c>
       <c r="P27" s="1">
         <f>Table4[[#This Row],[time_FRF_0.99]]/Table4[[#This Row],[time_FRF_1.0]]</f>
-        <v>19.47027952082145</v>
+        <v>3.7087316247054503</v>
       </c>
       <c r="Q27" s="1"/>
       <c r="R27" s="1"/>
     </row>
     <row r="28" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>13</v>
-      </c>
-      <c r="B28">
-        <v>1500</v>
-      </c>
-      <c r="C28">
-        <f>Table4[[#This Row],[ numNumeric]]+Table4[[#This Row],[ numNominal]]</f>
-        <v>10000</v>
-      </c>
-      <c r="D28">
-        <v>10000</v>
-      </c>
-      <c r="E28">
-        <v>0</v>
-      </c>
-      <c r="F28">
-        <v>50</v>
-      </c>
-      <c r="G28" s="1">
-        <v>53.76</v>
-      </c>
-      <c r="H28" s="1">
-        <v>246351.4</v>
+      <c r="A28" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B28" s="2">
+        <v>45211</v>
+      </c>
+      <c r="C28" s="2">
+        <f>Table4[[#This Row],[ numNumeric]]+Table4[[#This Row],[ numNominal]]</f>
+        <v>16</v>
+      </c>
+      <c r="D28" s="2">
+        <v>7</v>
+      </c>
+      <c r="E28" s="2">
+        <v>9</v>
+      </c>
+      <c r="F28" s="2">
+        <v>2</v>
+      </c>
+      <c r="G28" s="3">
+        <v>90.539028112627406</v>
+      </c>
+      <c r="H28" s="3">
+        <v>98164.6</v>
       </c>
       <c r="I28" s="1">
-        <v>52.32</v>
+        <v>90.082059675742599</v>
       </c>
       <c r="J28" s="1">
-        <v>854274.8</v>
+        <v>98267</v>
       </c>
       <c r="K28" s="1">
-        <v>66.533333333333303</v>
+        <v>90.569109287562696</v>
       </c>
       <c r="L28" s="1">
-        <v>27120.400000000001</v>
-      </c>
-      <c r="M28" s="1">
-        <f>Table4[[#This Row],[accuracy_FRF_1.0]]-Table4[[#This Row],[accuracy_weka]]</f>
-        <v>12.773333333333305</v>
+        <v>81639.199999999997</v>
+      </c>
+      <c r="M28" s="3">
+        <f>Table4[[#This Row],[accuracy_FRF_1.0]]-Table4[[#This Row],[accuracy_weka]]</f>
+        <v>3.0081174935290278E-2</v>
       </c>
       <c r="N28" s="1">
         <f>Table4[[#This Row],[time_weka]]/Table4[[#This Row],[time_FRF_1.0]]</f>
-        <v>9.0836197106237364</v>
+        <v>1.2024199159227431</v>
       </c>
       <c r="O28" s="1">
         <f>Table4[[#This Row],[accuracy_FRF_1.0]]-Table4[[#This Row],[accuracy_FRF_0.99]]</f>
-        <v>14.213333333333303</v>
-      </c>
-      <c r="P28" s="1">
-        <f>Table4[[#This Row],[time_FRF_0.99]]/Table4[[#This Row],[time_FRF_1.0]]</f>
-        <v>31.499343667497531</v>
+        <v>0.48704961182009754</v>
+      </c>
+      <c r="P28" s="3">
+        <f>Table4[[#This Row],[time_FRF_0.99]]/Table4[[#This Row],[time_FRF_1.0]]</f>
+        <v>1.2036742153279307</v>
       </c>
       <c r="Q28" s="1"/>
       <c r="R28" s="1"/>
     </row>
     <row r="29" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="B29">
-        <v>1545</v>
+        <v>45211</v>
       </c>
       <c r="C29">
         <f>Table4[[#This Row],[ numNumeric]]+Table4[[#This Row],[ numNominal]]</f>
-        <v>10936</v>
+        <v>16</v>
       </c>
       <c r="D29">
-        <v>10936</v>
+        <v>7</v>
       </c>
       <c r="E29">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="F29">
         <v>2</v>
       </c>
       <c r="G29" s="1">
-        <v>95.650485436893206</v>
+        <v>90.539028112627406</v>
       </c>
       <c r="H29" s="1">
-        <v>27884.6</v>
+        <v>99039.4</v>
       </c>
       <c r="I29" s="1">
-        <v>95.883495145631002</v>
+        <v>90.082059675742599</v>
       </c>
       <c r="J29" s="1">
-        <v>305366</v>
+        <v>98475</v>
       </c>
       <c r="K29" s="1">
-        <v>95.495145631067899</v>
+        <v>90.569109287562696</v>
       </c>
       <c r="L29" s="1">
-        <v>21622.2</v>
+        <v>83627.600000000006</v>
       </c>
       <c r="M29" s="1">
         <f>Table4[[#This Row],[accuracy_FRF_1.0]]-Table4[[#This Row],[accuracy_weka]]</f>
-        <v>-0.1553398058253066</v>
+        <v>3.0081174935290278E-2</v>
       </c>
       <c r="N29" s="1">
         <f>Table4[[#This Row],[time_weka]]/Table4[[#This Row],[time_FRF_1.0]]</f>
-        <v>1.2896282524442471</v>
+        <v>1.1842908322132883</v>
       </c>
       <c r="O29" s="1">
         <f>Table4[[#This Row],[accuracy_FRF_1.0]]-Table4[[#This Row],[accuracy_FRF_0.99]]</f>
-        <v>-0.38834951456310307</v>
+        <v>0.48704961182009754</v>
       </c>
       <c r="P29" s="1">
         <f>Table4[[#This Row],[time_FRF_0.99]]/Table4[[#This Row],[time_FRF_1.0]]</f>
-        <v>14.12279971510762</v>
+        <v>1.1775418641692454</v>
       </c>
       <c r="Q29" s="1"/>
       <c r="R29" s="1"/>
     </row>
     <row r="30" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B30">
-        <v>805</v>
+        <v>4900</v>
       </c>
       <c r="C30">
         <f>Table4[[#This Row],[ numNumeric]]+Table4[[#This Row],[ numNominal]]</f>
-        <v>100000</v>
+        <v>5000</v>
       </c>
       <c r="D30">
-        <v>100000</v>
+        <v>5000</v>
       </c>
       <c r="E30">
         <v>0</v>
@@ -2480,41 +2495,416 @@
         <v>2</v>
       </c>
       <c r="G30" s="1">
-        <v>89.167701863353997</v>
+        <v>96.546938775510199</v>
       </c>
       <c r="H30" s="1">
-        <v>497085.8</v>
+        <v>113693.4</v>
       </c>
       <c r="I30" s="1">
-        <v>89.018633540372605</v>
+        <v>96.493877551020404</v>
       </c>
       <c r="J30" s="1">
-        <v>5188896.8</v>
+        <v>776471.6</v>
       </c>
       <c r="K30" s="1">
-        <v>89.118012422360195</v>
+        <v>96.269387755102002</v>
       </c>
       <c r="L30" s="1">
-        <v>92907.8</v>
+        <v>42225.599999999999</v>
       </c>
       <c r="M30" s="1">
         <f>Table4[[#This Row],[accuracy_FRF_1.0]]-Table4[[#This Row],[accuracy_weka]]</f>
-        <v>-4.9689440993802236E-2</v>
+        <v>-0.27755102040819679</v>
       </c>
       <c r="N30" s="1">
         <f>Table4[[#This Row],[time_weka]]/Table4[[#This Row],[time_FRF_1.0]]</f>
-        <v>5.3503128908444717</v>
+        <v>2.6925230192110945</v>
       </c>
       <c r="O30" s="1">
         <f>Table4[[#This Row],[accuracy_FRF_1.0]]-Table4[[#This Row],[accuracy_FRF_0.99]]</f>
-        <v>9.9378881987590262E-2</v>
+        <v>-0.22448979591840157</v>
       </c>
       <c r="P30" s="1">
         <f>Table4[[#This Row],[time_FRF_0.99]]/Table4[[#This Row],[time_FRF_1.0]]</f>
-        <v>55.849958776335242</v>
+        <v>18.388645750445228</v>
       </c>
       <c r="Q30" s="1"/>
       <c r="R30" s="1"/>
+    </row>
+    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>19</v>
+      </c>
+      <c r="B31">
+        <v>34465</v>
+      </c>
+      <c r="C31">
+        <f>Table4[[#This Row],[ numNumeric]]+Table4[[#This Row],[ numNominal]]</f>
+        <v>118</v>
+      </c>
+      <c r="D31">
+        <v>89</v>
+      </c>
+      <c r="E31">
+        <v>29</v>
+      </c>
+      <c r="F31">
+        <v>2</v>
+      </c>
+      <c r="G31" s="1">
+        <v>97.032931959959299</v>
+      </c>
+      <c r="H31" s="1">
+        <v>179149.4</v>
+      </c>
+      <c r="I31" s="1">
+        <v>97.048600029014906</v>
+      </c>
+      <c r="J31" s="1">
+        <v>151799.4</v>
+      </c>
+      <c r="K31" s="1">
+        <v>97.067169592339994</v>
+      </c>
+      <c r="L31" s="1">
+        <v>105399.2</v>
+      </c>
+      <c r="M31" s="1">
+        <f>Table4[[#This Row],[accuracy_FRF_1.0]]-Table4[[#This Row],[accuracy_weka]]</f>
+        <v>3.4237632380694549E-2</v>
+      </c>
+      <c r="N31" s="1">
+        <f>Table4[[#This Row],[time_weka]]/Table4[[#This Row],[time_FRF_1.0]]</f>
+        <v>1.6997225785394956</v>
+      </c>
+      <c r="O31" s="1">
+        <f>Table4[[#This Row],[accuracy_FRF_1.0]]-Table4[[#This Row],[accuracy_FRF_0.99]]</f>
+        <v>1.8569563325087302E-2</v>
+      </c>
+      <c r="P31" s="1">
+        <f>Table4[[#This Row],[time_FRF_0.99]]/Table4[[#This Row],[time_FRF_1.0]]</f>
+        <v>1.4402329429445384</v>
+      </c>
+    </row>
+    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>13</v>
+      </c>
+      <c r="B32">
+        <v>1500</v>
+      </c>
+      <c r="C32">
+        <f>Table4[[#This Row],[ numNumeric]]+Table4[[#This Row],[ numNominal]]</f>
+        <v>10000</v>
+      </c>
+      <c r="D32">
+        <v>10000</v>
+      </c>
+      <c r="E32">
+        <v>0</v>
+      </c>
+      <c r="F32">
+        <v>50</v>
+      </c>
+      <c r="G32" s="1">
+        <v>53.76</v>
+      </c>
+      <c r="H32" s="1">
+        <v>246351.4</v>
+      </c>
+      <c r="I32" s="1">
+        <v>52.32</v>
+      </c>
+      <c r="J32" s="1">
+        <v>854274.8</v>
+      </c>
+      <c r="K32" s="1">
+        <v>66.533333333333303</v>
+      </c>
+      <c r="L32" s="1">
+        <v>27120.400000000001</v>
+      </c>
+      <c r="M32" s="1">
+        <f>Table4[[#This Row],[accuracy_FRF_1.0]]-Table4[[#This Row],[accuracy_weka]]</f>
+        <v>12.773333333333305</v>
+      </c>
+      <c r="N32" s="1">
+        <f>Table4[[#This Row],[time_weka]]/Table4[[#This Row],[time_FRF_1.0]]</f>
+        <v>9.0836197106237364</v>
+      </c>
+      <c r="O32" s="1">
+        <f>Table4[[#This Row],[accuracy_FRF_1.0]]-Table4[[#This Row],[accuracy_FRF_0.99]]</f>
+        <v>14.213333333333303</v>
+      </c>
+      <c r="P32" s="1">
+        <f>Table4[[#This Row],[time_FRF_0.99]]/Table4[[#This Row],[time_FRF_1.0]]</f>
+        <v>31.499343667497531</v>
+      </c>
+    </row>
+    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>12</v>
+      </c>
+      <c r="B33">
+        <v>16772</v>
+      </c>
+      <c r="C33">
+        <f>Table4[[#This Row],[ numNumeric]]+Table4[[#This Row],[ numNominal]]</f>
+        <v>5655</v>
+      </c>
+      <c r="D33">
+        <v>5655</v>
+      </c>
+      <c r="E33">
+        <v>0</v>
+      </c>
+      <c r="F33">
+        <v>2</v>
+      </c>
+      <c r="G33" s="1">
+        <v>99.152158359170002</v>
+      </c>
+      <c r="H33" s="1">
+        <v>307338.59999999998</v>
+      </c>
+      <c r="I33" s="1">
+        <v>99.217743858812298</v>
+      </c>
+      <c r="J33" s="1">
+        <v>1748540.4</v>
+      </c>
+      <c r="K33" s="1">
+        <v>99.212974004292803</v>
+      </c>
+      <c r="L33" s="1">
+        <v>171363.6</v>
+      </c>
+      <c r="M33" s="1">
+        <f>Table4[[#This Row],[accuracy_FRF_1.0]]-Table4[[#This Row],[accuracy_weka]]</f>
+        <v>6.0815645122801243E-2</v>
+      </c>
+      <c r="N33" s="1">
+        <f>Table4[[#This Row],[time_weka]]/Table4[[#This Row],[time_FRF_1.0]]</f>
+        <v>1.793488232039943</v>
+      </c>
+      <c r="O33" s="1">
+        <f>Table4[[#This Row],[accuracy_FRF_1.0]]-Table4[[#This Row],[accuracy_FRF_0.99]]</f>
+        <v>-4.7698545194947428E-3</v>
+      </c>
+      <c r="P33" s="1">
+        <f>Table4[[#This Row],[time_FRF_0.99]]/Table4[[#This Row],[time_FRF_1.0]]</f>
+        <v>10.203686197068688</v>
+      </c>
+    </row>
+    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A34" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B34" s="2">
+        <v>245057</v>
+      </c>
+      <c r="C34" s="2">
+        <f>Table4[[#This Row],[ numNumeric]]+Table4[[#This Row],[ numNominal]]</f>
+        <v>3</v>
+      </c>
+      <c r="D34" s="2">
+        <v>3</v>
+      </c>
+      <c r="E34" s="2">
+        <v>0</v>
+      </c>
+      <c r="F34" s="2">
+        <v>2</v>
+      </c>
+      <c r="G34" s="3">
+        <v>99.959927690292403</v>
+      </c>
+      <c r="H34" s="3">
+        <v>460661.2</v>
+      </c>
+      <c r="I34" s="1">
+        <v>99.947685640483598</v>
+      </c>
+      <c r="J34" s="1">
+        <v>197358.4</v>
+      </c>
+      <c r="K34" s="1">
+        <v>99.884271822473906</v>
+      </c>
+      <c r="L34" s="1">
+        <v>178987.4</v>
+      </c>
+      <c r="M34" s="3">
+        <f>Table4[[#This Row],[accuracy_FRF_1.0]]-Table4[[#This Row],[accuracy_weka]]</f>
+        <v>-7.5655867818497313E-2</v>
+      </c>
+      <c r="N34" s="1">
+        <f>Table4[[#This Row],[time_weka]]/Table4[[#This Row],[time_FRF_1.0]]</f>
+        <v>2.5737074229806121</v>
+      </c>
+      <c r="O34" s="1">
+        <f>Table4[[#This Row],[accuracy_FRF_1.0]]-Table4[[#This Row],[accuracy_FRF_0.99]]</f>
+        <v>-6.3413818009692591E-2</v>
+      </c>
+      <c r="P34" s="3">
+        <f>Table4[[#This Row],[time_FRF_0.99]]/Table4[[#This Row],[time_FRF_1.0]]</f>
+        <v>1.1026385097498483</v>
+      </c>
+    </row>
+    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>5</v>
+      </c>
+      <c r="B35">
+        <v>805</v>
+      </c>
+      <c r="C35">
+        <f>Table4[[#This Row],[ numNumeric]]+Table4[[#This Row],[ numNominal]]</f>
+        <v>100000</v>
+      </c>
+      <c r="D35">
+        <v>100000</v>
+      </c>
+      <c r="E35">
+        <v>0</v>
+      </c>
+      <c r="F35">
+        <v>2</v>
+      </c>
+      <c r="G35" s="1">
+        <v>89.167701863353997</v>
+      </c>
+      <c r="H35" s="1">
+        <v>497085.8</v>
+      </c>
+      <c r="I35" s="1">
+        <v>89.018633540372605</v>
+      </c>
+      <c r="J35" s="1">
+        <v>5188896.8</v>
+      </c>
+      <c r="K35" s="1">
+        <v>89.118012422360195</v>
+      </c>
+      <c r="L35" s="1">
+        <v>92907.8</v>
+      </c>
+      <c r="M35" s="1">
+        <f>Table4[[#This Row],[accuracy_FRF_1.0]]-Table4[[#This Row],[accuracy_weka]]</f>
+        <v>-4.9689440993802236E-2</v>
+      </c>
+      <c r="N35" s="1">
+        <f>Table4[[#This Row],[time_weka]]/Table4[[#This Row],[time_FRF_1.0]]</f>
+        <v>5.3503128908444717</v>
+      </c>
+      <c r="O35" s="1">
+        <f>Table4[[#This Row],[accuracy_FRF_1.0]]-Table4[[#This Row],[accuracy_FRF_0.99]]</f>
+        <v>9.9378881987590262E-2</v>
+      </c>
+      <c r="P35" s="1">
+        <f>Table4[[#This Row],[time_FRF_0.99]]/Table4[[#This Row],[time_FRF_1.0]]</f>
+        <v>55.849958776335242</v>
+      </c>
+    </row>
+    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A36" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B36" s="2">
+        <v>3204</v>
+      </c>
+      <c r="C36" s="2">
+        <f>Table4[[#This Row],[ numNumeric]]+Table4[[#This Row],[ numNominal]]</f>
+        <v>13195</v>
+      </c>
+      <c r="D36" s="2">
+        <v>13195</v>
+      </c>
+      <c r="E36" s="2">
+        <v>0</v>
+      </c>
+      <c r="F36" s="2">
+        <v>6</v>
+      </c>
+      <c r="G36" s="3">
+        <v>83.264669163545506</v>
+      </c>
+      <c r="H36" s="3">
+        <v>817699</v>
+      </c>
+      <c r="I36" s="1">
+        <v>83.43</v>
+      </c>
+      <c r="J36" s="1">
+        <v>4000157</v>
+      </c>
+      <c r="K36" s="1">
+        <v>72.340823970037405</v>
+      </c>
+      <c r="L36" s="1">
+        <v>114481</v>
+      </c>
+      <c r="M36" s="3">
+        <f>Table4[[#This Row],[accuracy_FRF_1.0]]-Table4[[#This Row],[accuracy_weka]]</f>
+        <v>-10.9238451935081</v>
+      </c>
+      <c r="N36" s="1">
+        <f>Table4[[#This Row],[time_weka]]/Table4[[#This Row],[time_FRF_1.0]]</f>
+        <v>7.1426612276272916</v>
+      </c>
+      <c r="O36" s="1">
+        <f>Table4[[#This Row],[accuracy_FRF_1.0]]-Table4[[#This Row],[accuracy_FRF_0.99]]</f>
+        <v>-11.089176029962601</v>
+      </c>
+      <c r="P36" s="1">
+        <f>Table4[[#This Row],[time_FRF_0.99]]/Table4[[#This Row],[time_FRF_1.0]]</f>
+        <v>34.941667176212647</v>
+      </c>
+    </row>
+    <row r="37" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A37" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B37" s="2">
+        <v>11162</v>
+      </c>
+      <c r="C37" s="2">
+        <f>Table4[[#This Row],[ numNumeric]]+Table4[[#This Row],[ numNominal]]</f>
+        <v>11465</v>
+      </c>
+      <c r="D37" s="2">
+        <v>11465</v>
+      </c>
+      <c r="E37" s="2">
+        <v>0</v>
+      </c>
+      <c r="F37" s="2">
+        <v>10</v>
+      </c>
+      <c r="G37" s="3">
+        <v>76.283820103924</v>
+      </c>
+      <c r="H37" s="3">
+        <v>3210571.6</v>
+      </c>
+      <c r="I37" s="1"/>
+      <c r="J37" s="1"/>
+      <c r="K37" s="1">
+        <v>66.950367317684993</v>
+      </c>
+      <c r="L37" s="1">
+        <v>598945.19999999995</v>
+      </c>
+      <c r="M37" s="3">
+        <f>Table4[[#This Row],[accuracy_FRF_1.0]]-Table4[[#This Row],[accuracy_weka]]</f>
+        <v>-9.3334527862390075</v>
+      </c>
+      <c r="N37" s="1">
+        <f>Table4[[#This Row],[time_weka]]/Table4[[#This Row],[time_FRF_1.0]]</f>
+        <v>5.3603762080404023</v>
+      </c>
+      <c r="O37" s="1"/>
+      <c r="P37" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
